--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="594">
   <si>
     <t>Team</t>
   </si>
@@ -512,24 +512,24 @@
     <t>Man United</t>
   </si>
   <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
     <t>Leicester</t>
   </si>
   <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
     <t>Tottenham</t>
   </si>
   <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -548,15 +548,15 @@
     <t>Southampton</t>
   </si>
   <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
     <t>Burnley</t>
   </si>
   <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
     <t>Fulham</t>
   </si>
   <si>
@@ -566,427 +566,430 @@
     <t>Sheffield United</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-4</t>
   </si>
   <si>
     <t>-21</t>
   </si>
   <si>
-    <t>-18</t>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>e1_GD</t>
+  </si>
+  <si>
+    <t>e1_PTS</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>e2_GD</t>
+  </si>
+  <si>
+    <t>e2_PTS</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-29</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>ec_GD</t>
+  </si>
+  <si>
+    <t>ec_PTS</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>-19</t>
   </si>
   <si>
-    <t>-37</t>
-  </si>
-  <si>
-    <t>-43</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>e1_GD</t>
-  </si>
-  <si>
-    <t>e1_PTS</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>e2_GD</t>
-  </si>
-  <si>
-    <t>e2_PTS</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Peterboro</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>-34</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>ec_GD</t>
-  </si>
-  <si>
-    <t>ec_PTS</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>-49</t>
   </si>
   <si>
-    <t>-44</t>
-  </si>
-  <si>
-    <t>-56</t>
+    <t>-57</t>
   </si>
   <si>
     <t>f1_GD</t>
@@ -1058,9 +1061,6 @@
     <t>84</t>
   </si>
   <si>
-    <t>-15</t>
-  </si>
-  <si>
     <t>f2_GD</t>
   </si>
   <si>
@@ -1163,12 +1163,12 @@
     <t>Lamia</t>
   </si>
   <si>
+    <t>Apollon</t>
+  </si>
+  <si>
     <t>OFI Crete</t>
   </si>
   <si>
-    <t>Apollon</t>
-  </si>
-  <si>
     <t>Panetolikos</t>
   </si>
   <si>
@@ -1418,10 +1418,13 @@
     <t>Pacos Ferreira</t>
   </si>
   <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
     <t>Guimaraes</t>
   </si>
   <si>
-    <t>Santa Clara</t>
+    <t>Moreirense</t>
   </si>
   <si>
     <t>Belenenses</t>
@@ -1430,12 +1433,12 @@
     <t>Famalicao</t>
   </si>
   <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
     <t>Gil Vicente</t>
   </si>
   <si>
+    <t>Boavista</t>
+  </si>
+  <si>
     <t>Tondela</t>
   </si>
   <si>
@@ -1445,15 +1448,12 @@
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Boavista</t>
+    <t>Rio Ave</t>
   </si>
   <si>
     <t>Farense</t>
   </si>
   <si>
-    <t>Rio Ave</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
@@ -1676,9 +1676,6 @@
     <t>Eibar</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>sp2_GD</t>
   </si>
   <si>
@@ -1721,27 +1718,27 @@
     <t>Malaga</t>
   </si>
   <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
     <t>Tenerife</t>
   </si>
   <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
     <t>Cartagena</t>
   </si>
   <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
     <t>Zaragoza</t>
   </si>
   <si>
-    <t>Alcorcon</t>
+    <t>Logrones</t>
   </si>
   <si>
     <t>Castellon</t>
   </si>
   <si>
-    <t>Logrones</t>
-  </si>
-  <si>
     <t>Lugo</t>
   </si>
   <si>
@@ -1818,9 +1815,6 @@
   </si>
   <si>
     <t>Denizlispor</t>
-  </si>
-  <si>
-    <t>-39</t>
   </si>
 </sst>
 </file>
@@ -2549,7 +2543,7 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -2604,13 +2598,13 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -2671,7 +2665,7 @@
         <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -2735,7 +2729,7 @@
         <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -2962,7 +2956,7 @@
         <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
@@ -3026,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -3122,7 +3116,7 @@
         <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
         <v>88</v>
@@ -3214,7 +3208,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -3418,7 +3412,7 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -3456,7 +3450,7 @@
         <v>152</v>
       </c>
       <c r="J9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -3467,7 +3461,7 @@
         <v>374</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -3476,16 +3470,16 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="J10" t="s">
         <v>117</v>
@@ -3517,7 +3511,7 @@
         <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
         <v>117</v>
@@ -3534,25 +3528,25 @@
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -3563,28 +3557,28 @@
         <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -3616,7 +3610,7 @@
         <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -3648,7 +3642,7 @@
         <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3702,10 +3696,10 @@
         <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3714,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -3734,7 +3728,7 @@
         <v>384</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -3755,7 +3749,7 @@
         <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -3766,7 +3760,7 @@
         <v>385</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
@@ -3798,7 +3792,7 @@
         <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -3830,7 +3824,7 @@
         <v>387</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>119</v>
@@ -3845,7 +3839,7 @@
         <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
         <v>89</v>
@@ -3862,13 +3856,13 @@
         <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -3883,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -3894,7 +3888,7 @@
         <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -3926,7 +3920,7 @@
         <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -3958,7 +3952,7 @@
         <v>391</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -3990,28 +3984,28 @@
         <v>392</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -4022,28 +4016,28 @@
         <v>393</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="I12" t="s">
         <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -4054,7 +4048,7 @@
         <v>394</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -4072,7 +4066,7 @@
         <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J13" t="s">
         <v>62</v>
@@ -4086,7 +4080,7 @@
         <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -4104,7 +4098,7 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J14" t="s">
         <v>87</v>
@@ -4118,7 +4112,7 @@
         <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -4136,7 +4130,7 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J15" t="s">
         <v>87</v>
@@ -4150,7 +4144,7 @@
         <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -4182,7 +4176,7 @@
         <v>398</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -4200,10 +4194,10 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4214,13 +4208,13 @@
         <v>399</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -4232,10 +4226,10 @@
         <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -4246,7 +4240,7 @@
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -4278,7 +4272,7 @@
         <v>401</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -4287,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -4310,7 +4304,7 @@
         <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -4325,7 +4319,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I21" t="s">
         <v>408</v>
@@ -4624,7 +4618,7 @@
         <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -4691,7 +4685,7 @@
         <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
@@ -4877,7 +4871,7 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H17" t="s">
         <v>65</v>
@@ -4909,13 +4903,13 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H18" t="s">
         <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
         <v>117</v>
@@ -4973,7 +4967,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
@@ -5071,7 +5065,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -5086,7 +5080,7 @@
         <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
         <v>314</v>
@@ -5153,7 +5147,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -5214,7 +5208,7 @@
         <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
         <v>69</v>
@@ -5275,7 +5269,7 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -5374,7 +5368,7 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
         <v>61</v>
@@ -5595,7 +5589,7 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I18" t="s">
         <v>453</v>
@@ -5624,7 +5618,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -5687,10 +5681,10 @@
         <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -5699,16 +5693,16 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>287</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
@@ -5719,10 +5713,10 @@
         <v>457</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -5731,16 +5725,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>256</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -5751,10 +5745,10 @@
         <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -5763,16 +5757,16 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -5783,13 +5777,13 @@
         <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -5804,7 +5798,7 @@
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -5815,10 +5809,10 @@
         <v>460</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -5827,16 +5821,16 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -5847,10 +5841,10 @@
         <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -5859,16 +5853,16 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" t="s">
         <v>89</v>
       </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -5879,7 +5873,7 @@
         <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -5888,16 +5882,16 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="J8" t="s">
         <v>86</v>
@@ -5911,10 +5905,10 @@
         <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -5923,16 +5917,16 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -5943,25 +5937,25 @@
         <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
@@ -5975,25 +5969,25 @@
         <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
@@ -6007,7 +6001,7 @@
         <v>466</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -6016,16 +6010,16 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="J12" t="s">
         <v>87</v>
@@ -6039,25 +6033,25 @@
         <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>405</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
         <v>89</v>
@@ -6071,28 +6065,28 @@
         <v>468</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -6103,28 +6097,28 @@
         <v>469</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -6135,28 +6129,28 @@
         <v>470</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17">
@@ -6167,28 +6161,28 @@
         <v>471</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -6199,25 +6193,25 @@
         <v>472</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
@@ -6231,7 +6225,7 @@
         <v>473</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -6240,16 +6234,16 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -6318,16 +6312,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -6420,7 +6414,7 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
         <v>85</v>
@@ -6510,13 +6504,13 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J8" t="s">
         <v>85</v>
@@ -6548,7 +6542,7 @@
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -6676,7 +6670,7 @@
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J13" t="s">
         <v>452</v>
@@ -6733,7 +6727,7 @@
         <v>491</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -6765,7 +6759,7 @@
         <v>492</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -6797,7 +6791,7 @@
         <v>493</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -6829,7 +6823,7 @@
         <v>494</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -6861,7 +6855,7 @@
         <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -6893,7 +6887,7 @@
         <v>496</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6925,7 +6919,7 @@
         <v>497</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -6937,7 +6931,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
@@ -6957,7 +6951,7 @@
         <v>498</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -6972,13 +6966,13 @@
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -6989,7 +6983,7 @@
         <v>499</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -7010,7 +7004,7 @@
         <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -7021,7 +7015,7 @@
         <v>500</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -7039,7 +7033,7 @@
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
         <v>119</v>
@@ -7172,7 +7166,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -7268,7 +7262,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
@@ -7303,13 +7297,13 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -7332,7 +7326,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
@@ -7399,10 +7393,10 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -7506,7 +7500,7 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -7538,7 +7532,7 @@
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -7698,7 +7692,7 @@
         <v>116</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
         <v>151</v>
@@ -8441,7 +8435,7 @@
         <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
@@ -8462,7 +8456,7 @@
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -8473,7 +8467,7 @@
         <v>528</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -8488,7 +8482,7 @@
         <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
         <v>88</v>
@@ -8505,7 +8499,7 @@
         <v>529</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
@@ -8517,7 +8511,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H4" t="s">
         <v>88</v>
@@ -8537,7 +8531,7 @@
         <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
         <v>112</v>
@@ -8569,7 +8563,7 @@
         <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -8601,7 +8595,7 @@
         <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -8619,7 +8613,7 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
@@ -8633,7 +8627,7 @@
         <v>533</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -8665,7 +8659,7 @@
         <v>534</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -8683,7 +8677,7 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -8697,7 +8691,7 @@
         <v>535</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -8729,7 +8723,7 @@
         <v>536</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -8747,7 +8741,7 @@
         <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J11" t="s">
         <v>85</v>
@@ -8761,7 +8755,7 @@
         <v>537</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -8773,7 +8767,7 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" t="s">
         <v>71</v>
@@ -8793,7 +8787,7 @@
         <v>538</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -8825,7 +8819,7 @@
         <v>539</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -8857,7 +8851,7 @@
         <v>540</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -8889,7 +8883,7 @@
         <v>541</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -8921,7 +8915,7 @@
         <v>542</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -8933,16 +8927,16 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
         <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -8953,7 +8947,7 @@
         <v>543</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -8971,7 +8965,7 @@
         <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
         <v>111</v>
@@ -8985,7 +8979,7 @@
         <v>544</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -9003,7 +8997,7 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="J19" t="s">
         <v>111</v>
@@ -9017,7 +9011,7 @@
         <v>545</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -9049,7 +9043,7 @@
         <v>546</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -9061,7 +9055,7 @@
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
@@ -9110,10 +9104,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" t="s">
         <v>548</v>
-      </c>
-      <c r="J1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="2">
@@ -9121,13 +9115,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -9136,16 +9130,16 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
@@ -9153,13 +9147,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -9168,16 +9162,16 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
         <v>116</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
@@ -9185,10 +9179,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -9197,16 +9191,16 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
@@ -9217,16 +9211,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -9241,7 +9235,7 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -9249,13 +9243,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -9264,16 +9258,16 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -9281,10 +9275,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -9293,16 +9287,16 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>127</v>
@@ -9313,7 +9307,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
@@ -9345,10 +9339,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -9357,16 +9351,16 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
         <v>83</v>
@@ -9377,31 +9371,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" t="s">
         <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -9409,10 +9403,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -9421,16 +9415,16 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>547</v>
+        <v>151</v>
       </c>
       <c r="J11" t="s">
         <v>84</v>
@@ -9441,7 +9435,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -9462,7 +9456,7 @@
         <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
@@ -9473,10 +9467,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -9485,16 +9479,16 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
         <v>84</v>
@@ -9505,28 +9499,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
@@ -9537,31 +9531,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -9569,13 +9563,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -9584,16 +9578,16 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -9601,31 +9595,31 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -9633,7 +9627,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -9642,22 +9636,22 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>285</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -9665,31 +9659,31 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -9697,28 +9691,28 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
         <v>61</v>
@@ -9729,31 +9723,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
         <v>122</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -9761,10 +9755,10 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -9773,16 +9767,16 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
         <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
         <v>62</v>
@@ -9793,31 +9787,31 @@
         <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9857,10 +9851,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J1" t="s">
         <v>572</v>
-      </c>
-      <c r="J1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="2">
@@ -9868,7 +9862,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
         <v>62</v>
@@ -9883,7 +9877,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
         <v>59</v>
@@ -9892,7 +9886,7 @@
         <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
@@ -9900,7 +9894,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -9915,7 +9909,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
         <v>89</v>
@@ -9924,7 +9918,7 @@
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
@@ -9932,7 +9926,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -9964,7 +9958,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -9982,13 +9976,13 @@
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -9996,7 +9990,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -10028,7 +10022,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -10060,7 +10054,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -10092,7 +10086,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -10124,7 +10118,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -10156,7 +10150,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -10188,7 +10182,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -10220,7 +10214,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -10241,7 +10235,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J13" t="s">
         <v>65</v>
@@ -10252,7 +10246,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -10284,7 +10278,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
@@ -10316,7 +10310,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -10337,7 +10331,7 @@
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>
@@ -10348,7 +10342,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -10380,7 +10374,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -10412,7 +10406,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -10444,7 +10438,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -10465,7 +10459,7 @@
         <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>316</v>
       </c>
       <c r="J20" t="s">
         <v>88</v>
@@ -10476,7 +10470,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -10508,7 +10502,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -10526,13 +10520,13 @@
         <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I22" t="s">
-        <v>595</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -11205,7 +11199,7 @@
         <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -11214,19 +11208,19 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
@@ -11237,28 +11231,28 @@
         <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -11269,28 +11263,28 @@
         <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -11301,28 +11295,28 @@
         <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -11333,10 +11327,10 @@
         <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11345,16 +11339,16 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -11365,10 +11359,10 @@
         <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -11377,16 +11371,16 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -11397,7 +11391,7 @@
         <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -11406,16 +11400,16 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>69</v>
@@ -11429,10 +11423,10 @@
         <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -11441,16 +11435,16 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
         <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -11461,10 +11455,10 @@
         <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -11473,16 +11467,16 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -11493,10 +11487,10 @@
         <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -11505,16 +11499,16 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -11525,10 +11519,10 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -11537,16 +11531,16 @@
         <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -11557,7 +11551,7 @@
         <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -11566,16 +11560,16 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
         <v>85</v>
@@ -11589,7 +11583,7 @@
         <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -11598,16 +11592,16 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
@@ -11621,7 +11615,7 @@
         <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -11630,16 +11624,16 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="J15" t="s">
         <v>86</v>
@@ -11653,10 +11647,10 @@
         <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -11665,16 +11659,16 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -11685,28 +11679,28 @@
         <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -11717,28 +11711,28 @@
         <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -11749,28 +11743,28 @@
         <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
         <v>123</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -11781,7 +11775,7 @@
         <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -11790,16 +11784,16 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
         <v>64</v>
@@ -11813,7 +11807,7 @@
         <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -11822,16 +11816,16 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
         <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
@@ -11874,10 +11868,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
@@ -11885,13 +11879,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -11909,7 +11903,7 @@
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -11917,13 +11911,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -11941,7 +11935,7 @@
         <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -11949,7 +11943,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -11964,16 +11958,16 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
@@ -11981,7 +11975,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -12005,7 +11999,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -12013,7 +12007,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -12037,7 +12031,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
@@ -12045,7 +12039,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -12066,10 +12060,10 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -12077,7 +12071,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -12109,7 +12103,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -12141,7 +12135,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -12173,7 +12167,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -12205,7 +12199,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -12237,7 +12231,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -12269,7 +12263,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -12290,7 +12284,7 @@
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J14" t="s">
         <v>127</v>
@@ -12301,7 +12295,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -12333,7 +12327,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -12365,7 +12359,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -12386,7 +12380,7 @@
         <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -12397,7 +12391,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -12412,7 +12406,7 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" t="s">
         <v>127</v>
@@ -12429,7 +12423,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -12444,13 +12438,13 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
       </c>
       <c r="I19" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
@@ -12461,7 +12455,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -12493,7 +12487,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -12511,10 +12505,10 @@
         <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -12525,7 +12519,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -12546,7 +12540,7 @@
         <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
         <v>71</v>
@@ -12557,7 +12551,7 @@
         <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -12589,7 +12583,7 @@
         <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>60</v>
@@ -12610,7 +12604,7 @@
         <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
         <v>86</v>
@@ -12621,7 +12615,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -12685,10 +12679,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -12696,13 +12690,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -12711,7 +12705,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
         <v>88</v>
@@ -12720,7 +12714,7 @@
         <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -12728,7 +12722,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -12743,16 +12737,16 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -12760,7 +12754,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -12778,13 +12772,13 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" t="s">
         <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -12792,7 +12786,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -12816,7 +12810,7 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
@@ -12824,7 +12818,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -12845,10 +12839,10 @@
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7">
@@ -12856,7 +12850,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -12888,7 +12882,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -12903,7 +12897,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
@@ -12920,7 +12914,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -12952,7 +12946,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -12984,7 +12978,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -13016,7 +13010,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -13048,7 +13042,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -13080,7 +13074,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -13112,7 +13106,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -13133,7 +13127,7 @@
         <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="J15" t="s">
         <v>67</v>
@@ -13144,7 +13138,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -13176,7 +13170,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -13197,7 +13191,7 @@
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
         <v>50</v>
@@ -13208,7 +13202,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -13229,7 +13223,7 @@
         <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
@@ -13240,7 +13234,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -13258,10 +13252,10 @@
         <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J19" t="s">
         <v>58</v>
@@ -13272,7 +13266,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -13304,7 +13298,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -13322,10 +13316,10 @@
         <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
         <v>65</v>
@@ -13336,7 +13330,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -13354,7 +13348,7 @@
         <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="I22" t="s">
         <v>122</v>
@@ -13368,7 +13362,7 @@
         <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -13400,7 +13394,7 @@
         <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
         <v>60</v>
@@ -13412,13 +13406,13 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I24" t="s">
         <v>255</v>
@@ -13432,7 +13426,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -13444,7 +13438,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
@@ -13453,7 +13447,7 @@
         <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
         <v>88</v>
@@ -13563,7 +13557,7 @@
         <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -13595,7 +13589,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
@@ -13627,7 +13621,7 @@
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -13755,7 +13749,7 @@
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -13778,7 +13772,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
         <v>84</v>
@@ -14104,7 +14098,7 @@
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
         <v>58</v>
@@ -14200,7 +14194,7 @@
         <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
         <v>65</v>
@@ -14226,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
@@ -14258,7 +14252,7 @@
         <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
         <v>68</v>
@@ -14368,7 +14362,7 @@
         <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
         <v>90</v>
@@ -14449,7 +14443,7 @@
         <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -14458,16 +14452,16 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
@@ -14484,25 +14478,25 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -14513,28 +14507,28 @@
         <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -14612,19 +14606,19 @@
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -14641,28 +14635,28 @@
         <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -14673,10 +14667,10 @@
         <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -14685,16 +14679,16 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -14705,28 +14699,28 @@
         <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
         <v>83</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -14737,13 +14731,13 @@
         <v>303</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -14758,7 +14752,7 @@
         <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -14769,28 +14763,28 @@
         <v>304</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>315</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -14801,13 +14795,13 @@
         <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -14822,7 +14816,7 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -14865,7 +14859,7 @@
         <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -14874,16 +14868,16 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>316</v>
       </c>
       <c r="J19" t="s">
         <v>87</v>
@@ -14915,7 +14909,7 @@
         <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
         <v>117</v>
@@ -14947,7 +14941,7 @@
         <v>313</v>
       </c>
       <c r="I21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J21" t="s">
         <v>45</v>
@@ -14979,7 +14973,7 @@
         <v>314</v>
       </c>
       <c r="I22" t="s">
-        <v>316</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
         <v>63</v>
@@ -14993,7 +14987,7 @@
         <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -15002,16 +14996,16 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
         <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="I23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
@@ -15043,7 +15037,7 @@
         <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -15086,10 +15080,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
@@ -15097,10 +15091,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
@@ -15121,7 +15115,7 @@
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
@@ -15129,10 +15123,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>116</v>
@@ -15144,16 +15138,16 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
         <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
@@ -15161,10 +15155,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -15185,7 +15179,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
@@ -15193,10 +15187,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
@@ -15208,7 +15202,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
         <v>62</v>
@@ -15225,10 +15219,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -15257,10 +15251,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -15289,10 +15283,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -15321,10 +15315,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -15353,10 +15347,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -15374,7 +15368,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
@@ -15385,10 +15379,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -15406,7 +15400,7 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="J11" t="s">
         <v>60</v>
@@ -15417,10 +15411,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -15449,10 +15443,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -15481,10 +15475,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -15502,7 +15496,7 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
         <v>66</v>
@@ -15513,10 +15507,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -15534,7 +15528,7 @@
         <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J15" t="s">
         <v>66</v>
@@ -15545,10 +15539,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -15577,10 +15571,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -15598,7 +15592,7 @@
         <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
@@ -15609,10 +15603,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -15641,10 +15635,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -15662,7 +15656,7 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J19" t="s">
         <v>62</v>
@@ -15673,10 +15667,10 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -15705,10 +15699,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -15726,7 +15720,7 @@
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="597">
   <si>
     <t>Team</t>
   </si>
@@ -368,1032 +368,1035 @@
     <t>Schalke 04</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>86</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>d2_GD</t>
+  </si>
+  <si>
+    <t>d2_PTS</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Greuther Furth</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue</t>
+  </si>
+  <si>
+    <t>Nurnberg</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Sandhausen</t>
+  </si>
+  <si>
+    <t>Osnabruck</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Wurzburger Kickers</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>-29</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
-    <t>33</t>
+    <t>e0_GD</t>
+  </si>
+  <si>
+    <t>e0_PTS</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>e1_GD</t>
+  </si>
+  <si>
+    <t>e1_PTS</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>e2_GD</t>
+  </si>
+  <si>
+    <t>e2_PTS</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>ec_GD</t>
+  </si>
+  <si>
+    <t>ec_PTS</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>f1_GD</t>
+  </si>
+  <si>
+    <t>f1_PTS</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>-48</t>
+  </si>
+  <si>
+    <t>f2_GD</t>
+  </si>
+  <si>
+    <t>f2_PTS</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Chambly</t>
+  </si>
+  <si>
+    <t>Chateauroux</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>g1_GD</t>
+  </si>
+  <si>
+    <t>g1_PTS</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>i1_GD</t>
+  </si>
+  <si>
+    <t>i1_PTS</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>-47</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>i2_GD</t>
+  </si>
+  <si>
+    <t>i2_PTS</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Chievo</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <t>Virtus Entella</t>
+  </si>
+  <si>
+    <t>n1_GD</t>
+  </si>
+  <si>
+    <t>n1_PTS</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>VVV Venlo</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
   <si>
     <t>-28</t>
   </si>
   <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>-58</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>d2_GD</t>
-  </si>
-  <si>
-    <t>d2_PTS</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Greuther Furth</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Paderborn</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Erzgebirge Aue</t>
-  </si>
-  <si>
-    <t>Nurnberg</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t>Regensburg</t>
-  </si>
-  <si>
-    <t>Sandhausen</t>
-  </si>
-  <si>
-    <t>Osnabruck</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
-    <t>Wurzburger Kickers</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>e0_GD</t>
-  </si>
-  <si>
-    <t>e0_PTS</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Leeds</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>-41</t>
-  </si>
-  <si>
-    <t>-43</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>e1_GD</t>
-  </si>
-  <si>
-    <t>e1_PTS</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Brentford</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>-7</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>e2_GD</t>
-  </si>
-  <si>
-    <t>e2_PTS</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Peterboro</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>-34</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>ec_GD</t>
-  </si>
-  <si>
-    <t>ec_PTS</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>-52</t>
-  </si>
-  <si>
-    <t>-46</t>
-  </si>
-  <si>
-    <t>-57</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>f1_GD</t>
-  </si>
-  <si>
-    <t>f1_PTS</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>-31</t>
-  </si>
-  <si>
-    <t>-48</t>
-  </si>
-  <si>
-    <t>f2_GD</t>
-  </si>
-  <si>
-    <t>f2_PTS</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Chambly</t>
-  </si>
-  <si>
-    <t>Chateauroux</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>-15</t>
-  </si>
-  <si>
-    <t>g1_GD</t>
-  </si>
-  <si>
-    <t>g1_PTS</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>Larisa</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>i1_GD</t>
-  </si>
-  <si>
-    <t>i1_PTS</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>-35</t>
-  </si>
-  <si>
-    <t>-47</t>
-  </si>
-  <si>
-    <t>-44</t>
-  </si>
-  <si>
-    <t>i2_GD</t>
-  </si>
-  <si>
-    <t>i2_PTS</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Chievo</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Reggiana</t>
-  </si>
-  <si>
-    <t>Pescara</t>
-  </si>
-  <si>
-    <t>Virtus Entella</t>
-  </si>
-  <si>
-    <t>n1_GD</t>
-  </si>
-  <si>
-    <t>n1_PTS</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>FC Emmen</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>VVV Venlo</t>
-  </si>
-  <si>
-    <t>Den Haag</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -1700,33 +1703,33 @@
     <t>Leganes</t>
   </si>
   <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
     <t>Sp Gijon</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>Ponferradina</t>
   </si>
   <si>
     <t>Mirandes</t>
   </si>
   <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
     <t>Tenerife</t>
   </si>
   <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
     <t>Cartagena</t>
   </si>
   <si>
@@ -1739,13 +1742,13 @@
     <t>Logrones</t>
   </si>
   <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Sabadell</t>
+  </si>
+  <si>
     <t>Castellon</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Sabadell</t>
   </si>
   <si>
     <t>Albacete</t>
@@ -2531,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -2572,10 +2575,10 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
         <v>89</v>
@@ -2604,13 +2607,13 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
         <v>70</v>
@@ -2639,13 +2642,13 @@
         <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
@@ -2671,7 +2674,7 @@
         <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -2709,7 +2712,7 @@
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -2735,7 +2738,7 @@
         <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
@@ -2802,7 +2805,7 @@
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
         <v>71</v>
@@ -2898,7 +2901,7 @@
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
         <v>71</v>
@@ -2930,7 +2933,7 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
@@ -3090,7 +3093,7 @@
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J19" t="s">
         <v>61</v>
@@ -3122,7 +3125,7 @@
         <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
         <v>88</v>
@@ -3145,7 +3148,7 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>63</v>
@@ -3157,7 +3160,7 @@
         <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3217,7 @@
         <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -3229,7 +3232,7 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
         <v>382</v>
@@ -3296,7 +3299,7 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
@@ -3389,7 +3392,7 @@
         <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
@@ -3403,7 +3406,7 @@
         <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -3418,7 +3421,7 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -3435,7 +3438,7 @@
         <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3447,7 +3450,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -3456,7 +3459,7 @@
         <v>364</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -3467,7 +3470,7 @@
         <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -3479,16 +3482,16 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
         <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -3499,7 +3502,7 @@
         <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -3517,10 +3520,10 @@
         <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -3531,7 +3534,7 @@
         <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -3543,7 +3546,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
         <v>62</v>
@@ -3563,7 +3566,7 @@
         <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -3575,13 +3578,13 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
         <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
         <v>63</v>
@@ -3595,7 +3598,7 @@
         <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -3613,10 +3616,10 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J14" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -3627,7 +3630,7 @@
         <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -3639,7 +3642,7 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
         <v>71</v>
@@ -3648,7 +3651,7 @@
         <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3708,7 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -3717,7 +3720,7 @@
         <v>254</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>56</v>
@@ -3746,13 +3749,13 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
         <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
         <v>217</v>
@@ -3769,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -3787,7 +3790,7 @@
         <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -3801,7 +3804,7 @@
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -3819,7 +3822,7 @@
         <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -3842,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
         <v>61</v>
@@ -3874,7 +3877,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
@@ -3883,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -3906,7 +3909,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
         <v>55</v>
@@ -3915,7 +3918,7 @@
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -3947,7 +3950,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -3976,7 +3979,7 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
@@ -4069,10 +4072,10 @@
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
@@ -4104,7 +4107,7 @@
         <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J14" t="s">
         <v>62</v>
@@ -4203,7 +4206,7 @@
         <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -4232,10 +4235,10 @@
         <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -4261,13 +4264,13 @@
         <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="I19" t="s">
         <v>407</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
@@ -4287,7 +4290,7 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
         <v>85</v>
@@ -4299,7 +4302,7 @@
         <v>408</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
@@ -4325,7 +4328,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
         <v>409</v>
@@ -4397,13 +4400,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -4464,7 +4467,7 @@
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -4493,7 +4496,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
@@ -4502,7 +4505,7 @@
         <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -4560,7 +4563,7 @@
         <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
@@ -4589,7 +4592,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
         <v>58</v>
@@ -4624,7 +4627,7 @@
         <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -4877,7 +4880,7 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
         <v>65</v>
@@ -4909,16 +4912,16 @@
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
         <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
@@ -4938,7 +4941,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
         <v>90</v>
@@ -4973,7 +4976,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
@@ -5002,10 +5005,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s">
         <v>67</v>
@@ -5014,7 +5017,7 @@
         <v>257</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5074,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -5083,13 +5086,13 @@
         <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>217</v>
       </c>
       <c r="J2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3">
@@ -5112,10 +5115,10 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>87</v>
@@ -5144,7 +5147,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>61</v>
@@ -5153,7 +5156,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -5185,7 +5188,7 @@
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -5214,7 +5217,7 @@
         <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
         <v>69</v>
@@ -5275,7 +5278,7 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -5406,7 +5409,7 @@
         <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
@@ -5470,7 +5473,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
         <v>88</v>
@@ -5499,10 +5502,10 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>453</v>
       </c>
       <c r="J15" t="s">
         <v>90</v>
@@ -5531,13 +5534,13 @@
         <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>453</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -5560,7 +5563,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
@@ -5569,7 +5572,7 @@
         <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5592,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
         <v>86</v>
@@ -5601,7 +5604,7 @@
         <v>341</v>
       </c>
       <c r="J18" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
@@ -5624,7 +5627,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -5633,7 +5636,7 @@
         <v>408</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5673,10 +5676,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
@@ -5684,7 +5687,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -5699,7 +5702,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
@@ -5708,7 +5711,7 @@
         <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
@@ -5716,7 +5719,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
@@ -5731,10 +5734,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>85</v>
@@ -5748,13 +5751,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -5766,7 +5769,7 @@
         <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
@@ -5780,7 +5783,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -5798,7 +5801,7 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
@@ -5812,7 +5815,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -5833,7 +5836,7 @@
         <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
@@ -5844,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -5876,7 +5879,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
@@ -5891,7 +5894,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
@@ -5908,7 +5911,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
@@ -5923,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
         <v>86</v>
@@ -5940,7 +5943,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -5955,10 +5958,10 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
         <v>364</v>
@@ -5972,7 +5975,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
         <v>45</v>
@@ -6004,7 +6007,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>45</v>
@@ -6019,13 +6022,13 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
         <v>87</v>
@@ -6036,7 +6039,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
@@ -6068,7 +6071,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -6089,7 +6092,7 @@
         <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
         <v>89</v>
@@ -6100,7 +6103,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -6115,7 +6118,7 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
         <v>71</v>
@@ -6124,7 +6127,7 @@
         <v>406</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -6132,7 +6135,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -6156,7 +6159,7 @@
         <v>218</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -6164,7 +6167,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -6179,7 +6182,7 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
         <v>62</v>
@@ -6196,7 +6199,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
@@ -6217,7 +6220,7 @@
         <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
@@ -6228,7 +6231,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C19" t="s">
         <v>45</v>
@@ -6243,16 +6246,16 @@
         <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
         <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6292,10 +6295,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2">
@@ -6303,13 +6306,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -6318,10 +6321,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -6335,7 +6338,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -6353,13 +6356,13 @@
         <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -6367,7 +6370,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -6388,7 +6391,7 @@
         <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
         <v>83</v>
@@ -6399,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -6420,7 +6423,7 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J5" t="s">
         <v>85</v>
@@ -6431,7 +6434,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -6463,7 +6466,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -6495,7 +6498,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -6510,7 +6513,7 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
@@ -6527,7 +6530,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -6548,7 +6551,7 @@
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -6559,7 +6562,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -6574,10 +6577,10 @@
         <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
         <v>340</v>
@@ -6591,7 +6594,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -6603,7 +6606,7 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
@@ -6623,7 +6626,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
@@ -6635,7 +6638,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -6644,10 +6647,10 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
@@ -6655,7 +6658,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
@@ -6719,10 +6722,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
@@ -6730,10 +6733,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -6745,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -6762,10 +6765,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -6794,10 +6797,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -6826,10 +6829,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -6858,10 +6861,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -6890,10 +6893,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -6922,10 +6925,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -6937,7 +6940,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
@@ -6946,7 +6949,7 @@
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -6954,10 +6957,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -6972,13 +6975,13 @@
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -6986,10 +6989,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -7001,16 +7004,16 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -7018,10 +7021,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -7033,7 +7036,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -7042,7 +7045,7 @@
         <v>222</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -7082,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
@@ -7093,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -7114,7 +7117,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
         <v>62</v>
@@ -7125,10 +7128,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -7140,7 +7143,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
         <v>46</v>
@@ -7157,10 +7160,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -7172,7 +7175,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -7189,10 +7192,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -7204,16 +7207,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -7221,10 +7224,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -7236,16 +7239,16 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I6" t="s">
         <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7">
@@ -7253,10 +7256,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -7268,7 +7271,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
         <v>64</v>
@@ -7285,10 +7288,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -7303,13 +7306,13 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -7317,10 +7320,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -7332,7 +7335,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
@@ -7349,10 +7352,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -7373,7 +7376,7 @@
         <v>364</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -7381,10 +7384,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -7399,10 +7402,10 @@
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -7445,10 +7448,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
@@ -7456,10 +7459,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -7477,7 +7480,7 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
         <v>56</v>
@@ -7488,10 +7491,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -7506,7 +7509,7 @@
         <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -7520,10 +7523,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -7538,7 +7541,7 @@
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -7552,10 +7555,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -7570,7 +7573,7 @@
         <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -7584,10 +7587,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -7602,7 +7605,7 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -7616,10 +7619,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -7631,10 +7634,10 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I7" t="s">
         <v>364</v>
@@ -7648,10 +7651,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -7663,7 +7666,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
@@ -7672,7 +7675,7 @@
         <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -7680,10 +7683,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -7695,16 +7698,16 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -7712,10 +7715,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -7733,7 +7736,7 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
         <v>148</v>
@@ -7744,10 +7747,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -7765,7 +7768,7 @@
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -7837,13 +7840,13 @@
         <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -7866,16 +7869,16 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
@@ -7901,10 +7904,10 @@
         <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
         <v>67</v>
@@ -7930,16 +7933,16 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
@@ -7962,13 +7965,13 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>82</v>
@@ -7994,13 +7997,13 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
@@ -8026,13 +8029,13 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -8058,13 +8061,13 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
@@ -8090,13 +8093,13 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
         <v>85</v>
@@ -8122,10 +8125,10 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
@@ -8154,13 +8157,13 @@
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
         <v>86</v>
@@ -8186,13 +8189,13 @@
         <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
         <v>87</v>
@@ -8218,13 +8221,13 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
         <v>89</v>
@@ -8250,16 +8253,16 @@
         <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -8282,16 +8285,16 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -8314,16 +8317,16 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -8346,13 +8349,13 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
@@ -8378,13 +8381,13 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
@@ -8427,10 +8430,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
@@ -8438,7 +8441,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -8456,13 +8459,13 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
@@ -8470,13 +8473,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -8488,7 +8491,7 @@
         <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
         <v>87</v>
@@ -8502,7 +8505,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -8517,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H4" t="s">
         <v>88</v>
@@ -8534,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -8552,7 +8555,7 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
@@ -8566,7 +8569,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -8590,7 +8593,7 @@
         <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -8598,7 +8601,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -8622,7 +8625,7 @@
         <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -8630,7 +8633,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -8662,7 +8665,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -8683,7 +8686,7 @@
         <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
         <v>58</v>
@@ -8694,7 +8697,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -8726,7 +8729,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -8744,10 +8747,10 @@
         <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
         <v>60</v>
@@ -8758,7 +8761,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
@@ -8790,7 +8793,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
@@ -8805,7 +8808,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
         <v>65</v>
@@ -8822,7 +8825,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
@@ -8854,7 +8857,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
@@ -8886,7 +8889,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -8907,7 +8910,7 @@
         <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
         <v>88</v>
@@ -8918,7 +8921,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
@@ -8933,7 +8936,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>86</v>
@@ -8950,7 +8953,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
@@ -8971,7 +8974,7 @@
         <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
         <v>89</v>
@@ -8982,7 +8985,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -9003,7 +9006,7 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
         <v>45</v>
@@ -9014,7 +9017,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
@@ -9035,7 +9038,7 @@
         <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
         <v>90</v>
@@ -9046,7 +9049,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C21" t="s">
         <v>88</v>
@@ -9061,16 +9064,16 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
         <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -9110,10 +9113,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
@@ -9121,7 +9124,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -9136,10 +9139,10 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
         <v>59</v>
@@ -9153,7 +9156,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
@@ -9185,13 +9188,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -9200,16 +9203,16 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -9217,13 +9220,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -9232,16 +9235,16 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -9249,13 +9252,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -9264,16 +9267,16 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -9281,31 +9284,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -9313,31 +9316,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
@@ -9345,10 +9348,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -9357,16 +9360,16 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
         <v>83</v>
@@ -9377,31 +9380,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -9409,7 +9412,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
@@ -9418,22 +9421,22 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -9441,16 +9444,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9462,10 +9465,10 @@
         <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -9473,31 +9476,31 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -9505,16 +9508,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
@@ -9523,13 +9526,13 @@
         <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -9537,28 +9540,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
         <v>84</v>
@@ -9569,10 +9572,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -9581,16 +9584,16 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J16" t="s">
         <v>65</v>
@@ -9601,7 +9604,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
@@ -9633,10 +9636,10 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -9645,16 +9648,16 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J18" t="s">
         <v>60</v>
@@ -9665,10 +9668,10 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -9677,16 +9680,16 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="J19" t="s">
         <v>59</v>
@@ -9697,31 +9700,31 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -9729,31 +9732,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -9761,42 +9764,42 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -9805,16 +9808,16 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
         <v>88</v>
@@ -9857,10 +9860,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2">
@@ -9868,7 +9871,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>62</v>
@@ -9900,7 +9903,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -9932,13 +9935,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -9964,7 +9967,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -9982,13 +9985,13 @@
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -9996,7 +9999,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -10020,7 +10023,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
@@ -10028,7 +10031,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
@@ -10043,7 +10046,7 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
         <v>58</v>
@@ -10052,7 +10055,7 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
@@ -10060,7 +10063,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -10092,7 +10095,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -10124,7 +10127,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -10156,7 +10159,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
@@ -10188,7 +10191,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -10220,7 +10223,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -10241,7 +10244,7 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J13" t="s">
         <v>65</v>
@@ -10252,7 +10255,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -10284,7 +10287,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
@@ -10316,7 +10319,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -10348,7 +10351,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -10369,7 +10372,7 @@
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
@@ -10380,7 +10383,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -10395,13 +10398,13 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
         <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>61</v>
@@ -10412,7 +10415,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -10430,10 +10433,10 @@
         <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J19" t="s">
         <v>62</v>
@@ -10444,7 +10447,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -10456,16 +10459,16 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
         <v>88</v>
@@ -10476,7 +10479,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
@@ -10488,7 +10491,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
         <v>59</v>
@@ -10497,7 +10500,7 @@
         <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
         <v>88</v>
@@ -10508,7 +10511,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -10529,10 +10532,10 @@
         <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -10598,13 +10601,13 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
         <v>52</v>
@@ -10636,7 +10639,7 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
         <v>67</v>
@@ -10665,13 +10668,13 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -10694,13 +10697,13 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J5" t="s">
         <v>57</v>
@@ -10790,7 +10793,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>55</v>
@@ -10924,7 +10927,7 @@
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
         <v>59</v>
@@ -11014,7 +11017,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -11052,7 +11055,7 @@
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
         <v>45</v>
@@ -11078,16 +11081,16 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -11110,13 +11113,13 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
         <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
@@ -11142,16 +11145,16 @@
         <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
         <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -11191,10 +11194,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -11202,13 +11205,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -11217,7 +11220,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
         <v>63</v>
@@ -11226,7 +11229,7 @@
         <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
@@ -11234,7 +11237,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -11255,10 +11258,10 @@
         <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
@@ -11266,7 +11269,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -11281,7 +11284,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
@@ -11298,7 +11301,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>88</v>
@@ -11319,7 +11322,7 @@
         <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
@@ -11330,7 +11333,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -11345,7 +11348,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
         <v>84</v>
@@ -11354,7 +11357,7 @@
         <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
@@ -11362,7 +11365,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -11377,7 +11380,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
         <v>71</v>
@@ -11386,7 +11389,7 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -11394,7 +11397,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
@@ -11409,16 +11412,16 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
@@ -11426,7 +11429,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>88</v>
@@ -11450,7 +11453,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -11458,7 +11461,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
         <v>88</v>
@@ -11479,7 +11482,7 @@
         <v>65</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
         <v>69</v>
@@ -11490,7 +11493,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -11505,7 +11508,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -11522,7 +11525,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>88</v>
@@ -11554,7 +11557,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
@@ -11572,7 +11575,7 @@
         <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
         <v>74</v>
@@ -11586,7 +11589,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
         <v>88</v>
@@ -11618,7 +11621,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
         <v>88</v>
@@ -11636,10 +11639,10 @@
         <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
@@ -11650,7 +11653,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
@@ -11668,10 +11671,10 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
         <v>86</v>
@@ -11682,7 +11685,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
@@ -11714,7 +11717,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
         <v>88</v>
@@ -11729,7 +11732,7 @@
         <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
         <v>55</v>
@@ -11746,7 +11749,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -11761,7 +11764,7 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
         <v>58</v>
@@ -11770,7 +11773,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20">
@@ -11778,7 +11781,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
         <v>88</v>
@@ -11790,16 +11793,16 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
         <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
         <v>64</v>
@@ -11810,7 +11813,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
         <v>88</v>
@@ -11822,19 +11825,19 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
         <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -11874,10 +11877,10 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
@@ -11885,13 +11888,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -11900,7 +11903,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
         <v>89</v>
@@ -11917,13 +11920,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -11932,13 +11935,13 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
         <v>224</v>
@@ -11949,7 +11952,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -11970,7 +11973,7 @@
         <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
         <v>225</v>
@@ -11981,13 +11984,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -12013,13 +12016,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -12037,7 +12040,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -12045,13 +12048,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -12066,7 +12069,7 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J7" t="s">
         <v>227</v>
@@ -12077,7 +12080,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
@@ -12092,7 +12095,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -12109,7 +12112,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -12124,7 +12127,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
@@ -12133,7 +12136,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -12141,7 +12144,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -12165,7 +12168,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
@@ -12173,7 +12176,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -12205,7 +12208,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -12229,7 +12232,7 @@
         <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -12237,7 +12240,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -12261,7 +12264,7 @@
         <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -12269,7 +12272,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -12293,7 +12296,7 @@
         <v>218</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -12301,7 +12304,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -12322,7 +12325,7 @@
         <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
         <v>82</v>
@@ -12333,7 +12336,7 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -12348,7 +12351,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" t="s">
         <v>56</v>
@@ -12365,7 +12368,7 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -12383,10 +12386,10 @@
         <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
         <v>55</v>
@@ -12397,7 +12400,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -12412,13 +12415,13 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
@@ -12429,7 +12432,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -12444,7 +12447,7 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
         <v>85</v>
@@ -12461,7 +12464,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -12473,13 +12476,13 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
         <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -12493,7 +12496,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -12511,10 +12514,10 @@
         <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -12525,7 +12528,7 @@
         <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -12537,16 +12540,16 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
         <v>71</v>
@@ -12554,10 +12557,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -12586,10 +12589,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>60</v>
@@ -12601,7 +12604,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
         <v>87</v>
@@ -12621,7 +12624,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -12702,7 +12705,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -12743,13 +12746,13 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
         <v>225</v>
@@ -12766,7 +12769,7 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -12778,10 +12781,10 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
         <v>226</v>
@@ -12798,7 +12801,7 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -12845,7 +12848,7 @@
         <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
         <v>227</v>
@@ -12880,7 +12883,7 @@
         <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -12894,7 +12897,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -12912,7 +12915,7 @@
         <v>148</v>
       </c>
       <c r="J8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -12935,7 +12938,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
@@ -12999,10 +13002,10 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
         <v>75</v>
@@ -13031,7 +13034,7 @@
         <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -13066,13 +13069,13 @@
         <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -13098,13 +13101,13 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -13127,7 +13130,7 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
         <v>52</v>
@@ -13191,13 +13194,13 @@
         <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J17" t="s">
         <v>50</v>
@@ -13325,7 +13328,7 @@
         <v>227</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
         <v>65</v>
@@ -13351,13 +13354,13 @@
         <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J22" t="s">
         <v>71</v>
@@ -13365,7 +13368,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>251</v>
@@ -13380,7 +13383,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
         <v>61</v>
@@ -13397,7 +13400,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
         <v>252</v>
@@ -13412,7 +13415,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>55</v>
@@ -13444,7 +13447,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
@@ -13522,13 +13525,13 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
         <v>286</v>
@@ -13577,7 +13580,7 @@
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -13609,7 +13612,7 @@
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -13627,7 +13630,7 @@
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
@@ -13755,7 +13758,7 @@
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -13778,7 +13781,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
         <v>84</v>
@@ -13819,7 +13822,7 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -13845,13 +13848,13 @@
         <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
         <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -13880,10 +13883,10 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -14037,10 +14040,10 @@
         <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
         <v>50</v>
@@ -14063,7 +14066,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
         <v>258</v>
@@ -14072,7 +14075,7 @@
         <v>285</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
         <v>56</v>
@@ -14133,10 +14136,10 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
         <v>51</v>
@@ -14159,7 +14162,7 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
         <v>58</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>282</v>
@@ -14200,7 +14203,7 @@
         <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s">
         <v>65</v>
@@ -14208,7 +14211,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
         <v>283</v>
@@ -14226,13 +14229,13 @@
         <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
         <v>85</v>
@@ -14255,16 +14258,16 @@
         <v>21</v>
       </c>
       <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
         <v>115</v>
-      </c>
-      <c r="G25" t="s">
-        <v>151</v>
       </c>
       <c r="H25" t="s">
         <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
         <v>86</v>
@@ -14324,7 +14327,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -14397,7 +14400,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
@@ -14429,7 +14432,7 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H5" t="s">
         <v>86</v>
@@ -14461,7 +14464,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
         <v>61</v>
@@ -14493,13 +14496,13 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
         <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
         <v>70</v>
@@ -14525,7 +14528,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -14566,7 +14569,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -14577,28 +14580,28 @@
         <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
@@ -14621,7 +14624,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s">
         <v>54</v>
@@ -14630,7 +14633,7 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -14641,28 +14644,28 @@
         <v>299</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -14694,7 +14697,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -14749,10 +14752,10 @@
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
         <v>218</v>
@@ -14784,10 +14787,10 @@
         <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
         <v>56</v>
@@ -14801,7 +14804,7 @@
         <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -14810,16 +14813,16 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
         <v>58</v>
@@ -14833,28 +14836,28 @@
         <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
         <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -14912,10 +14915,10 @@
         <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="J20" t="s">
         <v>89</v>
@@ -14938,7 +14941,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
         <v>85</v>
@@ -14961,19 +14964,19 @@
         <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
         <v>312</v>
@@ -14982,30 +14985,30 @@
         <v>314</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s">
         <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
         <v>224</v>
@@ -15014,12 +15017,12 @@
         <v>315</v>
       </c>
       <c r="J23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
         <v>311</v>
@@ -15040,10 +15043,10 @@
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
@@ -15115,13 +15118,13 @@
         <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -15144,10 +15147,10 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
         <v>57</v>
@@ -15185,7 +15188,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -15199,7 +15202,7 @@
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -15339,10 +15342,10 @@
         <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
@@ -15438,7 +15441,7 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
@@ -15470,7 +15473,7 @@
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="J13" t="s">
         <v>85</v>
@@ -15502,7 +15505,7 @@
         <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
@@ -15531,10 +15534,10 @@
         <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="J15" t="s">
         <v>66</v>
@@ -15598,7 +15601,7 @@
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
         <v>66</v>
@@ -15627,7 +15630,7 @@
         <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
         <v>74</v>
@@ -15691,13 +15694,13 @@
         <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I20" t="s">
         <v>340</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -15717,10 +15720,10 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H21" t="s">
         <v>49</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -938,54 +938,54 @@
     <t>Hartlepool</t>
   </si>
   <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
     <t>Notts County</t>
   </si>
   <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
     <t>Chesterfield</t>
   </si>
   <si>
+    <t>Solihull</t>
+  </si>
+  <si>
     <t>Eastleigh</t>
   </si>
   <si>
     <t>Halifax</t>
   </si>
   <si>
-    <t>Solihull</t>
-  </si>
-  <si>
     <t>Dag and Red</t>
   </si>
   <si>
     <t>Boreham Wood</t>
   </si>
   <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
     <t>Yeovil</t>
   </si>
   <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
     <t>Altrincham</t>
   </si>
   <si>
     <t>Weymouth</t>
   </si>
   <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
     <t>Woking</t>
   </si>
   <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
     <t>Kings Lynn</t>
   </si>
   <si>
@@ -995,16 +995,16 @@
     <t>Dover Athletic</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>-52</t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>-50</t>
   </si>
   <si>
     <t>-46</t>
   </si>
   <si>
-    <t>-55</t>
+    <t>-53</t>
   </si>
   <si>
     <t>84</t>
@@ -1760,12 +1760,12 @@
     <t>Almeria</t>
   </si>
   <si>
+    <t>Leganes</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Leganes</t>
-  </si>
-  <si>
     <t>Vallecano</t>
   </si>
   <si>
@@ -1775,13 +1775,16 @@
     <t>Ponferradina</t>
   </si>
   <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
     <t>Mirandes</t>
   </si>
   <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
+    <t>Malaga</t>
   </si>
   <si>
     <t>Oviedo</t>
@@ -1790,7 +1793,7 @@
     <t>Tenerife</t>
   </si>
   <si>
-    <t>Malaga</t>
+    <t>Alcorcon</t>
   </si>
   <si>
     <t>Cartagena</t>
@@ -1799,16 +1802,13 @@
     <t>Zaragoza</t>
   </si>
   <si>
-    <t>Alcorcon</t>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Sabadell</t>
   </si>
   <si>
     <t>Logrones</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Sabadell</t>
   </si>
   <si>
     <t>Castellon</t>
@@ -9859,7 +9859,7 @@
         <v>572</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -9868,16 +9868,16 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
         <v>293</v>
@@ -9894,28 +9894,28 @@
         <v>573</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="I3" t="s">
         <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -9929,10 +9929,10 @@
         <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -9941,16 +9941,16 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -9964,10 +9964,10 @@
         <v>575</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -9976,16 +9976,16 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -9999,28 +9999,28 @@
         <v>576</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -10034,7 +10034,7 @@
         <v>577</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -10043,16 +10043,16 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
@@ -10069,7 +10069,7 @@
         <v>578</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -10078,16 +10078,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
         <v>127</v>
@@ -10104,28 +10104,28 @@
         <v>579</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
         <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -10139,28 +10139,28 @@
         <v>580</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -10174,28 +10174,28 @@
         <v>581</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -10209,28 +10209,28 @@
         <v>582</v>
       </c>
       <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -10244,28 +10244,28 @@
         <v>583</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -10279,28 +10279,28 @@
         <v>584</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -10314,28 +10314,28 @@
         <v>585</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -10349,28 +10349,28 @@
         <v>586</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -10384,28 +10384,28 @@
         <v>587</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -10419,28 +10419,28 @@
         <v>588</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -10454,28 +10454,28 @@
         <v>589</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>225</v>
+        <v>375</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -10489,28 +10489,28 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -10524,28 +10524,28 @@
         <v>591</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>374</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -10559,7 +10559,7 @@
         <v>592</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -10568,16 +10568,16 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
         <v>62</v>
@@ -10594,7 +10594,7 @@
         <v>593</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -10603,16 +10603,16 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="J23" t="s">
         <v>89</v>
@@ -15536,7 +15536,7 @@
         <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>116</v>
@@ -15545,16 +15545,16 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>264</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
         <v>324</v>
@@ -15571,13 +15571,13 @@
         <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -15592,7 +15592,7 @@
         <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15606,10 +15606,10 @@
         <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -15618,16 +15618,16 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -15641,10 +15641,10 @@
         <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -15653,16 +15653,16 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
         <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -15676,28 +15676,28 @@
         <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -15711,28 +15711,28 @@
         <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
         <v>189</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -15746,28 +15746,28 @@
         <v>303</v>
       </c>
       <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" t="s">
         <v>67</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -15781,10 +15781,10 @@
         <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
@@ -15793,16 +15793,16 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15816,28 +15816,28 @@
         <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -15851,28 +15851,28 @@
         <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -15892,22 +15892,22 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -15921,28 +15921,28 @@
         <v>308</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -15956,7 +15956,7 @@
         <v>309</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -15965,16 +15965,16 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>84</v>
@@ -15994,25 +15994,25 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -16026,28 +16026,28 @@
         <v>311</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
         <v>121</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -16061,28 +16061,28 @@
         <v>312</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -16096,13 +16096,13 @@
         <v>313</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -16117,7 +16117,7 @@
         <v>79</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -16131,7 +16131,7 @@
         <v>314</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -16140,16 +16140,16 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
         <v>88</v>
@@ -16169,25 +16169,25 @@
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>124</v>
+        <v>321</v>
       </c>
       <c r="J20" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -16201,28 +16201,28 @@
         <v>316</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
         <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>321</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -16236,19 +16236,19 @@
         <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>320</v>
@@ -16257,7 +16257,7 @@
         <v>322</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -16271,10 +16271,10 @@
         <v>318</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -16283,7 +16283,7 @@
         <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
         <v>229</v>
@@ -16292,7 +16292,7 @@
         <v>323</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="522">
   <si>
     <t>Team</t>
   </si>
@@ -524,21 +524,21 @@
     <t>e2_rank</t>
   </si>
   <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
     <t>Sunderland</t>
   </si>
   <si>
     <t>Wigan</t>
   </si>
   <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
     <t>Rotherham</t>
   </si>
   <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
     <t>Milton Keynes Dons</t>
   </si>
   <si>
@@ -548,6 +548,9 @@
     <t>Oxford</t>
   </si>
   <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -557,9 +560,6 @@
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
     <t>Morecambe</t>
   </si>
   <si>
@@ -569,6 +569,9 @@
     <t>Cambridge</t>
   </si>
   <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
     <t>Cheltenham</t>
   </si>
   <si>
@@ -581,9 +584,6 @@
     <t>Fleetwood Town</t>
   </si>
   <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
     <t>Charlton</t>
   </si>
   <si>
@@ -614,13 +614,25 @@
     <t>Harrogate</t>
   </si>
   <si>
+    <t>Swindon</t>
+  </si>
+  <si>
     <t>Port Vale</t>
   </si>
   <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
     <t>Leyton Orient</t>
   </si>
   <si>
-    <t>Swindon</t>
+    <t>Sutton</t>
   </si>
   <si>
     <t>Barrow</t>
@@ -632,22 +644,16 @@
     <t>Exeter</t>
   </si>
   <si>
+    <t>Newport County</t>
+  </si>
+  <si>
     <t>Northampton</t>
   </si>
   <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Sutton</t>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
   </si>
   <si>
     <t>Rochdale</t>
@@ -656,10 +662,7 @@
     <t>Salford</t>
   </si>
   <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
+    <t>Walsall</t>
   </si>
   <si>
     <t>Carlisle</t>
@@ -671,15 +674,15 @@
     <t>Mansfield</t>
   </si>
   <si>
-    <t>Walsall</t>
-  </si>
-  <si>
     <t>Oldham</t>
   </si>
   <si>
     <t>Scunthorpe</t>
   </si>
   <si>
+    <t>-16</t>
+  </si>
+  <si>
     <t>ec_GD</t>
   </si>
   <si>
@@ -692,72 +695,75 @@
     <t>Grimsby</t>
   </si>
   <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
     <t>Dag and Red</t>
   </si>
   <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
+    <t>Solihull</t>
   </si>
   <si>
     <t>Notts County</t>
   </si>
   <si>
-    <t>Solihull</t>
-  </si>
-  <si>
     <t>Stockport</t>
   </si>
   <si>
-    <t>Bromley</t>
-  </si>
-  <si>
     <t>Woking</t>
   </si>
   <si>
     <t>Wrexham</t>
   </si>
   <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
     <t>Torquay</t>
   </si>
   <si>
-    <t>Eastleigh</t>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Barnet</t>
   </si>
   <si>
     <t>Wealdstone</t>
   </si>
   <si>
-    <t>Yeovil</t>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Southend</t>
   </si>
   <si>
     <t>Weymouth</t>
   </si>
   <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
     <t>Aldershot</t>
   </si>
   <si>
     <t>Dover Athletic</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>f1_GD</t>
   </si>
   <si>
@@ -1469,55 +1475,55 @@
     <t>Ponferradina</t>
   </si>
   <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
     <t>Eibar</t>
   </si>
   <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
     <t>Las Palmas</t>
   </si>
   <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
     <t>Ibiza</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Huesca</t>
+    <t>Lugo</t>
   </si>
   <si>
     <t>Mirandes</t>
   </si>
   <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
     <t>Burgos</t>
   </si>
   <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
     <t>Leganes</t>
   </si>
   <si>
-    <t>Sociedad B</t>
+    <t>Zaragoza</t>
   </si>
   <si>
     <t>Girona</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
   </si>
   <si>
     <t>Amorebieta</t>
@@ -2343,13 +2349,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
@@ -2357,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -2392,7 +2398,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -2427,7 +2433,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -2462,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2497,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -2532,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -2567,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -2602,7 +2608,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -2637,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -2672,7 +2678,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -2707,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -2742,7 +2748,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -2777,7 +2783,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -2812,7 +2818,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -2847,7 +2853,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -2882,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -2917,7 +2923,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -2952,7 +2958,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -2987,7 +2993,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -3022,7 +3028,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -3043,7 +3049,7 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -3089,13 +3095,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
@@ -3103,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -3138,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -3173,7 +3179,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -3208,7 +3214,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -3243,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -3278,7 +3284,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -3313,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3348,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -3383,7 +3389,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -3418,7 +3424,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -3453,7 +3459,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -3488,7 +3494,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -3523,7 +3529,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -3558,7 +3564,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -3625,13 +3631,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
@@ -3639,7 +3645,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -3674,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -3709,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -3744,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -3779,7 +3785,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -3814,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -3849,7 +3855,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -3884,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -3919,7 +3925,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -3954,7 +3960,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -3989,7 +3995,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -4024,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -4059,7 +4065,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -4094,7 +4100,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -4129,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -4164,7 +4170,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -4199,7 +4205,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -4234,7 +4240,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -4269,7 +4275,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -4304,7 +4310,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -4371,13 +4377,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
@@ -4385,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -4420,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -4455,7 +4461,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -4490,7 +4496,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -4525,7 +4531,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -4560,7 +4566,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -4595,7 +4601,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -4630,7 +4636,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -4665,7 +4671,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -4700,7 +4706,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -4735,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -4770,7 +4776,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -4805,7 +4811,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -4840,7 +4846,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -4875,7 +4881,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -4910,7 +4916,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -4945,7 +4951,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -4980,7 +4986,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -5015,7 +5021,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -5050,7 +5056,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -5117,13 +5123,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
@@ -5131,7 +5137,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -5146,13 +5152,13 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -5166,7 +5172,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -5201,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -5236,7 +5242,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -5271,7 +5277,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -5306,7 +5312,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5341,7 +5347,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -5376,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -5411,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -5446,7 +5452,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -5481,7 +5487,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -5516,7 +5522,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -5551,7 +5557,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -5586,7 +5592,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -5621,7 +5627,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -5656,7 +5662,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -5691,7 +5697,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -5726,7 +5732,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -5793,13 +5799,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
@@ -5807,7 +5813,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -5842,7 +5848,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -5877,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -5912,7 +5918,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -5947,7 +5953,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -5982,7 +5988,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6017,7 +6023,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -6052,7 +6058,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -6087,7 +6093,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -6122,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -6157,7 +6163,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -6192,7 +6198,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -6227,7 +6233,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -6262,7 +6268,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -6297,7 +6303,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -6332,7 +6338,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -6367,7 +6373,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -6402,7 +6408,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -6469,13 +6475,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
@@ -6483,7 +6489,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -6518,7 +6524,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -6553,7 +6559,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -6588,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -6623,7 +6629,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -6658,7 +6664,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6693,7 +6699,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -6728,7 +6734,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -6763,7 +6769,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -6798,7 +6804,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -6833,7 +6839,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -6868,7 +6874,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -6935,13 +6941,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
@@ -6949,7 +6955,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -6984,7 +6990,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -7019,7 +7025,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -7054,7 +7060,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -7089,7 +7095,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -7124,7 +7130,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -7159,7 +7165,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -7194,7 +7200,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -7229,7 +7235,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -7264,7 +7270,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -7331,13 +7337,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
@@ -7345,7 +7351,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -7380,7 +7386,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -7415,7 +7421,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -7450,7 +7456,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -7485,7 +7491,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -7520,7 +7526,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -7555,7 +7561,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -7590,7 +7596,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -7625,7 +7631,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -7660,7 +7666,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -7727,13 +7733,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2">
@@ -7741,7 +7747,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -7776,7 +7782,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -7811,7 +7817,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -7846,7 +7852,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -7881,7 +7887,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -7916,7 +7922,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -7951,7 +7957,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -7986,7 +7992,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -8021,7 +8027,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -8056,7 +8062,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -8799,13 +8805,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
@@ -8813,7 +8819,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -8848,7 +8854,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -8883,7 +8889,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -8918,7 +8924,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -8953,7 +8959,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -8988,7 +8994,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -9023,7 +9029,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -9058,7 +9064,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -9093,7 +9099,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -9128,7 +9134,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -9163,7 +9169,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -9198,7 +9204,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -9233,7 +9239,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -9268,7 +9274,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -9303,7 +9309,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -9338,7 +9344,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -9373,7 +9379,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -9408,7 +9414,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -9443,7 +9449,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -9478,7 +9484,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -9545,13 +9551,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -9559,31 +9565,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -9594,31 +9600,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -9629,31 +9635,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -9664,13 +9670,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -9682,13 +9688,13 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -9699,31 +9705,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -9734,31 +9740,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -9769,31 +9775,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9804,31 +9810,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9839,31 +9845,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -9874,31 +9880,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -9909,31 +9915,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -9944,16 +9950,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -9968,7 +9974,7 @@
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -9979,31 +9985,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -10014,31 +10020,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -10049,31 +10055,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -10084,31 +10090,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -10119,10 +10125,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -10131,16 +10137,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -10154,31 +10160,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -10189,31 +10195,31 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -10224,28 +10230,28 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -10259,10 +10265,10 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -10271,16 +10277,16 @@
         <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -10294,13 +10300,13 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -10309,16 +10315,16 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -10361,13 +10367,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2">
@@ -10375,7 +10381,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -10410,7 +10416,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -10445,7 +10451,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -10480,7 +10486,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -10515,7 +10521,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -10550,7 +10556,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -10585,7 +10591,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -10620,7 +10626,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -10655,7 +10661,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -10690,7 +10696,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -10725,7 +10731,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -10760,7 +10766,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -10795,7 +10801,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -10830,7 +10836,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -10865,7 +10871,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -10900,7 +10906,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -10935,7 +10941,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -10970,7 +10976,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -11005,7 +11011,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -11040,7 +11046,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -11061,7 +11067,7 @@
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J21" t="s">
         <v>10</v>
@@ -13432,28 +13438,28 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13467,28 +13473,28 @@
         <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13502,28 +13508,28 @@
         <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -13537,28 +13543,28 @@
         <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -13572,7 +13578,7 @@
         <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -13581,16 +13587,16 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
@@ -13642,7 +13648,7 @@
         <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -13651,16 +13657,16 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
@@ -13718,22 +13724,22 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -13750,22 +13756,22 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
@@ -13782,28 +13788,28 @@
         <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -13817,25 +13823,25 @@
         <v>174</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -13963,22 +13969,22 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14004,13 +14010,13 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -14030,25 +14036,25 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -14062,28 +14068,28 @@
         <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14109,13 +14115,13 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -14202,7 +14208,7 @@
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -14211,16 +14217,16 @@
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -14318,7 +14324,7 @@
         <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -14327,16 +14333,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>50</v>
@@ -14353,28 +14359,28 @@
         <v>192</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -14388,28 +14394,28 @@
         <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -14423,28 +14429,28 @@
         <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -14458,28 +14464,28 @@
         <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -14493,28 +14499,28 @@
         <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -14528,28 +14534,28 @@
         <v>197</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14563,28 +14569,28 @@
         <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -14601,25 +14607,25 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -14633,28 +14639,28 @@
         <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -14668,28 +14674,28 @@
         <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -14703,28 +14709,28 @@
         <v>202</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -14738,13 +14744,13 @@
         <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -14759,7 +14765,7 @@
         <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -14773,28 +14779,28 @@
         <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14808,28 +14814,28 @@
         <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
       <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
         <v>22</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14843,13 +14849,13 @@
         <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -14858,13 +14864,13 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14878,7 +14884,7 @@
         <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -14887,16 +14893,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -14913,28 +14919,28 @@
         <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -14948,28 +14954,28 @@
         <v>209</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14983,7 +14989,7 @@
         <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -14992,16 +14998,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -15024,22 +15030,22 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" t="s">
         <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15053,28 +15059,28 @@
         <v>212</v>
       </c>
       <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -15088,13 +15094,13 @@
         <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -15109,7 +15115,7 @@
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -15123,7 +15129,7 @@
         <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -15132,16 +15138,16 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -15187,13 +15193,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -15201,13 +15207,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -15216,16 +15222,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15236,31 +15242,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>49</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15271,31 +15277,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -15306,31 +15312,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -15341,31 +15347,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -15376,31 +15382,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -15411,31 +15417,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -15446,31 +15452,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15481,31 +15487,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -15516,31 +15522,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -15551,31 +15557,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -15586,31 +15592,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -15621,31 +15627,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -15656,31 +15662,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -15691,16 +15697,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -15709,13 +15715,13 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -15726,31 +15732,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -15761,31 +15767,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -15796,31 +15802,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -15831,31 +15837,31 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15866,31 +15872,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -15901,31 +15907,31 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15936,31 +15942,31 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -15971,10 +15977,10 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -15983,16 +15989,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -16038,13 +16044,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -16052,7 +16058,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -16087,7 +16093,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -16122,7 +16128,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -16157,7 +16163,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -16192,7 +16198,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -16227,7 +16233,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -16262,7 +16268,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -16297,7 +16303,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -16332,7 +16338,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -16367,7 +16373,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -16402,7 +16408,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -16437,7 +16443,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -16472,7 +16478,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -16507,7 +16513,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -16542,7 +16548,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -16577,7 +16583,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -16612,7 +16618,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -16647,7 +16653,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -16682,7 +16688,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -16717,7 +16723,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="527">
   <si>
     <t>Team</t>
   </si>
@@ -401,12 +401,12 @@
     <t>Wolves</t>
   </si>
   <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
     <t>Leicester</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -452,171 +452,174 @@
     <t>Bournemouth</t>
   </si>
   <si>
+    <t>Fulham</t>
+  </si>
+  <si>
     <t>West Brom</t>
   </si>
   <si>
     <t>Coventry</t>
   </si>
   <si>
-    <t>Fulham</t>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>QPR</t>
   </si>
   <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
-    <t>QPR</t>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Millwall</t>
   </si>
   <si>
     <t>Blackburn</t>
   </si>
   <si>
-    <t>Luton</t>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Swansea</t>
   </si>
   <si>
     <t>Bristol City</t>
   </si>
   <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
     <t>Derby</t>
   </si>
   <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Millwall</t>
+    <t>Preston</t>
   </si>
   <si>
     <t>Sheffield United</t>
   </si>
   <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
     <t>Birmingham</t>
   </si>
   <si>
-    <t>Preston</t>
-  </si>
-  <si>
     <t>Cardiff</t>
   </si>
   <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
     <t>Hull</t>
   </si>
   <si>
     <t>Barnsley</t>
   </si>
   <si>
-    <t>Peterboro</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>e2_GD</t>
+  </si>
+  <si>
+    <t>e2_PTS</t>
+  </si>
+  <si>
+    <t>e2_rank</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>-13</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>e2_GD</t>
-  </si>
-  <si>
-    <t>e2_PTS</t>
-  </si>
-  <si>
-    <t>e2_rank</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>e3_GD</t>
   </si>
   <si>
@@ -632,22 +635,31 @@
     <t>Harrogate</t>
   </si>
   <si>
+    <t>Swindon</t>
+  </si>
+  <si>
     <t>Port Vale</t>
   </si>
   <si>
     <t>Tranmere</t>
   </si>
   <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
     <t>Sutton</t>
   </si>
   <si>
-    <t>Swindon</t>
-  </si>
-  <si>
     <t>Leyton Orient</t>
   </si>
   <si>
-    <t>Northampton</t>
+    <t>Barrow</t>
   </si>
   <si>
     <t>Bradford</t>
@@ -656,21 +668,15 @@
     <t>Crawley Town</t>
   </si>
   <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
     <t>Newport County</t>
   </si>
   <si>
     <t>Salford</t>
   </si>
   <si>
+    <t>Walsall</t>
+  </si>
+  <si>
     <t>Bristol Rvs</t>
   </si>
   <si>
@@ -683,18 +689,15 @@
     <t>Stevenage</t>
   </si>
   <si>
-    <t>Walsall</t>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
   </si>
   <si>
     <t>Oldham</t>
   </si>
   <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
     <t>Scunthorpe</t>
   </si>
   <si>
@@ -863,15 +866,15 @@
     <t>Sochaux</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Niort</t>
   </si>
   <si>
@@ -938,15 +941,15 @@
     <t>Volos NFC</t>
   </si>
   <si>
+    <t>Aris</t>
+  </si>
+  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
     <t>Giannina</t>
   </si>
   <si>
-    <t>Aris</t>
-  </si>
-  <si>
     <t>OFI Crete</t>
   </si>
   <si>
@@ -1016,6 +1019,9 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Venezia</t>
+  </si>
+  <si>
     <t>Verona</t>
   </si>
   <si>
@@ -1031,9 +1037,6 @@
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>Venezia</t>
-  </si>
-  <si>
     <t>Salernitana</t>
   </si>
   <si>
@@ -1430,10 +1433,13 @@
     <t>Barcelona</t>
   </si>
   <si>
+    <t>Betis</t>
+  </si>
+  <si>
     <t>Ath Bilbao</t>
   </si>
   <si>
-    <t>Betis</t>
+    <t>Espanol</t>
   </si>
   <si>
     <t>Valencia</t>
@@ -1448,9 +1454,6 @@
     <t>Elche</t>
   </si>
   <si>
-    <t>Espanol</t>
-  </si>
-  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -1478,13 +1481,16 @@
     <t>sp2_rank</t>
   </si>
   <si>
+    <t>Eibar</t>
+  </si>
+  <si>
     <t>Sp Gijon</t>
   </si>
   <si>
     <t>Almeria</t>
   </si>
   <si>
-    <t>Eibar</t>
+    <t>Cartagena</t>
   </si>
   <si>
     <t>Ponferradina</t>
@@ -1496,9 +1502,6 @@
     <t>Tenerife</t>
   </si>
   <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
     <t>Valladolid</t>
   </si>
   <si>
@@ -1508,18 +1511,18 @@
     <t>Huesca</t>
   </si>
   <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>Mirandes</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
     <t>Oviedo</t>
   </si>
   <si>
-    <t>Lugo</t>
-  </si>
-  <si>
     <t>Ibiza</t>
   </si>
   <si>
@@ -1529,18 +1532,18 @@
     <t>Burgos</t>
   </si>
   <si>
+    <t>Leganes</t>
+  </si>
+  <si>
     <t>Zaragoza</t>
   </si>
   <si>
-    <t>Leganes</t>
+    <t>Amorebieta</t>
   </si>
   <si>
     <t>Girona</t>
   </si>
   <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
     <t>Alcorcon</t>
   </si>
   <si>
@@ -1559,6 +1562,12 @@
     <t>Fenerbahce</t>
   </si>
   <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
     <t>Besiktas</t>
   </si>
   <si>
@@ -1568,13 +1577,7 @@
     <t>Karagumruk</t>
   </si>
   <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
     <t>Altay</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
   </si>
   <si>
     <t>Konyaspor</t>
@@ -2361,13 +2364,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
@@ -2375,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2390,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -2399,7 +2402,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -2410,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2434,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -2445,31 +2448,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -2480,7 +2483,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2489,22 +2492,22 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -2515,31 +2518,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -2550,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2585,7 +2588,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2620,7 +2623,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2655,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2690,7 +2693,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2725,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2760,7 +2763,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2795,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2830,10 +2833,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2842,16 +2845,16 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -2865,7 +2868,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2900,7 +2903,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2935,7 +2938,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -2970,7 +2973,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -3005,7 +3008,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -3040,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -3107,13 +3110,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
@@ -3121,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -3156,7 +3159,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -3191,7 +3194,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -3226,7 +3229,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -3261,7 +3264,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -3270,22 +3273,22 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -3296,31 +3299,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -3331,31 +3334,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -3366,7 +3369,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -3401,7 +3404,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -3436,7 +3439,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -3471,7 +3474,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -3506,10 +3509,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -3518,16 +3521,16 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -3541,7 +3544,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -3576,7 +3579,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -3643,13 +3646,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
@@ -3657,7 +3660,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -3692,7 +3695,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3727,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -3762,7 +3765,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -3797,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -3832,7 +3835,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -3867,7 +3870,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -3902,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -3937,10 +3940,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -3949,16 +3952,16 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
@@ -3972,7 +3975,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -4007,7 +4010,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -4042,7 +4045,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -4077,7 +4080,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4112,7 +4115,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -4127,13 +4130,13 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
@@ -4147,7 +4150,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -4156,22 +4159,22 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -4182,31 +4185,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -4217,7 +4220,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -4232,10 +4235,10 @@
         <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
         <v>55</v>
@@ -4252,7 +4255,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -4267,13 +4270,13 @@
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -4287,31 +4290,31 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -4322,7 +4325,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -4389,13 +4392,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -4403,7 +4406,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -4438,7 +4441,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -4473,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -4508,7 +4511,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -4543,7 +4546,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -4578,7 +4581,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -4613,7 +4616,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -4648,7 +4651,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -4683,7 +4686,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -4718,7 +4721,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -4753,7 +4756,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -4788,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -4823,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -4858,7 +4861,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -4893,7 +4896,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -4928,7 +4931,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -4963,7 +4966,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -4998,7 +5001,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -5033,7 +5036,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -5068,7 +5071,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -5135,13 +5138,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
@@ -5149,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -5164,13 +5167,13 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
         <v>58</v>
@@ -5184,7 +5187,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -5219,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -5254,7 +5257,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -5289,7 +5292,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -5324,7 +5327,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -5359,7 +5362,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -5394,7 +5397,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -5429,7 +5432,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -5464,7 +5467,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -5499,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -5534,7 +5537,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -5569,7 +5572,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -5604,7 +5607,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -5639,7 +5642,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -5674,7 +5677,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -5709,7 +5712,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -5744,7 +5747,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -5811,13 +5814,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
@@ -5825,7 +5828,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -5860,7 +5863,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -5895,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -5930,7 +5933,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -5965,7 +5968,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -6000,7 +6003,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -6035,7 +6038,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -6070,7 +6073,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -6105,7 +6108,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -6140,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -6175,7 +6178,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -6210,7 +6213,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -6245,7 +6248,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -6280,7 +6283,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -6315,7 +6318,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -6350,7 +6353,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -6385,7 +6388,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -6420,7 +6423,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -6487,13 +6490,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
@@ -6501,7 +6504,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -6536,7 +6539,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -6571,7 +6574,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -6606,7 +6609,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -6641,7 +6644,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -6676,7 +6679,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -6711,7 +6714,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -6746,7 +6749,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -6781,7 +6784,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -6816,7 +6819,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -6851,7 +6854,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -6886,7 +6889,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -6953,13 +6956,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
@@ -6967,7 +6970,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -7002,7 +7005,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -7037,7 +7040,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -7072,7 +7075,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -7107,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -7142,7 +7145,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -7177,7 +7180,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -7212,7 +7215,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -7247,7 +7250,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -7282,7 +7285,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -7349,13 +7352,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
@@ -7363,7 +7366,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -7398,7 +7401,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -7433,7 +7436,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -7468,7 +7471,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -7503,7 +7506,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -7538,7 +7541,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -7573,7 +7576,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -7608,7 +7611,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -7643,7 +7646,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -7678,7 +7681,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -7696,10 +7699,10 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -7745,13 +7748,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
@@ -7759,7 +7762,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -7783,7 +7786,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7794,7 +7797,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -7829,7 +7832,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -7864,7 +7867,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -7899,7 +7902,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -7934,7 +7937,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -7969,7 +7972,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -8004,7 +8007,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -8039,7 +8042,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -8074,7 +8077,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -8817,13 +8820,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2">
@@ -8831,7 +8834,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -8866,7 +8869,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -8901,7 +8904,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -8936,7 +8939,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -8971,7 +8974,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -9006,7 +9009,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -9041,7 +9044,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -9076,31 +9079,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9111,7 +9114,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -9120,22 +9123,22 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -9146,7 +9149,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -9161,13 +9164,13 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -9181,7 +9184,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -9190,22 +9193,22 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -9216,28 +9219,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -9251,31 +9254,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -9286,10 +9289,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -9298,16 +9301,16 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -9321,10 +9324,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -9333,16 +9336,16 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -9356,7 +9359,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -9391,7 +9394,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -9426,7 +9429,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -9461,10 +9464,10 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -9473,16 +9476,16 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -9496,7 +9499,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -9563,13 +9566,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2">
@@ -9577,10 +9580,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -9589,16 +9592,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>49</v>
@@ -9612,31 +9615,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -9647,31 +9650,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -9682,28 +9685,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
@@ -9717,31 +9720,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -9752,28 +9755,28 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -9787,31 +9790,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9822,31 +9825,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9857,16 +9860,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -9881,7 +9884,7 @@
         <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -9892,16 +9895,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -9916,7 +9919,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -9927,31 +9930,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -9962,16 +9965,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -9986,7 +9989,7 @@
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -9997,31 +10000,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -10032,7 +10035,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -10041,22 +10044,22 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -10067,31 +10070,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
         <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -10102,7 +10105,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -10137,7 +10140,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -10172,28 +10175,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -10207,31 +10210,31 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -10242,28 +10245,28 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -10277,31 +10280,31 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -10312,31 +10315,31 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
         <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -10379,13 +10382,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2">
@@ -10393,7 +10396,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -10428,7 +10431,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -10463,16 +10466,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -10481,13 +10484,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -10498,7 +10501,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -10516,10 +10519,10 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -10533,7 +10536,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -10548,13 +10551,13 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -10568,31 +10571,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -10603,7 +10606,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -10612,22 +10615,22 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -10638,31 +10641,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -10673,7 +10676,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -10708,7 +10711,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -10743,10 +10746,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -10755,16 +10758,16 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -10778,10 +10781,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -10790,16 +10793,16 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -10813,7 +10816,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -10848,7 +10851,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -10883,7 +10886,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -10918,7 +10921,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
@@ -10953,7 +10956,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -10988,7 +10991,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
@@ -11023,7 +11026,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -11058,7 +11061,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -12180,13 +12183,13 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -12203,28 +12206,28 @@
         <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -12273,28 +12276,28 @@
         <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -12564,10 +12567,10 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -12576,16 +12579,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -12599,28 +12602,28 @@
         <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -12634,28 +12637,28 @@
         <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -12669,7 +12672,7 @@
         <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -12678,16 +12681,16 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
@@ -12704,7 +12707,7 @@
         <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -12713,16 +12716,16 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>49</v>
@@ -12739,28 +12742,28 @@
         <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12774,28 +12777,28 @@
         <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12809,28 +12812,28 @@
         <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -12844,28 +12847,28 @@
         <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -12879,28 +12882,28 @@
         <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -12914,28 +12917,28 @@
         <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -12949,28 +12952,28 @@
         <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -12984,28 +12987,28 @@
         <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13019,28 +13022,28 @@
         <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13054,28 +13057,28 @@
         <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -13089,28 +13092,28 @@
         <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -13124,28 +13127,28 @@
         <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
         <v>25</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -13159,28 +13162,28 @@
         <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
         <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -13194,10 +13197,10 @@
         <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -13206,16 +13209,16 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -13229,28 +13232,28 @@
         <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -13264,7 +13267,7 @@
         <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -13273,16 +13276,16 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -13299,28 +13302,28 @@
         <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -13334,28 +13337,28 @@
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -13369,25 +13372,25 @@
         <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
@@ -13433,13 +13436,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" t="s">
         <v>166</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>167</v>
-      </c>
-      <c r="K1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -13447,13 +13450,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -13462,16 +13465,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13482,31 +13485,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13517,16 +13520,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -13541,7 +13544,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -13552,10 +13555,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -13564,19 +13567,19 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -13587,16 +13590,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -13611,7 +13614,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -13622,13 +13625,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -13637,16 +13640,16 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -13657,13 +13660,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -13672,16 +13675,16 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -13692,31 +13695,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -13727,7 +13730,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -13736,22 +13739,22 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
         <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -13762,31 +13765,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -13797,31 +13800,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -13832,13 +13835,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -13847,16 +13850,16 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13867,31 +13870,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13902,31 +13905,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13937,7 +13940,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -13946,22 +13949,22 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
         <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>49</v>
       </c>
       <c r="I16" t="s">
         <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -13972,31 +13975,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14007,31 +14010,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14042,28 +14045,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -14077,31 +14080,31 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14112,31 +14115,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
         <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -14147,10 +14150,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -14159,16 +14162,16 @@
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -14182,10 +14185,10 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -14194,16 +14197,16 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
@@ -14217,10 +14220,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -14229,16 +14232,16 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
@@ -14252,10 +14255,10 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -14264,16 +14267,16 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -14319,13 +14322,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -14333,31 +14336,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -14368,31 +14371,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -14403,31 +14406,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -14438,31 +14441,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -14473,31 +14476,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -14508,31 +14511,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -14543,31 +14546,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14578,31 +14581,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -14613,31 +14616,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -14648,31 +14651,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -14683,28 +14686,28 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
@@ -14718,28 +14721,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
@@ -14753,31 +14756,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -14788,31 +14791,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
         <v>46</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14823,16 +14826,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -14847,7 +14850,7 @@
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14858,31 +14861,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14893,31 +14896,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14928,7 +14931,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -14937,22 +14940,22 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
         <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -14963,31 +14966,31 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14998,10 +15001,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -15010,16 +15013,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
         <v>22</v>
@@ -15033,28 +15036,28 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
         <v>20</v>
@@ -15068,31 +15071,31 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -15103,31 +15106,31 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -15138,31 +15141,31 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -15205,13 +15208,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
@@ -15219,7 +15222,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -15234,7 +15237,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -15243,7 +15246,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15254,7 +15257,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -15289,7 +15292,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -15324,7 +15327,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -15359,7 +15362,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -15394,7 +15397,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -15429,7 +15432,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -15464,7 +15467,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -15499,7 +15502,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -15534,7 +15537,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -15569,7 +15572,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -15604,7 +15607,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -15639,7 +15642,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -15674,7 +15677,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -15709,7 +15712,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -15744,7 +15747,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -15779,7 +15782,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -15814,7 +15817,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -15849,7 +15852,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -15884,7 +15887,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -15919,7 +15922,7 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -15954,7 +15957,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -15989,7 +15992,7 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -16056,13 +16059,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -16070,7 +16073,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -16094,7 +16097,7 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -16105,7 +16108,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -16140,7 +16143,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -16175,7 +16178,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -16210,7 +16213,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -16245,7 +16248,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -16280,7 +16283,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -16315,7 +16318,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -16350,7 +16353,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -16385,7 +16388,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -16420,7 +16423,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -16455,7 +16458,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -16490,7 +16493,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -16525,7 +16528,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -16560,7 +16563,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -16595,7 +16598,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -16630,7 +16633,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -16665,7 +16668,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -16700,7 +16703,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -16735,7 +16738,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -584,21 +584,21 @@
     <t>Bolton</t>
   </si>
   <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
     <t>Cheltenham</t>
   </si>
   <si>
     <t>AFC Wimbledon</t>
   </si>
   <si>
-    <t>Lincoln</t>
+    <t>Cambridge</t>
   </si>
   <si>
     <t>Portsmouth</t>
   </si>
   <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
     <t>Gillingham</t>
   </si>
   <si>
@@ -650,6 +650,9 @@
     <t>Hartlepool</t>
   </si>
   <si>
+    <t>Sutton</t>
+  </si>
+  <si>
     <t>Swindon</t>
   </si>
   <si>
@@ -665,9 +668,6 @@
     <t>Newport County</t>
   </si>
   <si>
-    <t>Sutton</t>
-  </si>
-  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -728,15 +728,15 @@
     <t>Halifax</t>
   </si>
   <si>
+    <t>Solihull</t>
+  </si>
+  <si>
     <t>Bromley</t>
   </si>
   <si>
     <t>Dag and Red</t>
   </si>
   <si>
-    <t>Solihull</t>
-  </si>
-  <si>
     <t>Notts County</t>
   </si>
   <si>
@@ -755,12 +755,12 @@
     <t>Woking</t>
   </si>
   <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
     <t>Torquay</t>
   </si>
   <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
     <t>Wealdstone</t>
   </si>
   <si>
@@ -1001,13 +1001,16 @@
     <t>Atalanta</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
     <t>Juventus</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Sassuolo</t>
   </si>
   <si>
     <t>Bologna</t>
@@ -1016,36 +1019,33 @@
     <t>Empoli</t>
   </si>
   <si>
-    <t>Sassuolo</t>
+    <t>Verona</t>
   </si>
   <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
     <t>Udinese</t>
   </si>
   <si>
     <t>Sampdoria</t>
   </si>
   <si>
+    <t>Spezia</t>
+  </si>
+  <si>
     <t>Venezia</t>
   </si>
   <si>
-    <t>Spezia</t>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
   </si>
   <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
     <t>i2_GD</t>
   </si>
   <si>
@@ -1076,24 +1076,24 @@
     <t>Ascoli</t>
   </si>
   <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
     <t>Frosinone</t>
   </si>
   <si>
+    <t>Monza</t>
+  </si>
+  <si>
     <t>Perugia</t>
   </si>
   <si>
     <t>Cittadella</t>
   </si>
   <si>
-    <t>Monza</t>
-  </si>
-  <si>
     <t>Ternana</t>
   </si>
   <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
     <t>Como</t>
   </si>
   <si>
@@ -1205,15 +1205,15 @@
     <t>Estoril</t>
   </si>
   <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
     <t>Portimonense</t>
   </si>
   <si>
     <t>Guimaraes</t>
   </si>
   <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
     <t>Boavista</t>
   </si>
   <si>
@@ -1259,15 +1259,15 @@
     <t>Rangers</t>
   </si>
   <si>
+    <t>Celtic</t>
+  </si>
+  <si>
     <t>Dundee United</t>
   </si>
   <si>
     <t>Hearts</t>
   </si>
   <si>
-    <t>Celtic</t>
-  </si>
-  <si>
     <t>Hibernian</t>
   </si>
   <si>
@@ -1292,6 +1292,9 @@
     <t>Ross County</t>
   </si>
   <si>
+    <t>-15</t>
+  </si>
+  <si>
     <t>sc1_GD</t>
   </si>
   <si>
@@ -1307,24 +1310,24 @@
     <t>Kilmarnock</t>
   </si>
   <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
     <t>Raith Rvs</t>
   </si>
   <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
     <t>Partick</t>
   </si>
   <si>
     <t>Ayr</t>
   </si>
   <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
     <t>Queen of Sth</t>
   </si>
   <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
     <t>Morton</t>
   </si>
   <si>
@@ -1418,60 +1421,60 @@
     <t>sp1_rank</t>
   </si>
   <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>Sociedad</t>
   </si>
   <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
   </si>
   <si>
     <t>Ath Madrid</t>
   </si>
   <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
     <t>Ath Bilbao</t>
   </si>
   <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
     <t>Barcelona</t>
   </si>
   <si>
     <t>Espanol</t>
   </si>
   <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
     <t>Valencia</t>
   </si>
   <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
     <t>Villarreal</t>
   </si>
   <si>
+    <t>Celta</t>
+  </si>
+  <si>
     <t>Elche</t>
   </si>
   <si>
+    <t>Alaves</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
-    <t>Celta</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>Alaves</t>
-  </si>
-  <si>
     <t>Levante</t>
   </si>
   <si>
@@ -1553,9 +1556,6 @@
     <t>Alcorcon</t>
   </si>
   <si>
-    <t>-15</t>
-  </si>
-  <si>
     <t>t1_GD</t>
   </si>
   <si>
@@ -1571,6 +1571,9 @@
     <t>Alanyaspor</t>
   </si>
   <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
     <t>Hatayspor</t>
   </si>
   <si>
@@ -1578,9 +1581,6 @@
   </si>
   <si>
     <t>Karagumruk</t>
-  </si>
-  <si>
-    <t>Besiktas</t>
   </si>
   <si>
     <t>Galatasaray</t>
@@ -2530,10 +2530,10 @@
         <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2542,16 +2542,16 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -3020,7 +3020,7 @@
         <v>295</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -3029,16 +3029,16 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
         <v>20</v>
@@ -3672,10 +3672,10 @@
         <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -3684,16 +3684,16 @@
         <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -3742,10 +3742,10 @@
         <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -3754,16 +3754,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3777,10 +3777,10 @@
         <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -3789,16 +3789,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -3812,10 +3812,10 @@
         <v>321</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -3824,16 +3824,16 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -3847,28 +3847,28 @@
         <v>322</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -3882,25 +3882,25 @@
         <v>323</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -3917,28 +3917,28 @@
         <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -3952,28 +3952,28 @@
         <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -3990,19 +3990,19 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
@@ -4022,28 +4022,28 @@
         <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -4057,28 +4057,28 @@
         <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -4092,7 +4092,7 @@
         <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -4101,16 +4101,16 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
@@ -4127,28 +4127,28 @@
         <v>330</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
         <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -4162,7 +4162,7 @@
         <v>331</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -4171,16 +4171,16 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
@@ -4197,7 +4197,7 @@
         <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -4206,16 +4206,16 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -4232,28 +4232,28 @@
         <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -4267,28 +4267,28 @@
         <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -4302,28 +4302,28 @@
         <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -4337,28 +4337,28 @@
         <v>336</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -4663,25 +4663,25 @@
         <v>347</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -4710,10 +4710,10 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -4733,28 +4733,28 @@
         <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -4774,22 +4774,22 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -4815,13 +4815,13 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -4838,28 +4838,28 @@
         <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
         <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -5048,28 +5048,28 @@
         <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
         <v>111</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -5986,22 +5986,22 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -6018,25 +6018,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -6050,7 +6050,7 @@
         <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -6059,16 +6059,16 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -6085,13 +6085,13 @@
         <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -6106,7 +6106,7 @@
         <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -6155,7 +6155,7 @@
         <v>395</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -6164,16 +6164,16 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
@@ -6435,13 +6435,13 @@
         <v>403</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -6456,7 +6456,7 @@
         <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -6516,28 +6516,28 @@
         <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -6551,28 +6551,28 @@
         <v>408</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -6586,28 +6586,28 @@
         <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -6621,28 +6621,28 @@
         <v>410</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -6656,7 +6656,7 @@
         <v>411</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -6665,16 +6665,16 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
@@ -6691,28 +6691,28 @@
         <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -6726,28 +6726,28 @@
         <v>413</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -6761,28 +6761,28 @@
         <v>414</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -6796,28 +6796,28 @@
         <v>415</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -6831,28 +6831,28 @@
         <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -6866,7 +6866,7 @@
         <v>417</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -6875,16 +6875,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>419</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -6901,10 +6901,10 @@
         <v>418</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -6913,16 +6913,16 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -6965,13 +6965,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2">
@@ -6979,10 +6979,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -6991,16 +6991,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>51</v>
@@ -7014,13 +7014,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -7029,16 +7029,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7049,31 +7049,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7084,13 +7084,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -7102,13 +7102,13 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7119,16 +7119,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -7143,7 +7143,7 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -7154,10 +7154,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -7166,16 +7166,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -7189,31 +7189,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -7224,31 +7224,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -7259,16 +7259,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -7283,7 +7283,7 @@
         <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -7294,31 +7294,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -7361,13 +7361,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -7375,7 +7375,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -7410,7 +7410,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -7445,7 +7445,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -7480,7 +7480,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -7515,7 +7515,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -7585,7 +7585,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -7620,7 +7620,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -7655,7 +7655,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -7690,7 +7690,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -7757,13 +7757,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2">
@@ -7771,7 +7771,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -7806,7 +7806,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -7841,7 +7841,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -7876,7 +7876,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -7911,7 +7911,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -7946,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -7981,7 +7981,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -8016,7 +8016,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -8051,7 +8051,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -8086,7 +8086,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -8829,13 +8829,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2">
@@ -8843,10 +8843,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -8855,16 +8855,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -8878,16 +8878,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -8902,7 +8902,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -8913,31 +8913,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -8948,13 +8948,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -8963,16 +8963,16 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -8983,31 +8983,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -9018,31 +9018,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -9053,31 +9053,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9088,31 +9088,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
         <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9123,10 +9123,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -9135,16 +9135,16 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
@@ -9158,31 +9158,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -9193,10 +9193,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -9205,16 +9205,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -9228,31 +9228,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -9263,31 +9263,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -9298,28 +9298,28 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -9333,13 +9333,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -9348,16 +9348,16 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -9368,31 +9368,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -9403,31 +9403,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -9438,31 +9438,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
         <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -9473,7 +9473,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
@@ -9508,10 +9508,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -9520,16 +9520,16 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -9575,13 +9575,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2">
@@ -9589,7 +9589,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -9624,7 +9624,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -9659,7 +9659,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -9694,7 +9694,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -9729,7 +9729,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -9764,7 +9764,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -9799,7 +9799,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -9834,7 +9834,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -9869,7 +9869,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -9904,7 +9904,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -9939,7 +9939,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -9974,7 +9974,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -10009,7 +10009,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -10044,7 +10044,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -10079,7 +10079,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -10114,7 +10114,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -10149,7 +10149,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -10184,31 +10184,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -10219,31 +10219,31 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
         <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -10254,7 +10254,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -10289,7 +10289,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -10324,7 +10324,7 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -10345,7 +10345,7 @@
         <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
@@ -10490,13 +10490,13 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
@@ -10519,22 +10519,22 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -10551,25 +10551,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -10583,28 +10583,28 @@
         <v>515</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -10618,7 +10618,7 @@
         <v>516</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -10627,16 +10627,16 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -13567,7 +13567,7 @@
         <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -13576,16 +13576,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
         <v>167</v>
@@ -13882,28 +13882,28 @@
         <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13920,25 +13920,25 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13958,22 +13958,22 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -13990,22 +13990,22 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
         <v>25</v>
@@ -14022,28 +14022,28 @@
         <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14232,28 +14232,28 @@
         <v>193</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
         <v>164</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -14561,22 +14561,22 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -14599,22 +14599,22 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -14631,25 +14631,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -14666,22 +14666,22 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
         <v>53</v>
@@ -14701,22 +14701,22 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>53</v>
@@ -14733,25 +14733,25 @@
         <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
         <v>53</v>
@@ -14978,7 +14978,7 @@
         <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -14987,16 +14987,16 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -15234,7 +15234,7 @@
         <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -15243,16 +15243,16 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>166</v>
@@ -15269,10 +15269,10 @@
         <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -15281,16 +15281,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15304,10 +15304,10 @@
         <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -15316,16 +15316,16 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -15339,10 +15339,10 @@
         <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -15351,16 +15351,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -15374,28 +15374,28 @@
         <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -15409,28 +15409,28 @@
         <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -15444,25 +15444,25 @@
         <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>49</v>
@@ -15479,28 +15479,28 @@
         <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15514,7 +15514,7 @@
         <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -15523,16 +15523,16 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
@@ -15549,7 +15549,7 @@
         <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -15558,16 +15558,16 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
@@ -15584,7 +15584,7 @@
         <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
@@ -15593,16 +15593,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -15619,7 +15619,7 @@
         <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -15628,16 +15628,16 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>24</v>
@@ -15654,7 +15654,7 @@
         <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -15663,16 +15663,16 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
@@ -15701,10 +15701,10 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
         <v>56</v>
@@ -15724,10 +15724,10 @@
         <v>241</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -15736,16 +15736,16 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -15759,28 +15759,28 @@
         <v>242</v>
       </c>
       <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -15794,10 +15794,10 @@
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -15806,16 +15806,16 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -15829,10 +15829,10 @@
         <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -15841,16 +15841,16 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
         <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -15864,10 +15864,10 @@
         <v>245</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -15876,16 +15876,16 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15899,7 +15899,7 @@
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -15908,16 +15908,16 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -15969,7 +15969,7 @@
         <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -15978,16 +15978,16 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
@@ -16155,28 +16155,28 @@
         <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -16190,28 +16190,28 @@
         <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -1058,19 +1058,22 @@
     <t>Pisa</t>
   </si>
   <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
     <t>Brescia</t>
   </si>
   <si>
-    <t>Benevento</t>
-  </si>
-  <si>
     <t>Cremonese</t>
   </si>
   <si>
     <t>Lecce</t>
   </si>
   <si>
-    <t>Reggina</t>
+    <t>Frosinone</t>
   </si>
   <si>
     <t>Ascoli</t>
@@ -1079,9 +1082,6 @@
     <t>Cosenza</t>
   </si>
   <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
     <t>Monza</t>
   </si>
   <si>
@@ -1091,18 +1091,18 @@
     <t>Cittadella</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
     <t>Ternana</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
     <t>Alessandria</t>
   </si>
   <si>
@@ -1421,6 +1421,9 @@
     <t>sp1_rank</t>
   </si>
   <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
     <t>Betis</t>
   </si>
   <si>
@@ -1430,16 +1433,13 @@
     <t>Sevilla</t>
   </si>
   <si>
-    <t>Sociedad</t>
+    <t>Ath Madrid</t>
   </si>
   <si>
     <t>Osasuna</t>
   </si>
   <si>
     <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
   </si>
   <si>
     <t>Ath Bilbao</t>
@@ -3707,10 +3707,10 @@
         <v>318</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -3719,16 +3719,16 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -3987,7 +3987,7 @@
         <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3996,16 +3996,16 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
@@ -4418,28 +4418,28 @@
         <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -4453,28 +4453,28 @@
         <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -4488,10 +4488,10 @@
         <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -4500,16 +4500,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -4523,28 +4523,28 @@
         <v>343</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -4558,28 +4558,28 @@
         <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -4593,28 +4593,28 @@
         <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -4628,28 +4628,28 @@
         <v>346</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -4675,13 +4675,13 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -4698,25 +4698,25 @@
         <v>348</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -4768,7 +4768,7 @@
         <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -4777,16 +4777,16 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -4803,7 +4803,7 @@
         <v>351</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -4812,16 +4812,16 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -4841,19 +4841,19 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -4873,10 +4873,10 @@
         <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -4885,16 +4885,16 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -4908,10 +4908,10 @@
         <v>354</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -4920,16 +4920,16 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
         <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -4943,28 +4943,28 @@
         <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
         <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -4978,28 +4978,28 @@
         <v>356</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -5013,7 +5013,7 @@
         <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -5022,16 +5022,16 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -5083,7 +5083,7 @@
         <v>359</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -5092,16 +5092,16 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -8849,25 +8849,25 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -8881,7 +8881,7 @@
         <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -8890,16 +8890,16 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
@@ -8928,13 +8928,13 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
@@ -8963,13 +8963,13 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
         <v>48</v>
@@ -8986,7 +8986,7 @@
         <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -8995,16 +8995,16 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
@@ -9024,22 +9024,22 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
@@ -9056,28 +9056,28 @@
         <v>468</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9301,7 +9301,7 @@
         <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -9310,16 +9310,16 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -9441,28 +9441,28 @@
         <v>479</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
         <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -9476,28 +9476,28 @@
         <v>480</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -9511,28 +9511,28 @@
         <v>481</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
         <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="538">
   <si>
     <t>Team</t>
   </si>
@@ -563,33 +563,39 @@
     <t>e2_rank</t>
   </si>
   <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
     <t>Wigan</t>
   </si>
   <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
     <t>Rotherham</t>
   </si>
   <si>
     <t>Wycombe</t>
   </si>
   <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
     <t>Sheffield Weds</t>
   </si>
   <si>
     <t>Ipswich</t>
   </si>
   <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
     <t>Burton</t>
   </si>
   <si>
@@ -605,18 +611,12 @@
     <t>Lincoln</t>
   </si>
   <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Bolton</t>
+    <t>Charlton</t>
   </si>
   <si>
     <t>AFC Wimbledon</t>
   </si>
   <si>
-    <t>Charlton</t>
-  </si>
-  <si>
     <t>Gillingham</t>
   </si>
   <si>
@@ -641,7 +641,10 @@
     <t>-18</t>
   </si>
   <si>
-    <t>-17</t>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>e3_GD</t>
@@ -656,37 +659,40 @@
     <t>Forest Green</t>
   </si>
   <si>
+    <t>Exeter</t>
+  </si>
+  <si>
     <t>Port Vale</t>
   </si>
   <si>
     <t>Northampton</t>
   </si>
   <si>
-    <t>Exeter</t>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Sutton</t>
   </si>
   <si>
     <t>Swindon</t>
   </si>
   <si>
-    <t>Harrogate</t>
+    <t>Leyton Orient</t>
   </si>
   <si>
     <t>Hartlepool</t>
   </si>
   <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Sutton</t>
+    <t>Bradford</t>
   </si>
   <si>
     <t>Tranmere</t>
   </si>
   <si>
-    <t>Bradford</t>
+    <t>Bristol Rvs</t>
   </si>
   <si>
     <t>Rochdale</t>
@@ -698,21 +704,18 @@
     <t>Barrow</t>
   </si>
   <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
     <t>Colchester</t>
   </si>
   <si>
     <t>Crawley Town</t>
   </si>
   <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
     <t>Salford</t>
   </si>
   <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
     <t>Stevenage</t>
   </si>
   <si>
@@ -725,6 +728,9 @@
     <t>Scunthorpe</t>
   </si>
   <si>
+    <t>-16</t>
+  </si>
+  <si>
     <t>ec_GD</t>
   </si>
   <si>
@@ -734,147 +740,150 @@
     <t>ec_rank</t>
   </si>
   <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
     <t>Boreham Wood</t>
   </si>
   <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
     <t>Grimsby</t>
   </si>
   <si>
     <t>Bromley</t>
   </si>
   <si>
+    <t>Notts County</t>
+  </si>
+  <si>
     <t>Halifax</t>
   </si>
   <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
     <t>Solihull</t>
   </si>
   <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
+    <t>Wrexham</t>
   </si>
   <si>
     <t>Stockport</t>
   </si>
   <si>
+    <t>Woking</t>
+  </si>
+  <si>
     <t>Altrincham</t>
   </si>
   <si>
     <t>Eastleigh</t>
   </si>
   <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
   </si>
   <si>
     <t>Barnet</t>
   </si>
   <si>
-    <t>Torquay</t>
-  </si>
-  <si>
     <t>Weymouth</t>
   </si>
   <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
     <t>Maidenhead</t>
   </si>
   <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
     <t>Southend</t>
   </si>
   <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
     <t>Kings Lynn</t>
   </si>
   <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
     <t>Dover Athletic</t>
   </si>
   <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>f1_GD</t>
+  </si>
+  <si>
+    <t>f1_PTS</t>
+  </si>
+  <si>
+    <t>f1_rank</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
     <t>-10</t>
   </si>
   <si>
-    <t>f1_GD</t>
-  </si>
-  <si>
-    <t>f1_PTS</t>
-  </si>
-  <si>
-    <t>f1_rank</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
     <t>f2_GD</t>
   </si>
   <si>
@@ -1064,9 +1073,6 @@
     <t>Cagliari</t>
   </si>
   <si>
-    <t>-16</t>
-  </si>
-  <si>
     <t>i2_GD</t>
   </si>
   <si>
@@ -1136,9 +1142,6 @@
     <t>Pordenone</t>
   </si>
   <si>
-    <t>-19</t>
-  </si>
-  <si>
     <t>n1_GD</t>
   </si>
   <si>
@@ -1328,15 +1331,15 @@
     <t>Kilmarnock</t>
   </si>
   <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
     <t>Inverness C</t>
   </si>
   <si>
     <t>Arbroath</t>
   </si>
   <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
     <t>Partick</t>
   </si>
   <si>
@@ -1373,12 +1376,12 @@
     <t>Queens Park</t>
   </si>
   <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
     <t>Montrose</t>
   </si>
   <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
     <t>Alloa</t>
   </si>
   <si>
@@ -1415,6 +1418,9 @@
     <t>Annan Athletic</t>
   </si>
   <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
     <t>Edinburgh City</t>
   </si>
   <si>
@@ -1422,9 +1428,6 @@
   </si>
   <si>
     <t>Stranraer</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
   </si>
   <si>
     <t>Elgin</t>
@@ -2394,13 +2397,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
@@ -2408,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2443,7 +2446,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -2478,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -2513,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -2548,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -2583,7 +2586,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -2618,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2653,7 +2656,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -2688,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -2723,7 +2726,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -2758,7 +2761,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2793,7 +2796,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -2828,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -2863,7 +2866,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -2898,7 +2901,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -2933,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -2968,7 +2971,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -2989,7 +2992,7 @@
         <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J18" t="s">
         <v>25</v>
@@ -3003,7 +3006,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -3038,7 +3041,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -3073,7 +3076,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -3140,13 +3143,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
@@ -3154,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3189,7 +3192,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3224,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -3259,7 +3262,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -3294,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -3329,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -3364,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -3399,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3434,7 +3437,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -3469,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3504,7 +3507,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3539,7 +3542,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -3574,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -3609,7 +3612,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -3676,13 +3679,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
@@ -3690,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -3725,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3760,7 +3763,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -3795,7 +3798,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -3830,7 +3833,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -3865,7 +3868,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -3900,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3935,7 +3938,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -3970,7 +3973,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -4005,7 +4008,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -4040,7 +4043,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -4075,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -4110,7 +4113,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -4145,7 +4148,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -4180,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -4215,7 +4218,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -4250,7 +4253,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -4285,7 +4288,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -4306,7 +4309,7 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
@@ -4320,7 +4323,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -4341,7 +4344,7 @@
         <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -4355,7 +4358,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -4422,13 +4425,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
@@ -4436,7 +4439,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -4471,7 +4474,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -4506,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -4541,7 +4544,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -4576,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -4611,7 +4614,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -4646,7 +4649,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -4681,7 +4684,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -4716,7 +4719,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -4751,7 +4754,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -4786,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -4821,7 +4824,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -4856,7 +4859,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -4891,7 +4894,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -4926,7 +4929,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -4961,7 +4964,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -4996,7 +4999,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -5031,7 +5034,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -5066,7 +5069,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -5101,7 +5104,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -5122,7 +5125,7 @@
         <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -5168,13 +5171,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
@@ -5182,7 +5185,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -5197,13 +5200,13 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -5217,7 +5220,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -5252,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5287,7 +5290,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -5322,7 +5325,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -5357,7 +5360,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -5392,7 +5395,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -5427,7 +5430,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -5462,7 +5465,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -5497,7 +5500,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -5532,7 +5535,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -5567,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -5602,7 +5605,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -5637,7 +5640,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -5672,7 +5675,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -5707,7 +5710,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -5742,7 +5745,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -5777,7 +5780,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -5844,13 +5847,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
@@ -5858,7 +5861,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -5893,7 +5896,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -5928,7 +5931,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5963,7 +5966,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -5998,7 +6001,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -6033,7 +6036,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -6068,7 +6071,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -6103,7 +6106,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -6138,7 +6141,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -6173,7 +6176,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -6208,7 +6211,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -6243,7 +6246,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -6278,7 +6281,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -6313,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -6348,7 +6351,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -6383,7 +6386,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -6418,7 +6421,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -6453,7 +6456,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -6474,7 +6477,7 @@
         <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -6520,13 +6523,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
@@ -6534,7 +6537,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -6569,7 +6572,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -6604,7 +6607,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -6639,7 +6642,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -6674,7 +6677,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -6709,7 +6712,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -6744,7 +6747,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -6779,7 +6782,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -6814,7 +6817,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -6849,7 +6852,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -6884,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -6905,7 +6908,7 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
+        <v>231</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -6919,7 +6922,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -6986,13 +6989,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2">
@@ -7000,13 +7003,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -7015,16 +7018,16 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7035,31 +7038,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7070,31 +7073,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7105,31 +7108,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7140,13 +7143,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -7155,16 +7158,16 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -7175,10 +7178,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -7187,16 +7190,16 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -7210,10 +7213,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -7222,16 +7225,16 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>22</v>
@@ -7245,10 +7248,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -7257,16 +7260,16 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -7280,31 +7283,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
         <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -7315,13 +7318,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -7330,16 +7333,16 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -7382,13 +7385,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
@@ -7396,13 +7399,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -7411,16 +7414,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7431,13 +7434,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -7446,16 +7449,16 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7466,16 +7469,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -7490,7 +7493,7 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7501,31 +7504,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
         <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7536,31 +7539,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -7571,31 +7574,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -7606,10 +7609,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -7618,16 +7621,16 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -7641,10 +7644,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -7653,16 +7656,16 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -7676,16 +7679,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -7700,7 +7703,7 @@
         <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -7711,10 +7714,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -7723,16 +7726,16 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -7778,13 +7781,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
@@ -7792,13 +7795,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -7807,16 +7810,16 @@
         <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7827,10 +7830,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -7839,16 +7842,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -7862,10 +7865,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -7874,16 +7877,16 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
@@ -7897,10 +7900,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -7909,16 +7912,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>84</v>
@@ -7932,31 +7935,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -7967,31 +7970,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -8002,31 +8005,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -8037,31 +8040,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -8072,31 +8075,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -8107,10 +8110,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -8119,16 +8122,16 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -8850,13 +8853,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
@@ -8864,7 +8867,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -8899,7 +8902,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -8934,7 +8937,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -8969,7 +8972,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -9004,7 +9007,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -9039,7 +9042,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -9074,7 +9077,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -9109,7 +9112,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -9144,7 +9147,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -9179,7 +9182,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -9214,7 +9217,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -9249,7 +9252,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -9284,7 +9287,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -9319,7 +9322,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -9354,7 +9357,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -9389,7 +9392,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -9424,7 +9427,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -9459,7 +9462,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -9494,7 +9497,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -9529,7 +9532,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -9596,13 +9599,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2">
@@ -9610,7 +9613,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -9645,7 +9648,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -9680,7 +9683,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -9715,7 +9718,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -9750,7 +9753,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -9785,7 +9788,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -9820,7 +9823,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -9855,7 +9858,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -9890,7 +9893,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -9925,7 +9928,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -9960,7 +9963,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -9995,7 +9998,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -10030,7 +10033,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -10065,7 +10068,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -10100,7 +10103,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -10135,7 +10138,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -10170,7 +10173,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -10205,7 +10208,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -10240,7 +10243,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -10275,7 +10278,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -10310,7 +10313,7 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -10345,7 +10348,7 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -10366,7 +10369,7 @@
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -10412,13 +10415,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2">
@@ -10426,7 +10429,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -10461,7 +10464,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -10496,7 +10499,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -10531,7 +10534,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -10566,7 +10569,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -10601,7 +10604,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -10636,7 +10639,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -10671,7 +10674,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -10706,7 +10709,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -10741,7 +10744,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -10776,7 +10779,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -10811,7 +10814,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -10846,7 +10849,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -10881,7 +10884,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -10916,7 +10919,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -10951,7 +10954,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -10972,7 +10975,7 @@
         <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -10986,7 +10989,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -11021,7 +11024,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -11056,7 +11059,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -11091,7 +11094,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -13483,28 +13486,28 @@
         <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13521,25 +13524,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13588,7 +13591,7 @@
         <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -13597,16 +13600,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
         <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>60</v>
@@ -13623,25 +13626,25 @@
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
@@ -13658,13 +13661,13 @@
         <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -13679,7 +13682,7 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -13696,25 +13699,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -13728,28 +13731,28 @@
         <v>183</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -13763,13 +13766,13 @@
         <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -13784,7 +13787,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -13798,28 +13801,28 @@
         <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -13833,22 +13836,22 @@
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
         <v>140</v>
@@ -13868,28 +13871,28 @@
         <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13903,28 +13906,28 @@
         <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13941,25 +13944,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13985,13 +13988,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
@@ -14014,22 +14017,22 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14043,28 +14046,28 @@
         <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
         <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14078,28 +14081,28 @@
         <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -14113,28 +14116,28 @@
         <v>194</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
         <v>114</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14288,7 +14291,7 @@
         <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -14297,13 +14300,13 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>202</v>
@@ -14352,13 +14355,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
@@ -14366,7 +14369,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -14401,31 +14404,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -14436,31 +14439,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -14471,31 +14474,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -14506,10 +14509,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -14518,16 +14521,16 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>116</v>
@@ -14541,13 +14544,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -14559,13 +14562,13 @@
         <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -14576,13 +14579,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -14591,16 +14594,16 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14611,31 +14614,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -14646,31 +14649,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -14681,10 +14684,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -14693,16 +14696,16 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -14716,28 +14719,28 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
@@ -14751,31 +14754,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -14786,31 +14789,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -14821,31 +14824,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14856,31 +14859,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
       </c>
       <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
         <v>53</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14891,31 +14894,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14926,7 +14929,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -14961,7 +14964,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -14996,16 +14999,16 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -15014,13 +15017,13 @@
         <v>25</v>
       </c>
       <c r="H20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
         <v>26</v>
-      </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" t="s">
-        <v>25</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15031,13 +15034,13 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15046,16 +15049,16 @@
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -15066,10 +15069,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -15078,16 +15081,16 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -15101,16 +15104,16 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -15125,7 +15128,7 @@
         <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -15136,10 +15139,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -15148,16 +15151,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
@@ -15171,31 +15174,31 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="I25" t="s">
         <v>201</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -15238,13 +15241,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -15252,31 +15255,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15287,31 +15290,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15322,10 +15325,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -15334,16 +15337,16 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>85</v>
@@ -15357,31 +15360,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -15392,31 +15395,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -15427,31 +15430,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -15462,31 +15465,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -15497,31 +15500,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15532,31 +15535,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -15567,31 +15570,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -15602,31 +15605,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -15637,31 +15640,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
         <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -15672,31 +15675,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -15707,31 +15710,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -15742,31 +15745,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -15777,7 +15780,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -15786,22 +15789,22 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
         <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -15812,31 +15815,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -15847,31 +15850,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -15882,28 +15885,28 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -15917,10 +15920,10 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -15929,16 +15932,16 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
         <v>20</v>
@@ -15952,31 +15955,31 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15987,31 +15990,31 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -16022,10 +16025,10 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>82</v>
@@ -16034,16 +16037,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -16089,13 +16092,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -16103,7 +16106,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -16138,7 +16141,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -16173,7 +16176,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -16208,7 +16211,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -16243,7 +16246,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -16278,7 +16281,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -16313,7 +16316,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -16348,7 +16351,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -16383,7 +16386,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -16418,7 +16421,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -16453,7 +16456,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -16488,7 +16491,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -16523,7 +16526,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -16558,7 +16561,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -16579,7 +16582,7 @@
         <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -16593,7 +16596,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -16628,7 +16631,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -16663,7 +16666,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -16698,7 +16701,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -16733,7 +16736,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -16768,7 +16771,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="543">
   <si>
     <t>Team</t>
   </si>
@@ -332,12 +332,12 @@
     <t>d2_rank</t>
   </si>
   <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
     <t>Paderborn</t>
   </si>
   <si>
@@ -398,6 +398,9 @@
     <t>-22</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>e0_GD</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
     <t>-20</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>e1_GD</t>
   </si>
   <si>
@@ -497,54 +497,54 @@
     <t>Coventry</t>
   </si>
   <si>
+    <t>QPR</t>
+  </si>
+  <si>
     <t>Stoke</t>
   </si>
   <si>
-    <t>QPR</t>
+    <t>Blackburn</t>
   </si>
   <si>
     <t>Huddersfield</t>
   </si>
   <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
     <t>Blackpool</t>
   </si>
   <si>
     <t>Millwall</t>
   </si>
   <si>
+    <t>Swansea</t>
+  </si>
+  <si>
     <t>Luton</t>
   </si>
   <si>
-    <t>Swansea</t>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
   </si>
   <si>
     <t>Middlesbrough</t>
   </si>
   <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
     <t>Reading</t>
   </si>
   <si>
-    <t>Birmingham</t>
+    <t>Sheffield United</t>
   </si>
   <si>
     <t>Derby</t>
   </si>
   <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
     <t>Cardiff</t>
   </si>
   <si>
@@ -560,336 +560,348 @@
     <t>48</t>
   </si>
   <si>
-    <t>-17</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>e2_GD</t>
+  </si>
+  <si>
+    <t>e2_PTS</t>
+  </si>
+  <si>
+    <t>e2_rank</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>e3_rank</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>-15</t>
   </si>
   <si>
     <t>-16</t>
   </si>
   <si>
-    <t>e2_GD</t>
-  </si>
-  <si>
-    <t>e2_PTS</t>
-  </si>
-  <si>
-    <t>e2_rank</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>e3_rank</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>-15</t>
+    <t>ec_GD</t>
+  </si>
+  <si>
+    <t>ec_PTS</t>
+  </si>
+  <si>
+    <t>ec_rank</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>f1_GD</t>
+  </si>
+  <si>
+    <t>f1_PTS</t>
+  </si>
+  <si>
+    <t>f1_rank</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Metz</t>
   </si>
   <si>
     <t>-11</t>
   </si>
   <si>
-    <t>ec_GD</t>
-  </si>
-  <si>
-    <t>ec_PTS</t>
-  </si>
-  <si>
-    <t>ec_rank</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>f1_GD</t>
-  </si>
-  <si>
-    <t>f1_PTS</t>
-  </si>
-  <si>
-    <t>f1_rank</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>f2_GD</t>
   </si>
   <si>
@@ -1211,9 +1223,6 @@
     <t>Zwolle</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>-19</t>
   </si>
   <si>
@@ -1418,15 +1427,15 @@
     <t>Forfar</t>
   </si>
   <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
     <t>Stirling</t>
   </si>
   <si>
     <t>Annan Athletic</t>
   </si>
   <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
     <t>Stenhousemuir</t>
   </si>
   <si>
@@ -1584,9 +1593,6 @@
   </si>
   <si>
     <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>-21</t>
   </si>
   <si>
     <t>t1_GD</t>
@@ -2406,13 +2412,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -2420,7 +2426,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -2435,7 +2441,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -2455,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -2490,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -2514,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -2525,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -2560,7 +2566,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2595,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -2630,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -2665,7 +2671,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -2700,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -2735,7 +2741,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -2770,7 +2776,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -2791,7 +2797,7 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
         <v>65</v>
@@ -2805,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -2840,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -2875,7 +2881,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -2910,7 +2916,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -2945,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -2966,7 +2972,7 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
@@ -2980,7 +2986,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -3015,7 +3021,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -3050,7 +3056,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -3085,7 +3091,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -3152,13 +3158,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
@@ -3166,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3201,7 +3207,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3236,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -3271,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3306,7 +3312,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -3341,7 +3347,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3376,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -3411,7 +3417,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -3446,7 +3452,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -3481,7 +3487,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3516,7 +3522,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -3551,7 +3557,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -3586,7 +3592,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -3621,7 +3627,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -3642,7 +3648,7 @@
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -3688,13 +3694,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -3702,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -3717,7 +3723,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -3737,7 +3743,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -3772,7 +3778,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -3807,7 +3813,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -3842,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -3877,7 +3883,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -3912,7 +3918,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -3947,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -3982,7 +3988,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -4017,7 +4023,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -4052,7 +4058,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -4087,7 +4093,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -4122,7 +4128,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -4143,7 +4149,7 @@
         <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
@@ -4157,7 +4163,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -4192,7 +4198,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -4227,7 +4233,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -4262,7 +4268,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -4283,7 +4289,7 @@
         <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -4297,7 +4303,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -4332,7 +4338,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -4367,7 +4373,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -4388,7 +4394,7 @@
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -4434,13 +4440,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
@@ -4448,7 +4454,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -4483,7 +4489,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -4518,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -4553,7 +4559,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -4588,7 +4594,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -4623,7 +4629,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -4658,7 +4664,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -4693,7 +4699,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -4728,7 +4734,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -4763,7 +4769,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -4798,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -4833,7 +4839,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -4868,7 +4874,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -4889,7 +4895,7 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
@@ -4903,7 +4909,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -4938,7 +4944,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -4973,7 +4979,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -5008,7 +5014,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -5043,7 +5049,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -5064,7 +5070,7 @@
         <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -5078,7 +5084,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -5099,7 +5105,7 @@
         <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -5113,7 +5119,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -5134,7 +5140,7 @@
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -5180,13 +5186,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
@@ -5194,7 +5200,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5209,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>392</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -5229,7 +5235,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -5264,7 +5270,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -5299,7 +5305,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -5334,7 +5340,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -5369,7 +5375,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -5404,7 +5410,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -5439,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -5474,7 +5480,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -5509,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -5544,7 +5550,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -5579,7 +5585,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -5614,7 +5620,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -5649,7 +5655,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -5684,7 +5690,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -5719,7 +5725,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -5754,7 +5760,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -5789,7 +5795,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -5810,7 +5816,7 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -5856,13 +5862,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
@@ -5870,7 +5876,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -5894,7 +5900,7 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -5905,7 +5911,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -5929,7 +5935,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -5940,7 +5946,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -5975,7 +5981,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -6010,7 +6016,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -6045,7 +6051,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -6080,7 +6086,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -6115,7 +6121,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -6150,7 +6156,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -6185,7 +6191,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -6220,7 +6226,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -6255,7 +6261,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -6290,7 +6296,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -6311,7 +6317,7 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -6325,7 +6331,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -6360,7 +6366,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -6395,7 +6401,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -6430,7 +6436,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -6465,7 +6471,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -6486,7 +6492,7 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -6532,13 +6538,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
@@ -6546,7 +6552,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -6561,7 +6567,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -6581,7 +6587,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -6616,7 +6622,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -6651,7 +6657,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -6686,7 +6692,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -6721,7 +6727,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -6756,7 +6762,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -6791,10 +6797,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -6803,16 +6809,16 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
@@ -6826,7 +6832,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -6861,7 +6867,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -6896,7 +6902,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -6917,7 +6923,7 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -6931,13 +6937,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -6946,16 +6952,16 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -6998,13 +7004,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="J1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -7012,7 +7018,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -7036,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7047,7 +7053,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -7071,7 +7077,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7082,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -7117,7 +7123,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -7152,7 +7158,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -7167,7 +7173,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -7187,7 +7193,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -7222,7 +7228,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -7257,7 +7263,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -7275,10 +7281,10 @@
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
@@ -7292,7 +7298,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -7327,7 +7333,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -7394,13 +7400,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="J1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2">
@@ -7408,7 +7414,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -7423,7 +7429,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -7443,7 +7449,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -7478,7 +7484,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -7513,7 +7519,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -7548,7 +7554,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -7583,7 +7589,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -7604,7 +7610,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
@@ -7618,7 +7624,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -7636,7 +7642,7 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
         <v>119</v>
@@ -7653,7 +7659,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -7688,7 +7694,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -7723,7 +7729,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -7744,7 +7750,7 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -7790,13 +7796,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2">
@@ -7804,7 +7810,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -7828,7 +7834,7 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7839,7 +7845,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -7874,7 +7880,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -7889,13 +7895,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -7909,7 +7915,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -7918,22 +7924,22 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7944,10 +7950,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -7956,16 +7962,16 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>65</v>
@@ -7979,7 +7985,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -8000,7 +8006,7 @@
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -8014,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -8049,7 +8055,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -8084,31 +8090,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
         <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -8119,7 +8125,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -8140,7 +8146,7 @@
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
@@ -8862,13 +8868,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
@@ -8876,7 +8882,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -8911,7 +8917,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -8935,7 +8941,7 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -8946,7 +8952,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -8981,7 +8987,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -9016,7 +9022,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -9051,7 +9057,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -9086,7 +9092,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -9121,7 +9127,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -9156,7 +9162,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -9191,7 +9197,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -9226,7 +9232,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -9261,7 +9267,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -9296,7 +9302,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -9331,7 +9337,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -9366,7 +9372,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -9401,7 +9407,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -9422,7 +9428,7 @@
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -9436,7 +9442,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -9471,7 +9477,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -9506,7 +9512,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -9541,7 +9547,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -9608,13 +9614,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2">
@@ -9622,7 +9628,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -9657,7 +9663,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -9692,7 +9698,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -9727,7 +9733,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -9751,7 +9757,7 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -9762,7 +9768,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -9797,7 +9803,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -9832,7 +9838,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -9867,7 +9873,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -9902,7 +9908,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -9937,7 +9943,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -9972,7 +9978,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -9993,7 +9999,7 @@
         <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -10007,7 +10013,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -10042,7 +10048,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -10077,7 +10083,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -10112,7 +10118,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -10147,7 +10153,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -10182,7 +10188,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -10217,7 +10223,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -10252,7 +10258,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -10287,7 +10293,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -10322,7 +10328,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -10357,7 +10363,7 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -10378,7 +10384,7 @@
         <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>517</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -10424,13 +10430,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2">
@@ -10438,7 +10444,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -10473,7 +10479,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -10508,7 +10514,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -10543,7 +10549,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -10578,7 +10584,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -10613,7 +10619,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -10648,7 +10654,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -10683,7 +10689,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -10718,7 +10724,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -10753,7 +10759,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -10788,7 +10794,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -10823,7 +10829,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -10858,7 +10864,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -10893,7 +10899,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -10928,7 +10934,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -10963,7 +10969,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -10998,7 +11004,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -11019,7 +11025,7 @@
         <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -11033,7 +11039,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -11068,7 +11074,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -11103,7 +11109,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -11124,7 +11130,7 @@
         <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -11190,25 +11196,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -11222,7 +11228,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -11231,16 +11237,16 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
@@ -11747,7 +11753,7 @@
         <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -11756,16 +11762,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -11846,13 +11852,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
@@ -11860,7 +11866,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -11884,7 +11890,7 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -11895,7 +11901,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -11930,7 +11936,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -11965,7 +11971,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -12000,7 +12006,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -12035,7 +12041,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -12070,7 +12076,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -12105,7 +12111,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -12140,7 +12146,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -12161,7 +12167,7 @@
         <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
@@ -12175,7 +12181,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -12210,7 +12216,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -12245,7 +12251,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -12280,7 +12286,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -12315,7 +12321,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -12350,7 +12356,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -12371,7 +12377,7 @@
         <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
         <v>22</v>
@@ -12385,7 +12391,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -12420,7 +12426,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -12455,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -12490,7 +12496,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -12511,7 +12517,7 @@
         <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -12525,7 +12531,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -12609,13 +12615,13 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -12630,7 +12636,7 @@
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -12644,28 +12650,28 @@
         <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -12679,13 +12685,13 @@
         <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -12700,7 +12706,7 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -12714,13 +12720,13 @@
         <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -12735,7 +12741,7 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -12749,28 +12755,28 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -12784,28 +12790,28 @@
         <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12819,28 +12825,28 @@
         <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12854,28 +12860,28 @@
         <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -12889,13 +12895,13 @@
         <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -12907,10 +12913,10 @@
         <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -12924,28 +12930,28 @@
         <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
         <v>87</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -12959,10 +12965,10 @@
         <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -12971,16 +12977,16 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -12994,28 +13000,28 @@
         <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13029,28 +13035,28 @@
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13064,28 +13070,28 @@
         <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
         <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>51</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13099,25 +13105,25 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s">
         <v>51</v>
@@ -13134,28 +13140,28 @@
         <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -13169,28 +13175,28 @@
         <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -13204,28 +13210,28 @@
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -13239,10 +13245,10 @@
         <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -13251,16 +13257,16 @@
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -13274,28 +13280,28 @@
         <v>169</v>
       </c>
       <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" t="s">
         <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" t="s">
-        <v>65</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -13309,7 +13315,7 @@
         <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -13318,16 +13324,16 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -13344,10 +13350,10 @@
         <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -13356,16 +13362,16 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
         <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -13379,7 +13385,7 @@
         <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -13388,16 +13394,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
@@ -13414,7 +13420,7 @@
         <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -13423,16 +13429,16 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -13478,13 +13484,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -13492,31 +13498,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13527,31 +13533,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13562,31 +13568,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -13597,31 +13603,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -13632,31 +13638,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
         <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>117</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -13667,31 +13673,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -13702,31 +13708,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -13737,13 +13743,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -13752,16 +13758,16 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -13772,13 +13778,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -13787,16 +13793,16 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -13807,31 +13813,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -13842,31 +13848,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -13877,13 +13883,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -13892,16 +13898,16 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
         <v>92</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13912,31 +13918,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13947,31 +13953,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
         <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13982,31 +13988,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
         <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14017,10 +14023,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -14029,16 +14035,16 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
@@ -14052,10 +14058,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -14064,16 +14070,16 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
@@ -14087,7 +14093,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -14096,22 +14102,22 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -14122,31 +14128,31 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14157,10 +14163,10 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -14169,16 +14175,16 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>
@@ -14192,31 +14198,31 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>63</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -14227,10 +14233,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -14239,16 +14245,16 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
@@ -14262,10 +14268,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -14274,16 +14280,16 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -14297,10 +14303,10 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -14309,16 +14315,16 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -14364,13 +14370,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
@@ -14378,13 +14384,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -14393,16 +14399,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -14413,10 +14419,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -14425,16 +14431,16 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -14448,31 +14454,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -14483,31 +14489,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -14518,31 +14524,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -14553,31 +14559,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -14588,31 +14594,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14623,31 +14629,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
         <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -14658,31 +14664,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -14693,31 +14699,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -14728,31 +14734,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -14763,28 +14769,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
@@ -14798,31 +14804,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
         <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -14833,31 +14839,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14868,31 +14874,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14903,31 +14909,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
         <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14938,31 +14944,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14973,7 +14979,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -14988,13 +14994,13 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
         <v>65</v>
@@ -15008,31 +15014,31 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
         <v>65</v>
-      </c>
-      <c r="H20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15043,31 +15049,31 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -15078,31 +15084,31 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15113,10 +15119,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -15125,16 +15131,16 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
@@ -15148,10 +15154,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -15160,16 +15166,16 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
@@ -15183,31 +15189,31 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -15250,13 +15256,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
@@ -15264,31 +15270,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15299,31 +15305,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15334,10 +15340,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -15346,16 +15352,16 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
@@ -15369,10 +15375,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -15381,16 +15387,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>117</v>
@@ -15404,10 +15410,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -15416,16 +15422,16 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>89</v>
@@ -15439,31 +15445,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -15474,31 +15480,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -15509,31 +15515,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15544,31 +15550,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -15579,31 +15585,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -15614,31 +15620,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -15649,13 +15655,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -15664,16 +15670,16 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -15684,13 +15690,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>87</v>
@@ -15699,16 +15705,16 @@
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -15719,31 +15725,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -15754,7 +15760,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -15763,22 +15769,22 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -15789,31 +15795,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -15824,28 +15830,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -15859,10 +15865,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
@@ -15871,16 +15877,16 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
@@ -15894,7 +15900,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -15929,31 +15935,31 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
         <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -15964,7 +15970,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -15973,22 +15979,22 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15999,10 +16005,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -16011,13 +16017,13 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="I23" t="s">
         <v>176</v>
@@ -16034,10 +16040,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>87</v>
@@ -16046,16 +16052,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -16101,13 +16107,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
@@ -16115,7 +16121,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -16139,7 +16145,7 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -16150,7 +16156,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -16185,7 +16191,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -16220,7 +16226,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -16255,7 +16261,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -16290,7 +16296,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -16325,7 +16331,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -16360,7 +16366,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -16395,7 +16401,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -16430,7 +16436,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -16465,7 +16471,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -16500,7 +16506,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -16535,7 +16541,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -16556,7 +16562,7 @@
         <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
@@ -16570,7 +16576,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -16605,7 +16611,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -16640,7 +16646,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -16661,7 +16667,7 @@
         <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -16675,7 +16681,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -16710,7 +16716,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -16745,7 +16751,7 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -16780,7 +16786,7 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="549">
   <si>
     <t>Team</t>
   </si>
@@ -434,27 +434,27 @@
     <t>Liverpool</t>
   </si>
   <si>
+    <t>West Ham</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>West Ham</t>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Man United</t>
   </si>
   <si>
     <t>Wolves</t>
   </si>
   <si>
-    <t>Tottenham</t>
-  </si>
-  <si>
     <t>Brighton</t>
   </si>
   <si>
     <t>Leicester</t>
   </si>
   <si>
-    <t>Man United</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -467,15 +467,15 @@
     <t>Everton</t>
   </si>
   <si>
+    <t>Leeds</t>
+  </si>
+  <si>
     <t>Southampton</t>
   </si>
   <si>
     <t>Watford</t>
   </si>
   <si>
-    <t>Leeds</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
@@ -485,6 +485,9 @@
     <t>Newcastle</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>-20</t>
   </si>
   <si>
@@ -587,9 +590,6 @@
     <t>-18</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>e2_GD</t>
   </si>
   <si>
@@ -800,12 +800,12 @@
     <t>Solihull</t>
   </si>
   <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
     <t>Dag and Red</t>
   </si>
   <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
     <t>Altrincham</t>
   </si>
   <si>
@@ -860,57 +860,57 @@
     <t>Paris SG</t>
   </si>
   <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
+    <t>Clermont</t>
+  </si>
+  <si>
     <t>Bordeaux</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
     <t>Metz</t>
   </si>
   <si>
@@ -1085,12 +1085,12 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Venezia</t>
   </si>
   <si>
@@ -1115,45 +1115,45 @@
     <t>i2_rank</t>
   </si>
   <si>
+    <t>Brescia</t>
+  </si>
+  <si>
     <t>Pisa</t>
   </si>
   <si>
-    <t>Brescia</t>
-  </si>
-  <si>
     <t>Lecce</t>
   </si>
   <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
     <t>Cremonese</t>
   </si>
   <si>
-    <t>Monza</t>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Perugia</t>
   </si>
   <si>
     <t>Reggina</t>
   </si>
   <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Perugia</t>
+    <t>Como</t>
   </si>
   <si>
     <t>Ternana</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
     <t>Parma</t>
   </si>
   <si>
@@ -1169,12 +1169,12 @@
     <t>Crotone</t>
   </si>
   <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
     <t>Vicenza</t>
   </si>
   <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
     <t>n1_GD</t>
   </si>
   <si>
@@ -1187,12 +1187,12 @@
     <t>Ajax</t>
   </si>
   <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
     <t>PSV Eindhoven</t>
   </si>
   <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
     <t>Utrecht</t>
   </si>
   <si>
@@ -1205,6 +1205,9 @@
     <t>Twente</t>
   </si>
   <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
     <t>Go Ahead Eagles</t>
   </si>
   <si>
@@ -1217,9 +1220,6 @@
     <t>Willem II</t>
   </si>
   <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
     <t>Groningen</t>
   </si>
   <si>
@@ -1238,6 +1238,12 @@
     <t>Zwolle</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>p1_GD</t>
   </si>
   <si>
@@ -1256,15 +1262,15 @@
     <t>Benfica</t>
   </si>
   <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
     <t>Estoril</t>
   </si>
   <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
     <t>Guimaraes</t>
   </si>
   <si>
@@ -1325,19 +1331,19 @@
     <t>Motherwell</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>Hibernian</t>
   </si>
   <si>
     <t>St Mirren</t>
   </si>
   <si>
-    <t>Aberdeen</t>
+    <t>Dundee</t>
   </si>
   <si>
     <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Dundee</t>
   </si>
   <si>
     <t>Livingston</t>
@@ -2453,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -3625,7 +3631,7 @@
         <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -3723,28 +3729,28 @@
         <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -3758,10 +3764,10 @@
         <v>338</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -3770,16 +3776,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -3793,10 +3799,10 @@
         <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3805,16 +3811,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3828,10 +3834,10 @@
         <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3840,16 +3846,16 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -3863,7 +3869,7 @@
         <v>341</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -3872,16 +3878,16 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
@@ -3898,10 +3904,10 @@
         <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -3910,16 +3916,16 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -3933,10 +3939,10 @@
         <v>343</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
@@ -3945,16 +3951,16 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -3968,10 +3974,10 @@
         <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -3980,16 +3986,16 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -4003,28 +4009,28 @@
         <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -4038,28 +4044,28 @@
         <v>346</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -4073,13 +4079,13 @@
         <v>347</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -4094,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -4108,28 +4114,28 @@
         <v>348</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -4143,28 +4149,28 @@
         <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -4178,28 +4184,28 @@
         <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -4213,25 +4219,25 @@
         <v>351</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
@@ -4248,7 +4254,7 @@
         <v>352</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -4257,16 +4263,16 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
@@ -4283,7 +4289,7 @@
         <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -4292,16 +4298,16 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -4318,7 +4324,7 @@
         <v>354</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -4327,16 +4333,16 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -4353,13 +4359,13 @@
         <v>355</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -4371,10 +4377,10 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -4388,7 +4394,7 @@
         <v>356</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -4397,16 +4403,16 @@
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -4469,28 +4475,28 @@
         <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -4504,28 +4510,28 @@
         <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -4539,10 +4545,10 @@
         <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -4551,16 +4557,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -4574,28 +4580,28 @@
         <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -4609,10 +4615,10 @@
         <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4621,16 +4627,16 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -4644,28 +4650,28 @@
         <v>365</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -4679,28 +4685,28 @@
         <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -4714,28 +4720,28 @@
         <v>367</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -4749,7 +4755,7 @@
         <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -4758,16 +4764,16 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
@@ -4784,28 +4790,28 @@
         <v>369</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -4819,28 +4825,28 @@
         <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -4857,22 +4863,22 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
@@ -4889,28 +4895,28 @@
         <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -4924,7 +4930,7 @@
         <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -4933,16 +4939,16 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -4959,7 +4965,7 @@
         <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -4968,16 +4974,16 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
       </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
@@ -4994,25 +5000,25 @@
         <v>375</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
@@ -5029,7 +5035,7 @@
         <v>376</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -5038,16 +5044,16 @@
         <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
@@ -5082,7 +5088,7 @@
         <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -5099,25 +5105,25 @@
         <v>378</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -5134,28 +5140,28 @@
         <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -5215,10 +5221,10 @@
         <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -5227,16 +5233,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>401</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -5256,22 +5262,22 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -5285,28 +5291,28 @@
         <v>385</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -5472,13 +5478,13 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
@@ -5498,25 +5504,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -5536,22 +5542,22 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -5577,13 +5583,13 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -5600,28 +5606,28 @@
         <v>394</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -5670,7 +5676,7 @@
         <v>396</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -5679,16 +5685,16 @@
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -5775,7 +5781,7 @@
         <v>399</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -5784,16 +5790,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
@@ -5874,13 +5880,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2">
@@ -5888,7 +5894,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -5923,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -5958,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -5993,31 +5999,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -6028,31 +6034,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -6063,31 +6069,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -6098,7 +6104,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -6133,7 +6139,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -6168,7 +6174,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -6203,7 +6209,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -6238,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -6273,7 +6279,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -6308,7 +6314,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -6343,7 +6349,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -6378,10 +6384,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -6390,16 +6396,16 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -6413,7 +6419,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -6448,7 +6454,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -6483,7 +6489,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -6550,13 +6556,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2">
@@ -6564,13 +6570,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -6579,16 +6585,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -6599,13 +6605,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -6614,16 +6620,16 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -6634,10 +6640,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -6646,16 +6652,16 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
         <v>92</v>
@@ -6669,10 +6675,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -6681,16 +6687,16 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
@@ -6704,13 +6710,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -6719,16 +6725,16 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -6739,10 +6745,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -6751,16 +6757,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -6774,31 +6780,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -6809,31 +6815,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -6844,31 +6850,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -6879,31 +6885,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -6914,10 +6920,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -6926,16 +6932,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
         <v>22</v>
@@ -6949,16 +6955,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -6973,7 +6979,7 @@
         <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -7016,13 +7022,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
@@ -7030,7 +7036,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -7065,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -7100,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -7135,7 +7141,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -7170,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -7205,7 +7211,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -7226,7 +7232,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -7240,7 +7246,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -7275,7 +7281,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -7310,7 +7316,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -7345,7 +7351,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -7412,13 +7418,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2">
@@ -7426,7 +7432,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -7461,7 +7467,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -7496,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -7531,7 +7537,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -7566,7 +7572,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -7601,7 +7607,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -7636,7 +7642,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -7671,7 +7677,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -7706,7 +7712,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -7741,7 +7747,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -7762,7 +7768,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -7808,13 +7814,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2">
@@ -7822,7 +7828,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -7846,7 +7852,7 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7857,7 +7863,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -7892,7 +7898,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -7927,7 +7933,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -7962,7 +7968,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -7997,7 +8003,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -8032,7 +8038,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -8067,7 +8073,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -8102,7 +8108,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -8137,7 +8143,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -8880,13 +8886,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2">
@@ -8894,13 +8900,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -8909,16 +8915,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -8929,7 +8935,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -8964,7 +8970,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -8999,7 +9005,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -9034,7 +9040,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -9069,7 +9075,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -9104,7 +9110,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -9139,10 +9145,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -9151,16 +9157,16 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
@@ -9174,7 +9180,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -9209,7 +9215,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -9244,7 +9250,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -9279,7 +9285,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -9314,7 +9320,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -9349,7 +9355,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -9384,7 +9390,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -9419,7 +9425,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -9454,7 +9460,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -9489,7 +9495,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -9524,7 +9530,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -9559,7 +9565,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -9626,13 +9632,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">
@@ -9640,7 +9646,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -9675,7 +9681,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -9710,7 +9716,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -9745,7 +9751,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -9780,7 +9786,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -9815,7 +9821,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -9850,7 +9856,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -9885,7 +9891,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -9920,7 +9926,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -9955,7 +9961,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -9990,7 +9996,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -10025,7 +10031,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -10060,7 +10066,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -10095,7 +10101,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -10130,7 +10136,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -10165,7 +10171,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -10200,7 +10206,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -10235,7 +10241,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -10270,7 +10276,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -10305,7 +10311,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -10340,7 +10346,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -10375,7 +10381,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -10396,7 +10402,7 @@
         <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
@@ -10442,13 +10448,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
@@ -10456,7 +10462,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -10480,7 +10486,7 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -10491,7 +10497,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -10526,7 +10532,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -10561,7 +10567,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -10596,7 +10602,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -10631,7 +10637,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -10666,7 +10672,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -10701,7 +10707,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -10736,7 +10742,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -10771,7 +10777,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -10806,7 +10812,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -10841,7 +10847,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -10876,7 +10882,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -10911,7 +10917,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -10946,7 +10952,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -10981,7 +10987,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -11016,7 +11022,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -11051,7 +11057,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -11086,7 +11092,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -11121,7 +11127,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -11881,10 +11887,10 @@
         <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -11893,16 +11899,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -11916,10 +11922,10 @@
         <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -11928,16 +11934,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -11951,10 +11957,10 @@
         <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -11963,16 +11969,16 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -11986,28 +11992,28 @@
         <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -12021,7 +12027,7 @@
         <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -12030,16 +12036,16 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
@@ -12059,25 +12065,25 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12091,28 +12097,28 @@
         <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12126,28 +12132,28 @@
         <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -12161,28 +12167,28 @@
         <v>138</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -12196,28 +12202,28 @@
         <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -12231,7 +12237,7 @@
         <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -12240,16 +12246,16 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="J12" t="s">
         <v>25</v>
@@ -12266,7 +12272,7 @@
         <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -12275,16 +12281,16 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
         <v>25</v>
@@ -12301,7 +12307,7 @@
         <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -12310,16 +12316,16 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s">
         <v>25</v>
@@ -12336,7 +12342,7 @@
         <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -12345,16 +12351,16 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
@@ -12371,28 +12377,28 @@
         <v>144</v>
       </c>
       <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -12406,28 +12412,28 @@
         <v>145</v>
       </c>
       <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -12441,28 +12447,28 @@
         <v>146</v>
       </c>
       <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -12476,13 +12482,13 @@
         <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -12497,7 +12503,7 @@
         <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -12511,28 +12517,28 @@
         <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -12546,28 +12552,28 @@
         <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
         <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -12610,13 +12616,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -12624,7 +12630,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -12639,7 +12645,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -12648,7 +12654,7 @@
         <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -12659,7 +12665,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -12674,7 +12680,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -12694,7 +12700,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -12729,7 +12735,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -12764,7 +12770,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>51</v>
@@ -12799,7 +12805,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -12834,7 +12840,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -12869,7 +12875,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -12904,7 +12910,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -12939,7 +12945,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -12974,7 +12980,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -13009,7 +13015,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
@@ -13044,7 +13050,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -13079,7 +13085,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -13114,7 +13120,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -13149,7 +13155,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -13184,7 +13190,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -13219,7 +13225,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -13254,7 +13260,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -13289,7 +13295,7 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -13324,7 +13330,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -13345,7 +13351,7 @@
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
         <v>54</v>
@@ -13359,7 +13365,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -13394,7 +13400,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -13412,10 +13418,10 @@
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
         <v>25</v>
@@ -13429,7 +13435,7 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -13450,7 +13456,7 @@
         <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -13534,7 +13540,7 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13569,7 +13575,7 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13604,7 +13610,7 @@
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -13639,7 +13645,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -13910,7 +13916,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
         <v>52</v>
@@ -13983,10 +13989,10 @@
         <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
@@ -14333,7 +14339,7 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I25" t="s">
         <v>214</v>
@@ -15222,7 +15228,7 @@
         <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -15306,7 +15312,7 @@
         <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15530,7 +15536,7 @@
         <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -15539,16 +15545,16 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>91</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -15600,28 +15606,28 @@
         <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -15635,28 +15641,28 @@
         <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -16136,13 +16142,13 @@
         <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -16157,7 +16163,7 @@
         <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -16177,22 +16183,22 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -16206,13 +16212,13 @@
         <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -16227,7 +16233,7 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -16241,28 +16247,28 @@
         <v>277</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -16276,28 +16282,28 @@
         <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -16311,28 +16317,28 @@
         <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -16346,28 +16352,28 @@
         <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -16381,28 +16387,28 @@
         <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -16419,25 +16425,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -16451,10 +16457,10 @@
         <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -16463,16 +16469,16 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -16486,28 +16492,28 @@
         <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -16521,10 +16527,10 @@
         <v>285</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -16533,16 +16539,16 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -16556,28 +16562,28 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
         <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -16591,10 +16597,10 @@
         <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -16603,16 +16609,16 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -16626,28 +16632,28 @@
         <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -16661,28 +16667,28 @@
         <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -16696,28 +16702,28 @@
         <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
         <v>123</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -16731,25 +16737,25 @@
         <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -16766,7 +16772,7 @@
         <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -16775,16 +16781,16 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -16801,7 +16807,7 @@
         <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -16810,16 +16816,16 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="551">
   <si>
     <t>Team</t>
   </si>
@@ -611,18 +611,18 @@
     <t>Wycombe</t>
   </si>
   <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Sunderland</t>
+    <t>Oxford</t>
   </si>
   <si>
     <t>Milton Keynes Dons</t>
   </si>
   <si>
-    <t>Oxford</t>
-  </si>
-  <si>
     <t>Sheffield Weds</t>
   </si>
   <si>
@@ -662,267 +662,270 @@
     <t>Shrewsbury</t>
   </si>
   <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
     <t>Gillingham</t>
   </si>
   <si>
-    <t>Fleetwood Town</t>
+    <t>Crewe</t>
   </si>
   <si>
     <t>Doncaster</t>
   </si>
   <si>
-    <t>Crewe</t>
-  </si>
-  <si>
     <t>39</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>e3_rank</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>ec_GD</t>
+  </si>
+  <si>
+    <t>ec_PTS</t>
+  </si>
+  <si>
+    <t>ec_rank</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>f1_GD</t>
+  </si>
+  <si>
+    <t>f1_PTS</t>
+  </si>
+  <si>
+    <t>f1_rank</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
     <t>-19</t>
   </si>
   <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>e3_rank</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>ec_GD</t>
-  </si>
-  <si>
-    <t>ec_PTS</t>
-  </si>
-  <si>
-    <t>ec_rank</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>f1_GD</t>
-  </si>
-  <si>
-    <t>f1_PTS</t>
-  </si>
-  <si>
-    <t>f1_rank</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>f2_GD</t>
   </si>
   <si>
@@ -1346,12 +1349,12 @@
     <t>Dundee</t>
   </si>
   <si>
+    <t>Livingston</t>
+  </si>
+  <si>
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Livingston</t>
-  </si>
-  <si>
     <t>Ross County</t>
   </si>
   <si>
@@ -1406,13 +1409,13 @@
     <t>Cove Rangers</t>
   </si>
   <si>
+    <t>Montrose</t>
+  </si>
+  <si>
     <t>Airdrie Utd</t>
   </si>
   <si>
     <t>Queens Park</t>
-  </si>
-  <si>
-    <t>Montrose</t>
   </si>
   <si>
     <t>Falkirk</t>
@@ -2433,13 +2436,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -2447,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -2482,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2517,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -2552,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -2587,7 +2590,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -2622,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -2657,7 +2660,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -2692,7 +2695,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -2727,7 +2730,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -2762,7 +2765,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -2797,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -2832,7 +2835,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -2867,7 +2870,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -2902,7 +2905,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -2937,7 +2940,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -2972,7 +2975,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -3007,7 +3010,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -3042,7 +3045,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -3077,7 +3080,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -3112,7 +3115,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -3179,13 +3182,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2">
@@ -3193,7 +3196,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -3228,7 +3231,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3263,7 +3266,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -3298,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -3333,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -3368,7 +3371,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -3403,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3438,7 +3441,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -3473,7 +3476,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -3508,7 +3511,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -3543,7 +3546,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -3578,7 +3581,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -3613,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -3648,7 +3651,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3715,13 +3718,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -3729,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -3764,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -3799,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -3834,7 +3837,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -3869,7 +3872,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -3904,7 +3907,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -3939,7 +3942,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -3974,7 +3977,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -4009,7 +4012,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4044,7 +4047,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -4079,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -4114,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -4149,7 +4152,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -4184,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -4219,7 +4222,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -4254,7 +4257,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -4289,7 +4292,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -4310,7 +4313,7 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -4324,7 +4327,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -4359,7 +4362,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -4394,7 +4397,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -4415,7 +4418,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -4461,13 +4464,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
@@ -4475,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -4510,7 +4513,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -4545,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -4580,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -4615,7 +4618,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -4650,7 +4653,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4685,7 +4688,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -4720,7 +4723,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -4755,7 +4758,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -4790,7 +4793,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -4825,7 +4828,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -4860,7 +4863,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -4895,7 +4898,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -4930,7 +4933,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -4965,7 +4968,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -5000,7 +5003,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
@@ -5035,7 +5038,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -5070,7 +5073,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -5105,7 +5108,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -5126,7 +5129,7 @@
         <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -5140,7 +5143,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -5207,13 +5210,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -5221,7 +5224,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -5236,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -5256,7 +5259,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -5291,7 +5294,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -5326,7 +5329,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -5361,7 +5364,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -5396,7 +5399,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -5431,7 +5434,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -5466,7 +5469,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -5501,7 +5504,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -5536,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -5571,7 +5574,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -5606,7 +5609,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -5641,7 +5644,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -5676,7 +5679,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -5711,7 +5714,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -5746,7 +5749,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -5781,7 +5784,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -5816,7 +5819,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -5837,7 +5840,7 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="J19" t="s">
         <v>15</v>
@@ -5883,13 +5886,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
@@ -5897,7 +5900,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5932,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -5967,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -6002,7 +6005,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -6037,7 +6040,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -6072,7 +6075,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -6107,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -6142,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -6177,7 +6180,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -6212,7 +6215,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -6247,7 +6250,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -6282,7 +6285,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -6317,7 +6320,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -6352,7 +6355,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -6387,7 +6390,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -6422,7 +6425,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -6457,7 +6460,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -6492,7 +6495,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -6559,13 +6562,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
@@ -6573,7 +6576,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -6608,7 +6611,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -6643,7 +6646,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -6678,7 +6681,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -6713,7 +6716,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -6748,7 +6751,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -6783,10 +6786,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -6795,16 +6798,16 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
         <v>74</v>
@@ -6818,7 +6821,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -6853,7 +6856,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -6888,31 +6891,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -6923,31 +6926,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -6958,7 +6961,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -7025,13 +7028,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
@@ -7039,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -7074,7 +7077,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -7109,7 +7112,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -7144,7 +7147,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -7179,7 +7182,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -7214,7 +7217,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -7249,7 +7252,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -7284,7 +7287,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -7319,7 +7322,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -7354,7 +7357,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -7421,13 +7424,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
@@ -7435,7 +7438,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -7470,31 +7473,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7505,28 +7508,28 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>58</v>
@@ -7540,31 +7543,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7575,7 +7578,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -7610,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -7645,7 +7648,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -7680,7 +7683,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -7715,7 +7718,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -7750,7 +7753,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -7817,13 +7820,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
@@ -7831,7 +7834,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -7866,7 +7869,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -7901,7 +7904,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -7936,7 +7939,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -7971,7 +7974,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -8006,7 +8009,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -8041,7 +8044,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -8076,7 +8079,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -8111,7 +8114,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -8146,7 +8149,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -8889,13 +8892,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2">
@@ -8903,7 +8906,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -8938,7 +8941,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -8973,7 +8976,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -9008,7 +9011,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -9043,7 +9046,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -9078,7 +9081,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -9113,7 +9116,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -9148,7 +9151,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -9183,7 +9186,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -9218,7 +9221,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -9253,7 +9256,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -9288,7 +9291,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -9323,7 +9326,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -9358,7 +9361,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -9393,7 +9396,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -9428,7 +9431,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -9463,7 +9466,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -9498,7 +9501,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -9533,7 +9536,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
@@ -9568,7 +9571,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -9635,13 +9638,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2">
@@ -9649,7 +9652,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -9673,7 +9676,7 @@
         <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -9684,7 +9687,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -9719,7 +9722,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -9754,7 +9757,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -9789,7 +9792,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -9824,7 +9827,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -9859,7 +9862,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
@@ -9894,7 +9897,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -9929,7 +9932,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -9964,7 +9967,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -9999,7 +10002,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -10034,7 +10037,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -10069,7 +10072,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -10104,7 +10107,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -10139,7 +10142,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -10174,7 +10177,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -10209,7 +10212,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C18" t="s">
         <v>74</v>
@@ -10244,7 +10247,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C19" t="s">
         <v>74</v>
@@ -10279,7 +10282,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -10314,7 +10317,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -10349,7 +10352,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C22" t="s">
         <v>74</v>
@@ -10384,7 +10387,7 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -10451,13 +10454,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
@@ -10465,7 +10468,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -10500,7 +10503,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -10535,7 +10538,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -10570,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -10605,7 +10608,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -10640,7 +10643,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -10675,7 +10678,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -10710,7 +10713,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -10745,7 +10748,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -10780,7 +10783,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -10815,7 +10818,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -10850,7 +10853,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -10885,7 +10888,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -10920,7 +10923,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -10955,7 +10958,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
@@ -10990,7 +10993,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -11025,7 +11028,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -11060,7 +11063,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -11095,7 +11098,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -11130,7 +11133,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -11151,7 +11154,7 @@
         <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -13522,10 +13525,10 @@
         <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -13534,16 +13537,16 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13557,10 +13560,10 @@
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -13569,16 +13572,16 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13592,10 +13595,10 @@
         <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -13604,16 +13607,16 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -13630,25 +13633,25 @@
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -13662,28 +13665,28 @@
         <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -13697,28 +13700,28 @@
         <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -13732,28 +13735,28 @@
         <v>195</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -13767,13 +13770,13 @@
         <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -13788,7 +13791,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -13802,13 +13805,13 @@
         <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -13823,7 +13826,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -13837,7 +13840,7 @@
         <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -13846,16 +13849,16 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -13872,7 +13875,7 @@
         <v>199</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -13881,16 +13884,16 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -13907,7 +13910,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -13916,16 +13919,16 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
@@ -13942,7 +13945,7 @@
         <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -13951,16 +13954,16 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
@@ -13977,7 +13980,7 @@
         <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -13986,16 +13989,16 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
@@ -14012,10 +14015,10 @@
         <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -14024,16 +14027,16 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
         <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14047,10 +14050,10 @@
         <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -14059,16 +14062,16 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14082,10 +14085,10 @@
         <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -14094,16 +14097,16 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14117,7 +14120,7 @@
         <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -14126,16 +14129,16 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
@@ -14152,7 +14155,7 @@
         <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -14161,16 +14164,16 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
         <v>74</v>
@@ -14187,25 +14190,25 @@
         <v>208</v>
       </c>
       <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
         <v>74</v>
@@ -14225,25 +14228,25 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -14257,28 +14260,28 @@
         <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -14292,28 +14295,28 @@
         <v>211</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -14330,25 +14333,25 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
         <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -14391,13 +14394,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
@@ -14405,13 +14408,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -14420,16 +14423,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -14440,13 +14443,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -14455,16 +14458,16 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -14475,31 +14478,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -14510,28 +14513,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>72</v>
@@ -14545,7 +14548,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -14554,22 +14557,22 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -14580,10 +14583,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -14592,16 +14595,16 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
@@ -14615,31 +14618,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14650,31 +14653,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -14685,31 +14688,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -14720,13 +14723,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -14735,16 +14738,16 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -14755,31 +14758,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -14790,31 +14793,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -14825,31 +14828,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -14860,31 +14863,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
         <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14895,31 +14898,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14930,31 +14933,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14965,10 +14968,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -14977,16 +14980,16 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
@@ -15000,16 +15003,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -15024,7 +15027,7 @@
         <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -15035,31 +15038,31 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
         <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15070,7 +15073,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -15105,31 +15108,31 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
         <v>65</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15140,10 +15143,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -15152,16 +15155,16 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
         <v>25</v>
@@ -15175,10 +15178,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -15187,16 +15190,16 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
         <v>24</v>
@@ -15210,31 +15213,31 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
         <v>24</v>
-      </c>
-      <c r="H25" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" t="s">
-        <v>242</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -15277,13 +15280,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -15291,7 +15294,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -15326,7 +15329,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -15361,7 +15364,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -15396,7 +15399,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -15431,7 +15434,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -15466,7 +15469,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -15501,7 +15504,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -15536,7 +15539,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -15571,7 +15574,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -15606,7 +15609,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -15641,7 +15644,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -15676,7 +15679,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -15711,7 +15714,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -15746,7 +15749,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -15781,7 +15784,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -15816,7 +15819,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -15851,7 +15854,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -15886,7 +15889,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -15921,10 +15924,10 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -15933,16 +15936,16 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
@@ -15956,31 +15959,31 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -15991,31 +15994,31 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -16026,7 +16029,7 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -16047,7 +16050,7 @@
         <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
@@ -16061,7 +16064,7 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -16079,10 +16082,10 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -16128,13 +16131,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
@@ -16142,7 +16145,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -16166,7 +16169,7 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -16177,7 +16180,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -16212,7 +16215,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -16247,7 +16250,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -16282,7 +16285,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -16317,7 +16320,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -16352,7 +16355,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -16387,7 +16390,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -16422,7 +16425,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -16457,7 +16460,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -16492,7 +16495,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -16527,7 +16530,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -16562,7 +16565,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -16597,7 +16600,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -16632,7 +16635,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -16667,7 +16670,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -16702,7 +16705,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -16737,7 +16740,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -16772,7 +16775,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -16793,7 +16796,7 @@
         <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -16807,7 +16810,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -16828,7 +16831,7 @@
         <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -938,27 +938,27 @@
     <t>Ajaccio</t>
   </si>
   <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
     <t>Paris FC</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Sochaux</t>
   </si>
   <si>
     <t>Le Havre</t>
   </si>
   <si>
+    <t>Rodez</t>
+  </si>
+  <si>
     <t>Niort</t>
   </si>
   <si>
-    <t>Rodez</t>
-  </si>
-  <si>
     <t>Pau FC</t>
   </si>
   <si>
@@ -1076,15 +1076,15 @@
     <t>Juventus</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>Empoli</t>
   </si>
   <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Bologna</t>
   </si>
   <si>
@@ -1292,6 +1292,9 @@
     <t>Arouca</t>
   </si>
   <si>
+    <t>Vizela</t>
+  </si>
+  <si>
     <t>Boavista</t>
   </si>
   <si>
@@ -1307,9 +1310,6 @@
     <t>Santa Clara</t>
   </si>
   <si>
-    <t>Vizela</t>
-  </si>
-  <si>
     <t>Moreirense</t>
   </si>
   <si>
@@ -1532,15 +1532,15 @@
     <t>Celta</t>
   </si>
   <si>
+    <t>Granada</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
     <t>Elche</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -1607,12 +1607,12 @@
     <t>Lugo</t>
   </si>
   <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
     <t>Leganes</t>
   </si>
   <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
     <t>Fuenlabrada</t>
   </si>
   <si>
@@ -1664,22 +1664,22 @@
     <t>Karagumruk</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Antalyaspor</t>
   </si>
   <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
     <t>Giresunspor</t>
   </si>
   <si>
     <t>Kayserispor</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
     <t>Altay</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
   </si>
   <si>
     <t>Goztep</t>
@@ -2500,22 +2500,22 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -2532,22 +2532,22 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>76</v>
@@ -2564,25 +2564,25 @@
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>76</v>
@@ -2675,22 +2675,22 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -2704,7 +2704,7 @@
         <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -2713,16 +2713,16 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>62</v>
@@ -3954,25 +3954,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -3989,25 +3989,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -4021,25 +4021,25 @@
         <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
@@ -4301,7 +4301,7 @@
         <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -4310,16 +4310,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -6224,7 +6224,7 @@
         <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -6233,16 +6233,16 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -6259,28 +6259,28 @@
         <v>419</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -6294,22 +6294,22 @@
         <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
         <v>103</v>
@@ -6329,28 +6329,28 @@
         <v>421</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
         <v>103</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -6370,22 +6370,22 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>337</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -6411,13 +6411,13 @@
         <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -6434,25 +6434,25 @@
         <v>424</v>
       </c>
       <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -9408,25 +9408,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -9440,25 +9440,25 @@
         <v>500</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
@@ -9475,7 +9475,7 @@
         <v>501</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -9484,16 +9484,16 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -9510,28 +9510,28 @@
         <v>502</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -10224,25 +10224,25 @@
         <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -10256,28 +10256,28 @@
         <v>525</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -10361,7 +10361,7 @@
         <v>528</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -10370,16 +10370,16 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -10652,7 +10652,7 @@
         <v>538</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -10661,16 +10661,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>57</v>
@@ -10757,7 +10757,7 @@
         <v>541</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -10766,16 +10766,16 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
@@ -10830,25 +10830,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -10865,25 +10865,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -10900,25 +10900,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
         <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -10932,25 +10932,25 @@
         <v>546</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>55</v>
@@ -10973,22 +10973,22 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
         <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -11002,7 +11002,7 @@
         <v>548</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -11011,16 +11011,16 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -560,6 +560,9 @@
     <t>Middlesbrough</t>
   </si>
   <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
     <t>Blackpool</t>
   </si>
   <si>
@@ -569,9 +572,6 @@
     <t>Luton</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
     <t>Preston</t>
   </si>
   <si>
@@ -1520,10 +1520,10 @@
     <t>Sociedad</t>
   </si>
   <si>
+    <t>Valencia</t>
+  </si>
+  <si>
     <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Valencia</t>
   </si>
   <si>
     <t>Ath Bilbao</t>
@@ -3252,7 +3252,7 @@
         <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -3261,16 +3261,16 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
         <v>57</v>
@@ -3322,10 +3322,10 @@
         <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -3334,16 +3334,16 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -3427,10 +3427,10 @@
         <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -3439,16 +3439,16 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -3567,7 +3567,7 @@
         <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -3576,16 +3576,16 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -9137,28 +9137,28 @@
         <v>495</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9175,25 +9175,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9592,7 +9592,7 @@
         <v>508</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>104</v>
@@ -9601,16 +9601,16 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -12657,7 +12657,7 @@
         <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -12666,16 +12666,16 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>189</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
         <v>65</v>
@@ -13007,28 +13007,28 @@
         <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -13042,25 +13042,25 @@
         <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
@@ -13083,22 +13083,22 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13112,25 +13112,25 @@
         <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
         <v>101</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="558">
   <si>
     <t>Team</t>
   </si>
@@ -464,13 +464,16 @@
     <t>Arsenal</t>
   </si>
   <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
     <t>Tottenham</t>
   </si>
   <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>West Ham</t>
+    <t>Leicester</t>
   </si>
   <si>
     <t>Wolves</t>
@@ -479,21 +482,18 @@
     <t>Brighton</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Leicester</t>
+    <t>Southampton</t>
   </si>
   <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -512,498 +512,501 @@
     <t>Norwich</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
     <t>-4</t>
   </si>
   <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>e1_GD</t>
+  </si>
+  <si>
+    <t>e1_PTS</t>
+  </si>
+  <si>
+    <t>e1_rank</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>e2_GD</t>
+  </si>
+  <si>
+    <t>e2_PTS</t>
+  </si>
+  <si>
+    <t>e2_rank</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>e3_rank</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>ec_GD</t>
+  </si>
+  <si>
+    <t>ec_PTS</t>
+  </si>
+  <si>
+    <t>ec_rank</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>f1_GD</t>
+  </si>
+  <si>
+    <t>f1_PTS</t>
+  </si>
+  <si>
+    <t>f1_rank</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>f2_GD</t>
+  </si>
+  <si>
+    <t>f2_PTS</t>
+  </si>
+  <si>
+    <t>f2_rank</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
     <t>-3</t>
   </si>
   <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>-31</t>
-  </si>
-  <si>
-    <t>e1_GD</t>
-  </si>
-  <si>
-    <t>e1_PTS</t>
-  </si>
-  <si>
-    <t>e1_rank</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Peterboro</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>e2_GD</t>
-  </si>
-  <si>
-    <t>e2_PTS</t>
-  </si>
-  <si>
-    <t>e2_rank</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>e3_rank</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>ec_GD</t>
-  </si>
-  <si>
-    <t>ec_PTS</t>
-  </si>
-  <si>
-    <t>ec_rank</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>f1_GD</t>
-  </si>
-  <si>
-    <t>f1_PTS</t>
-  </si>
-  <si>
-    <t>f1_rank</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>f2_GD</t>
-  </si>
-  <si>
-    <t>f2_PTS</t>
-  </si>
-  <si>
-    <t>f2_rank</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
     <t>-11</t>
   </si>
   <si>
@@ -1295,10 +1298,16 @@
     <t>Portimonense</t>
   </si>
   <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
     <t>Guimaraes</t>
   </si>
   <si>
-    <t>Gil Vicente</t>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
   </si>
   <si>
     <t>Boavista</t>
@@ -1307,27 +1316,21 @@
     <t>Arouca</t>
   </si>
   <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
     <t>Santa Clara</t>
   </si>
   <si>
     <t>Vizela</t>
   </si>
   <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
     <t>Tondela</t>
   </si>
   <si>
     <t>Famalicao</t>
   </si>
   <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
     <t>Belenenses</t>
   </si>
   <si>
@@ -1391,10 +1394,10 @@
     <t>Inverness C</t>
   </si>
   <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
     <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
   </si>
   <si>
     <t>Partick</t>
@@ -2769,7 +2772,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>61</v>
@@ -2804,7 +2807,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
         <v>61</v>
@@ -2874,7 +2877,7 @@
         <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J13" t="s">
         <v>59</v>
@@ -3084,7 +3087,7 @@
         <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -3119,7 +3122,7 @@
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
@@ -3200,13 +3203,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
@@ -3214,7 +3217,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3249,7 +3252,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -3284,7 +3287,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -3319,7 +3322,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -3354,7 +3357,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -3389,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -3424,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -3459,7 +3462,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -3494,7 +3497,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -3515,7 +3518,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
@@ -3529,7 +3532,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -3564,7 +3567,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -3599,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -3634,7 +3637,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -3669,7 +3672,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3736,13 +3739,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
@@ -3750,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3774,7 +3777,7 @@
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -3785,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3820,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3844,7 +3847,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3855,7 +3858,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3890,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -3925,7 +3928,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -3960,7 +3963,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -3995,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -4010,7 +4013,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -4030,7 +4033,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -4051,7 +4054,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J10" t="s">
         <v>102</v>
@@ -4065,7 +4068,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -4086,7 +4089,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
         <v>102</v>
@@ -4100,7 +4103,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -4135,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -4170,7 +4173,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -4205,7 +4208,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -4240,7 +4243,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -4275,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -4310,7 +4313,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -4328,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
@@ -4345,7 +4348,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -4380,7 +4383,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -4415,7 +4418,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4436,7 +4439,7 @@
         <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -4482,13 +4485,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
@@ -4496,7 +4499,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -4531,7 +4534,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -4566,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -4601,7 +4604,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -4636,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -4671,7 +4674,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -4706,7 +4709,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -4741,7 +4744,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -4776,7 +4779,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -4811,7 +4814,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -4846,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -4881,7 +4884,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -4916,7 +4919,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -4951,7 +4954,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -4986,7 +4989,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -5007,7 +5010,7 @@
         <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5021,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -5056,7 +5059,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -5091,7 +5094,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -5126,7 +5129,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -5147,7 +5150,7 @@
         <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -5161,7 +5164,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -5182,7 +5185,7 @@
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -5228,13 +5231,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
@@ -5242,7 +5245,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -5257,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -5277,7 +5280,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -5298,7 +5301,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J3" t="s">
         <v>66</v>
@@ -5312,7 +5315,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -5336,7 +5339,7 @@
         <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -5347,7 +5350,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -5382,7 +5385,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -5417,7 +5420,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -5452,7 +5455,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -5487,7 +5490,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -5505,7 +5508,7 @@
         <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I9" t="s">
         <v>131</v>
@@ -5522,7 +5525,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -5557,7 +5560,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -5592,7 +5595,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -5627,7 +5630,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -5662,7 +5665,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -5697,7 +5700,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -5732,7 +5735,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -5753,7 +5756,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
@@ -5767,7 +5770,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -5785,10 +5788,10 @@
         <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="I17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -5802,7 +5805,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -5837,7 +5840,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -5904,13 +5907,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
@@ -5918,13 +5921,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -5933,16 +5936,16 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -5953,13 +5956,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -5968,16 +5971,16 @@
         <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -5988,10 +5991,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -6000,16 +6003,16 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
@@ -6023,13 +6026,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -6038,16 +6041,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -6058,10 +6061,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -6070,16 +6073,16 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>78</v>
@@ -6093,10 +6096,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -6105,16 +6108,16 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
@@ -6128,31 +6131,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -6163,13 +6166,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -6178,16 +6181,16 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -6198,31 +6201,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -6233,13 +6236,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -6248,16 +6251,16 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -6268,19 +6271,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -6292,7 +6295,7 @@
         <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -6303,10 +6306,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -6315,16 +6318,16 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -6338,10 +6341,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -6350,16 +6353,16 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
         <v>22</v>
@@ -6373,10 +6376,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -6385,16 +6388,16 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
         <v>22</v>
@@ -6408,28 +6411,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
@@ -6443,31 +6446,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="I17" t="s">
-        <v>323</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -6478,31 +6481,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -6513,7 +6516,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -6534,7 +6537,7 @@
         <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -6580,13 +6583,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -6594,7 +6597,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -6618,7 +6621,7 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -6629,7 +6632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -6664,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -6699,7 +6702,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -6734,7 +6737,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -6769,7 +6772,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -6804,7 +6807,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -6839,7 +6842,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -6874,7 +6877,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -6909,7 +6912,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -6944,7 +6947,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -6979,7 +6982,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -7046,13 +7049,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2">
@@ -7060,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7095,7 +7098,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -7130,28 +7133,28 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
@@ -7165,31 +7168,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -7200,7 +7203,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -7235,7 +7238,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -7270,7 +7273,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -7305,7 +7308,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -7340,7 +7343,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -7375,31 +7378,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
         <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -7442,13 +7445,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2">
@@ -7456,7 +7459,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -7491,7 +7494,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -7526,13 +7529,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -7541,16 +7544,16 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7561,10 +7564,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -7573,16 +7576,16 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>102</v>
@@ -7596,7 +7599,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -7631,7 +7634,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -7666,7 +7669,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -7687,7 +7690,7 @@
         <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
@@ -7701,7 +7704,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -7736,7 +7739,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -7771,7 +7774,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -7838,13 +7841,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -7852,7 +7855,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -7887,7 +7890,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -7922,7 +7925,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -7957,7 +7960,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -7992,7 +7995,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -8013,7 +8016,7 @@
         <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J6" t="s">
         <v>59</v>
@@ -8027,7 +8030,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -8062,7 +8065,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -8097,7 +8100,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -8132,7 +8135,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -8167,7 +8170,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -8910,13 +8913,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
@@ -8924,7 +8927,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -8948,7 +8951,7 @@
         <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -8959,7 +8962,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -8994,7 +8997,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -9029,7 +9032,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -9064,7 +9067,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -9099,7 +9102,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -9134,7 +9137,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -9169,7 +9172,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -9204,7 +9207,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -9239,7 +9242,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -9274,7 +9277,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -9309,7 +9312,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -9330,7 +9333,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J13" t="s">
         <v>58</v>
@@ -9344,7 +9347,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -9379,7 +9382,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -9414,7 +9417,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -9449,7 +9452,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -9484,7 +9487,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -9519,7 +9522,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -9554,7 +9557,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -9589,7 +9592,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -9610,7 +9613,7 @@
         <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -9656,13 +9659,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2">
@@ -9670,7 +9673,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -9705,7 +9708,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
@@ -9729,7 +9732,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -9740,7 +9743,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -9775,7 +9778,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -9810,7 +9813,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -9845,7 +9848,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -9880,7 +9883,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -9915,7 +9918,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -9950,7 +9953,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -9985,7 +9988,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -10020,7 +10023,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -10055,7 +10058,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
@@ -10090,7 +10093,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -10111,7 +10114,7 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="J14" t="s">
         <v>102</v>
@@ -10125,7 +10128,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
@@ -10146,7 +10149,7 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
@@ -10160,7 +10163,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -10181,7 +10184,7 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
         <v>78</v>
@@ -10195,7 +10198,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
@@ -10230,7 +10233,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
@@ -10265,7 +10268,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -10300,7 +10303,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -10335,7 +10338,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -10370,7 +10373,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -10391,7 +10394,7 @@
         <v>102</v>
       </c>
       <c r="I22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -10405,7 +10408,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -10423,7 +10426,7 @@
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
         <v>135</v>
@@ -10472,13 +10475,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2">
@@ -10486,7 +10489,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -10510,7 +10513,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -10521,7 +10524,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -10545,7 +10548,7 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -10556,7 +10559,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -10591,7 +10594,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -10626,7 +10629,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -10661,7 +10664,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -10696,7 +10699,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -10731,7 +10734,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -10766,7 +10769,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -10801,7 +10804,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -10836,7 +10839,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -10871,7 +10874,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -10906,7 +10909,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -10941,7 +10944,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -10976,7 +10979,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -11011,7 +11014,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -11046,7 +11049,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -11067,7 +11070,7 @@
         <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
@@ -11081,7 +11084,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -11116,7 +11119,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -11151,7 +11154,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -11911,10 +11914,10 @@
         <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -11923,16 +11926,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -11946,28 +11949,28 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -11981,7 +11984,7 @@
         <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -11990,16 +11993,16 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>
@@ -12051,28 +12054,28 @@
         <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -12086,28 +12089,28 @@
         <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12121,28 +12124,28 @@
         <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12168,13 +12171,13 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -12191,28 +12194,28 @@
         <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -12229,25 +12232,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>160</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -12261,28 +12264,28 @@
         <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -12296,28 +12299,28 @@
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
         <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -12331,28 +12334,28 @@
         <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -12369,22 +12372,22 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
@@ -12471,7 +12474,7 @@
         <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -12480,16 +12483,16 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -12506,7 +12509,7 @@
         <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -12515,16 +12518,16 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -12576,7 +12579,7 @@
         <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -12585,13 +12588,13 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
         <v>163</v>
@@ -12657,10 +12660,10 @@
         <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -12669,16 +12672,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -12692,7 +12695,7 @@
         <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -12701,16 +12704,16 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>65</v>
@@ -12730,25 +12733,25 @@
         <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -12797,10 +12800,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -12809,16 +12812,16 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -12832,10 +12835,10 @@
         <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -12844,16 +12847,16 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12867,10 +12870,10 @@
         <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -12879,16 +12882,16 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12902,7 +12905,7 @@
         <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -12911,16 +12914,16 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -12937,7 +12940,7 @@
         <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -12946,16 +12949,16 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>62</v>
@@ -12972,7 +12975,7 @@
         <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -12981,16 +12984,16 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>62</v>
@@ -13007,28 +13010,28 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -13042,28 +13045,28 @@
         <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13077,28 +13080,28 @@
         <v>179</v>
       </c>
       <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13112,28 +13115,28 @@
         <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13147,28 +13150,28 @@
         <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -13200,7 +13203,7 @@
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
         <v>56</v>
@@ -13252,7 +13255,7 @@
         <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -13261,16 +13264,16 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
         <v>102</v>
@@ -13392,7 +13395,7 @@
         <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -13401,16 +13404,16 @@
         <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
         <v>58</v>
@@ -13442,7 +13445,7 @@
         <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I24" t="s">
         <v>193</v>
@@ -13462,7 +13465,7 @@
         <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -13471,16 +13474,16 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -13526,13 +13529,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" t="s">
         <v>195</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>196</v>
-      </c>
-      <c r="K1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -13540,31 +13543,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13575,7 +13578,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -13584,22 +13587,22 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13610,7 +13613,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -13645,7 +13648,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
@@ -13680,10 +13683,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -13692,16 +13695,16 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>66</v>
@@ -13715,13 +13718,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -13733,13 +13736,13 @@
         <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -13750,7 +13753,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -13785,10 +13788,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -13797,16 +13800,16 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -13820,7 +13823,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -13855,16 +13858,16 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -13873,13 +13876,13 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -13890,31 +13893,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -13925,28 +13928,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
         <v>55</v>
@@ -13960,7 +13963,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -13981,7 +13984,7 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
@@ -13995,7 +13998,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
         <v>59</v>
@@ -14030,7 +14033,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
@@ -14051,7 +14054,7 @@
         <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
         <v>53</v>
@@ -14065,7 +14068,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -14100,31 +14103,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -14135,28 +14138,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
         <v>78</v>
@@ -14170,7 +14173,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
@@ -14205,7 +14208,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
         <v>58</v>
@@ -14240,10 +14243,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -14252,16 +14255,16 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="J22" t="s">
         <v>47</v>
@@ -14275,31 +14278,31 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
         <v>27</v>
-      </c>
-      <c r="H23" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" t="s">
-        <v>134</v>
-      </c>
-      <c r="J23" t="s">
-        <v>26</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -14310,31 +14313,31 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -14345,31 +14348,31 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
         <v>22</v>
       </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -14450,7 +14453,7 @@
         <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -14642,25 +14645,25 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14674,25 +14677,25 @@
         <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -15059,13 +15062,13 @@
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -15077,10 +15080,10 @@
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15129,28 +15132,28 @@
         <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15164,25 +15167,25 @@
         <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
         <v>79</v>
@@ -15199,22 +15202,22 @@
         <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
         <v>162</v>
@@ -15234,13 +15237,13 @@
         <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
@@ -15249,13 +15252,13 @@
         <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -15298,13 +15301,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
         <v>250</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>251</v>
-      </c>
-      <c r="K1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2">
@@ -15312,31 +15315,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15347,31 +15350,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15382,31 +15385,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -15417,10 +15420,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -15429,16 +15432,16 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
@@ -15452,31 +15455,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -15487,10 +15490,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -15499,16 +15502,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>63</v>
@@ -15522,31 +15525,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -15557,31 +15560,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15592,31 +15595,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -15627,7 +15630,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -15662,7 +15665,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -15697,31 +15700,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -15732,31 +15735,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -15767,31 +15770,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -15802,10 +15805,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -15814,16 +15817,16 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
         <v>78</v>
@@ -15837,28 +15840,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
@@ -15872,10 +15875,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -15884,16 +15887,16 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
         <v>46</v>
@@ -15907,7 +15910,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -15942,31 +15945,31 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -15977,31 +15980,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -16012,7 +16015,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
@@ -16033,7 +16036,7 @@
         <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
@@ -16047,7 +16050,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" t="s">
         <v>79</v>
@@ -16082,10 +16085,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
@@ -16094,13 +16097,13 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="I24" t="s">
         <v>276</v>
@@ -16178,7 +16181,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -16187,7 +16190,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -16811,7 +16814,7 @@
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
         <v>134</v>

--- a/LeagueTable.xlsx
+++ b/LeagueTable.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="560">
   <si>
     <t>Team</t>
   </si>
@@ -464,22 +464,25 @@
     <t>Arsenal</t>
   </si>
   <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
     <t>Man United</t>
   </si>
   <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Tottenham</t>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Brighton</t>
   </si>
   <si>
     <t>Leicester</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Brighton</t>
+    <t>Brentford</t>
   </si>
   <si>
     <t>Crystal Palace</t>
@@ -491,9 +494,6 @@
     <t>Southampton</t>
   </si>
   <si>
-    <t>Brentford</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -512,624 +512,636 @@
     <t>Norwich</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>e1_GD</t>
+  </si>
+  <si>
+    <t>e1_PTS</t>
+  </si>
+  <si>
+    <t>e1_rank</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>e2_GD</t>
+  </si>
+  <si>
+    <t>e2_PTS</t>
+  </si>
+  <si>
+    <t>e2_rank</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>e3_GD</t>
+  </si>
+  <si>
+    <t>e3_PTS</t>
+  </si>
+  <si>
+    <t>e3_rank</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>ec_GD</t>
+  </si>
+  <si>
+    <t>ec_PTS</t>
+  </si>
+  <si>
+    <t>ec_rank</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t>f1_GD</t>
+  </si>
+  <si>
+    <t>f1_PTS</t>
+  </si>
+  <si>
+    <t>f1_rank</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>f2_GD</t>
+  </si>
+  <si>
+    <t>f2_PTS</t>
+  </si>
+  <si>
+    <t>f2_rank</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
     <t>-4</t>
   </si>
   <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>-34</t>
-  </si>
-  <si>
-    <t>e1_GD</t>
-  </si>
-  <si>
-    <t>e1_PTS</t>
-  </si>
-  <si>
-    <t>e1_rank</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Peterboro</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>e2_GD</t>
-  </si>
-  <si>
-    <t>e2_PTS</t>
-  </si>
-  <si>
-    <t>e2_rank</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>e3_GD</t>
-  </si>
-  <si>
-    <t>e3_PTS</t>
-  </si>
-  <si>
-    <t>e3_rank</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>ec_GD</t>
-  </si>
-  <si>
-    <t>ec_PTS</t>
-  </si>
-  <si>
-    <t>ec_rank</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>g1_GD</t>
+  </si>
+  <si>
+    <t>g1_PTS</t>
+  </si>
+  <si>
+    <t>g1_rank</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>i1_GD</t>
+  </si>
+  <si>
+    <t>i1_PTS</t>
+  </si>
+  <si>
+    <t>i1_rank</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
   </si>
   <si>
     <t>-31</t>
   </si>
   <si>
-    <t>f1_GD</t>
-  </si>
-  <si>
-    <t>f1_PTS</t>
-  </si>
-  <si>
-    <t>f1_rank</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>f2_GD</t>
-  </si>
-  <si>
-    <t>f2_PTS</t>
-  </si>
-  <si>
-    <t>f2_rank</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>g1_GD</t>
-  </si>
-  <si>
-    <t>g1_PTS</t>
-  </si>
-  <si>
-    <t>g1_rank</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>i1_GD</t>
-  </si>
-  <si>
-    <t>i1_PTS</t>
-  </si>
-  <si>
-    <t>i1_rank</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
     <t>i2_GD</t>
   </si>
   <si>
@@ -1265,12 +1277,6 @@
     <t>Zwolle</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
     <t>p1_GD</t>
   </si>
   <si>
@@ -1313,21 +1319,21 @@
     <t>Boavista</t>
   </si>
   <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
     <t>Arouca</t>
   </si>
   <si>
     <t>Santa Clara</t>
   </si>
   <si>
-    <t>Vizela</t>
-  </si>
-  <si>
     <t>Moreirense</t>
   </si>
   <si>
-    <t>Tondela</t>
-  </si>
-  <si>
     <t>Famalicao</t>
   </si>
   <si>
@@ -1394,12 +1400,12 @@
     <t>Inverness C</t>
   </si>
   <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
     <t>Kilmarnock</t>
   </si>
   <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
     <t>Partick</t>
   </si>
   <si>
@@ -1478,6 +1484,9 @@
     <t>Edinburgh City</t>
   </si>
   <si>
+    <t>Stirling</t>
+  </si>
+  <si>
     <t>Stenhousemuir</t>
   </si>
   <si>
@@ -1487,9 +1496,6 @@
     <t>Albion Rvs</t>
   </si>
   <si>
-    <t>Stirling</t>
-  </si>
-  <si>
     <t>Elgin</t>
   </si>
   <si>
@@ -1514,18 +1520,18 @@
     <t>Betis</t>
   </si>
   <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
     <t>Vallecano</t>
   </si>
   <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
     <t>Valencia</t>
   </si>
   <si>
@@ -1538,27 +1544,27 @@
     <t>Espanol</t>
   </si>
   <si>
+    <t>Celta</t>
+  </si>
+  <si>
     <t>Granada</t>
   </si>
   <si>
     <t>Osasuna</t>
   </si>
   <si>
-    <t>Celta</t>
-  </si>
-  <si>
     <t>Mallorca</t>
   </si>
   <si>
+    <t>Getafe</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
     <t>Elche</t>
   </si>
   <si>
-    <t>Getafe</t>
-  </si>
-  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -1580,15 +1586,15 @@
     <t>Eibar</t>
   </si>
   <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
     <t>Tenerife</t>
   </si>
   <si>
     <t>Ponferradina</t>
   </si>
   <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
     <t>Girona</t>
   </si>
   <si>
@@ -1601,37 +1607,37 @@
     <t>Oviedo</t>
   </si>
   <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>Burgos</t>
   </si>
   <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
+  </si>
+  <si>
     <t>Huesca</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
+    <t>Mirandes</t>
   </si>
   <si>
     <t>Zaragoza</t>
   </si>
   <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
     <t>Leganes</t>
   </si>
   <si>
     <t>Lugo</t>
   </si>
   <si>
-    <t>Mirandes</t>
+    <t>Amorebieta</t>
   </si>
   <si>
     <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
   </si>
   <si>
     <t>Sociedad B</t>
@@ -2457,13 +2463,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
@@ -2471,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -2506,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -2541,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -2576,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2611,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -2646,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -2681,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -2716,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -2751,7 +2757,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -2772,7 +2778,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
         <v>61</v>
@@ -2786,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -2807,7 +2813,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="J11" t="s">
         <v>61</v>
@@ -2821,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -2856,7 +2862,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -2877,7 +2883,7 @@
         <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
         <v>59</v>
@@ -2891,7 +2897,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -2926,7 +2932,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -2961,7 +2967,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -2996,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -3031,7 +3037,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -3066,7 +3072,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -3087,7 +3093,7 @@
         <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
@@ -3101,7 +3107,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -3122,7 +3128,7 @@
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
@@ -3136,7 +3142,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -3203,13 +3209,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -3217,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3252,7 +3258,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -3287,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -3322,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -3357,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -3392,7 +3398,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -3427,7 +3433,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -3462,7 +3468,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -3497,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -3518,7 +3524,7 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
@@ -3532,7 +3538,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -3567,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -3602,7 +3608,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -3637,7 +3643,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -3658,7 +3664,7 @@
         <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -3672,7 +3678,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -3739,13 +3745,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
@@ -3753,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -3777,7 +3783,7 @@
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -3788,7 +3794,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -3823,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3847,7 +3853,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -3858,7 +3864,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -3893,7 +3899,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -3928,7 +3934,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -3963,7 +3969,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -3998,7 +4004,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -4013,7 +4019,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -4033,7 +4039,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -4054,7 +4060,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="J10" t="s">
         <v>102</v>
@@ -4068,7 +4074,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -4089,7 +4095,7 @@
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="J11" t="s">
         <v>102</v>
@@ -4103,7 +4109,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -4138,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -4173,7 +4179,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -4208,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -4243,7 +4249,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -4278,7 +4284,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -4313,7 +4319,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -4331,7 +4337,7 @@
         <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
         <v>71</v>
@@ -4348,7 +4354,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -4369,7 +4375,7 @@
         <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -4383,7 +4389,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -4418,7 +4424,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -4439,7 +4445,7 @@
         <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -4485,13 +4491,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="J1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
@@ -4499,7 +4505,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -4534,7 +4540,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -4569,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -4604,7 +4610,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -4639,7 +4645,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -4674,7 +4680,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -4709,7 +4715,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -4744,7 +4750,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -4779,7 +4785,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -4814,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -4849,7 +4855,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -4884,7 +4890,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -4919,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -4954,7 +4960,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -4989,7 +4995,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -5010,7 +5016,7 @@
         <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -5024,7 +5030,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -5059,7 +5065,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -5094,7 +5100,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -5129,7 +5135,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -5150,7 +5156,7 @@
         <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -5164,7 +5170,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -5185,7 +5191,7 @@
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -5231,13 +5237,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
@@ -5245,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -5260,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="H2" t="s">
         <v>61</v>
@@ -5280,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -5301,7 +5307,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="J3" t="s">
         <v>66</v>
@@ -5315,7 +5321,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -5339,7 +5345,7 @@
         <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -5350,7 +5356,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -5385,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -5420,7 +5426,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -5455,7 +5461,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -5490,7 +5496,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -5508,7 +5514,7 @@
         <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
         <v>131</v>
@@ -5525,7 +5531,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -5560,7 +5566,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -5595,7 +5601,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -5630,7 +5636,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -5665,7 +5671,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -5700,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -5721,7 +5727,7 @@
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -5735,7 +5741,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -5756,7 +5762,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
         <v>25</v>
@@ -5770,7 +5776,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -5788,10 +5794,10 @@
         <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="I17" t="s">
-        <v>411</v>
+        <v>225</v>
       </c>
       <c r="J17" t="s">
         <v>22</v>
@@ -5805,7 +5811,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -5840,7 +5846,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C19" t="s">
         <v>27</v>
@@ -5907,13 +5913,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
@@ -5921,7 +5927,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -5945,7 +5951,7 @@
         <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -5956,7 +5962,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -5980,7 +5986,7 @@
         <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -5991,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -6026,7 +6032,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -6061,7 +6067,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -6096,7 +6102,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -6131,7 +6137,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -6166,7 +6172,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -6201,7 +6207,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -6236,7 +6242,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -6271,7 +6277,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -6306,7 +6312,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -6315,22 +6321,22 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -6341,31 +6347,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -6376,31 +6382,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" t="s">
         <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" t="s">
-        <v>133</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -6411,31 +6417,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -6446,28 +6452,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
         <v>21</v>
@@ -6481,7 +6487,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -6502,7 +6508,7 @@
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -6516,10 +6522,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -6528,16 +6534,16 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
@@ -6583,13 +6589,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2">
@@ -6597,7 +6603,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -6621,7 +6627,7 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -6632,7 +6638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -6667,7 +6673,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -6702,7 +6708,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -6737,7 +6743,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -6772,7 +6778,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -6807,7 +6813,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -6842,7 +6848,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -6877,7 +6883,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -6912,7 +6918,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -6947,7 +6953,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -6982,7 +6988,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -7049,13 +7055,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2">
@@ -7063,16 +7069,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -7087,7 +7093,7 @@
         <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7098,16 +7104,16 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -7122,7 +7128,7 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7133,31 +7139,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7168,28 +7174,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
@@ -7203,7 +7209,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -7238,13 +7244,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -7253,16 +7259,16 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
         <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -7273,7 +7279,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -7308,10 +7314,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -7320,16 +7326,16 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
@@ -7343,16 +7349,16 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -7367,7 +7373,7 @@
         <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -7378,7 +7384,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -7445,13 +7451,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2">
@@ -7459,13 +7465,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -7474,16 +7480,16 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -7494,13 +7500,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -7509,16 +7515,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -7529,13 +7535,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -7544,16 +7550,16 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7564,7 +7570,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -7599,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -7634,7 +7640,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -7669,10 +7675,10 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -7681,16 +7687,16 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
         <v>58</v>
@@ -7704,7 +7710,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -7739,10 +7745,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -7751,16 +7757,16 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -7774,10 +7780,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -7786,16 +7792,16 @@
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -7841,13 +7847,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
@@ -7855,7 +7861,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -7890,10 +7896,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -7902,16 +7908,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>77</v>
@@ -7925,31 +7931,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -7960,7 +7966,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -7995,31 +8001,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>323</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -8030,31 +8036,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -8065,31 +8071,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -8100,7 +8106,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -8118,10 +8124,10 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
@@ -8135,13 +8141,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -8150,16 +8156,16 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -8170,7 +8176,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -8191,7 +8197,7 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -8913,13 +8919,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
@@ -8927,10 +8933,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -8939,19 +8945,19 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -8962,13 +8968,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -8977,16 +8983,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -8997,10 +9003,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -9009,16 +9015,16 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>52</v>
@@ -9032,31 +9038,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -9067,31 +9073,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -9102,31 +9108,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -9137,31 +9143,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9172,10 +9178,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -9184,16 +9190,16 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
@@ -9207,13 +9213,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -9222,16 +9228,16 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -9242,13 +9248,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -9257,16 +9263,16 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -9277,13 +9283,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -9292,16 +9298,16 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -9312,31 +9318,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
         <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>323</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -9347,31 +9353,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -9382,31 +9388,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
       <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
         <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -9417,10 +9423,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -9429,16 +9435,16 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -9452,31 +9458,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -9487,31 +9493,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -9522,31 +9528,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -9557,10 +9563,10 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -9569,16 +9575,16 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
@@ -9592,10 +9598,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>67</v>
@@ -9604,16 +9610,16 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -9659,13 +9665,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
@@ -9673,10 +9679,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -9685,16 +9691,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>65</v>
@@ -9708,13 +9714,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -9723,16 +9729,16 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -9743,31 +9749,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -9778,31 +9784,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -9813,28 +9819,28 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
@@ -9848,13 +9854,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -9863,16 +9869,16 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -9883,13 +9889,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -9898,16 +9904,16 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -9918,13 +9924,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -9933,16 +9939,16 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -9953,13 +9959,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -9968,16 +9974,16 @@
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -9988,31 +9994,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -10023,31 +10029,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
         <v>11.0</v>
@@ -10058,31 +10064,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
       <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" t="s">
         <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" t="s">
-        <v>102</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -10093,31 +10099,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -10128,31 +10134,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -10163,31 +10169,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -10198,31 +10204,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -10233,31 +10239,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -10268,31 +10274,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -10303,10 +10309,10 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -10315,13 +10321,13 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
         <v>131</v>
@@ -10338,31 +10344,31 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
-        <v>60</v>
-      </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K21" t="n">
         <v>20.0</v>
@@ -10373,10 +10379,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -10385,16 +10391,16 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -10408,10 +10414,10 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -10420,16 +10426,16 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -10475,13 +10481,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2">
@@ -10489,7 +10495,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -10513,7 +10519,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -10524,7 +10530,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -10548,7 +10554,7 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -10559,7 +10565,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -10594,7 +10600,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -10629,7 +10635,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -10664,7 +10670,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -10699,7 +10705,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -10734,7 +10740,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -10769,7 +10775,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -10804,7 +10810,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -10839,7 +10845,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -10874,7 +10880,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -10909,7 +10915,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -10944,7 +10950,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -10979,7 +10985,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -11014,7 +11020,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -11049,7 +11055,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -11070,7 +11076,7 @@
         <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
@@ -11084,7 +11090,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -11119,7 +11125,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -11154,7 +11160,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -11175,7 +11181,7 @@
         <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -11914,10 +11920,10 @@
         <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -11929,13 +11935,13 @@
         <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -11949,28 +11955,28 @@
         <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -11984,28 +11990,28 @@
         <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -12019,7 +12025,7 @@
         <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -12028,16 +12034,16 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>77</v>
@@ -12054,28 +12060,28 @@
         <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -12089,28 +12095,28 @@
         <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12124,28 +12130,28 @@
         <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12159,10 +12165,10 @@
         <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -12171,16 +12177,16 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -12194,28 +12200,28 @@
         <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -12232,25 +12238,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -12267,22 +12273,22 @@
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="J12" t="s">
         <v>59</v>
@@ -12299,28 +12305,28 @@
         <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -12337,25 +12343,25 @@
         <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -12369,28 +12375,28 @@
         <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
         <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" t="s">
-        <v>47</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -12404,7 +12410,7 @@
         <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -12413,16 +12419,16 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
         <v>79</v>
@@ -12439,10 +12445,10 @@
         <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -12451,16 +12457,16 @@
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -12474,7 +12480,7 @@
         <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -12483,16 +12489,16 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
         <v>22</v>
@@ -12509,7 +12515,7 @@
         <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -12518,16 +12524,16 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
         <v>20</v>
@@ -12695,13 +12701,13 @@
         <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -12716,7 +12722,7 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -12742,7 +12748,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s">
         <v>79</v>
@@ -12765,28 +12771,28 @@
         <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -12800,28 +12806,28 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -12835,28 +12841,28 @@
         <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -12870,28 +12876,28 @@
         <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -12905,7 +12911,7 @@
         <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -12914,16 +12920,16 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>77</v>
@@ -13010,25 +13016,25 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
@@ -13045,28 +13051,28 @@
         <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13080,28 +13086,28 @@
         <v>179</v>
       </c>
       <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
         <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13115,28 +13121,28 @@
         <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
         <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" t="s">
-        <v>57</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -13150,28 +13156,28 @@
         <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
         <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>55</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -13185,28 +13191,28 @@
         <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -13220,28 +13226,28 @@
         <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -13255,28 +13261,28 @@
         <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -13290,25 +13296,25 @@
         <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
         <v>102</v>
@@ -13360,7 +13366,7 @@
         <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -13369,16 +13375,16 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
         <v>59</v>
@@ -13395,28 +13401,28 @@
         <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -13445,10 +13451,10 @@
         <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
@@ -13529,13 +13535,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -13543,7 +13549,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -13552,22 +13558,22 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -13578,31 +13584,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -13613,7 +13619,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -13648,31 +13654,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -13683,31 +13689,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -13718,31 +13724,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -13753,16 +13759,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -13777,7 +13783,7 @@
         <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -13788,28 +13794,28 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -13823,31 +13829,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -13858,7 +13864,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
@@ -13876,7 +13882,7 @@
         <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
@@ -13893,7 +13899,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
@@ -13908,7 +13914,7 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H12" t="s">
         <v>62</v>
@@ -13928,31 +13934,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -13963,31 +13969,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -13998,31 +14004,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
         <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14033,31 +14039,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
       </c>
       <c r="I16" t="s">
         <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14068,16 +14074,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -14092,7 +14098,7 @@
         <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14103,10 +14109,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -14115,16 +14121,16 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -14138,7 +14144,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -14173,31 +14179,31 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
       </c>
       <c r="K20" t="n">
         <v>19.0</v>
@@ -14208,10 +14214,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -14220,13 +14226,13 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
         <v>131</v>
@@ -14243,31 +14249,31 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -14278,10 +14284,10 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -14290,16 +14296,16 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -14313,16 +14319,16 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>20</v>
@@ -14337,7 +14343,7 @@
         <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
         <v>23.0</v>
@@ -14348,10 +14354,10 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -14360,16 +14366,16 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
         <v>25</v>
@@ -14415,13 +14421,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -14429,13 +14435,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -14444,16 +14450,16 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -14464,10 +14470,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -14476,16 +14482,16 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -14499,31 +14505,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -14534,7 +14540,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -14543,22 +14549,22 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -14569,31 +14575,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -14604,31 +14610,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>77</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -14639,31 +14645,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -14674,10 +14680,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -14686,16 +14692,16 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -14709,7 +14715,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -14744,7 +14750,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -14779,7 +14785,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -14814,31 +14820,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -14849,31 +14855,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -14884,31 +14890,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -14919,31 +14925,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -14954,31 +14960,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
         <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>53</v>
       </c>
       <c r="K17" t="n">
         <v>16.0</v>
@@ -14989,7 +14995,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
@@ -14998,22 +15004,22 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
         <v>102</v>
-      </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -15024,31 +15030,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K19" t="n">
         <v>18.0</v>
@@ -15059,10 +15065,10 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -15071,16 +15077,16 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
         <v>59</v>
@@ -15094,10 +15100,10 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -15106,16 +15112,16 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
         <v>58</v>
@@ -15129,31 +15135,31 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
         <v>162</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K22" t="n">
         <v>21.0</v>
@@ -15164,31 +15170,31 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="K23" t="n">
         <v>22.0</v>
@@ -15199,10 +15205,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -15211,16 +15217,16 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
         <v>79</v>
@@ -15234,16 +15240,16 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
         <v>23</v>
@@ -15252,13 +15258,13 @@
         <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K25" t="n">
         <v>24.0</v>
@@ -15301,13 +15307,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
@@ -15315,13 +15321,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -15330,16 +15336,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -15350,31 +15356,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K3" t="n">
         <v>2.0</v>
@@ -15385,10 +15391,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -15397,19 +15403,19 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="K4" t="n">
         <v>3.0</v>
@@ -15420,31 +15426,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="K5" t="n">
         <v>4.0</v>
@@ -15455,7 +15461,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -15490,31 +15496,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -15525,7 +15531,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -15534,22 +15540,22 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -15560,31 +15566,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K9" t="n">
         <v>8.0</v>
@@ -15595,31 +15601,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K10" t="n">
         <v>9.0</v>
@@ -15630,31 +15636,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -15665,10 +15671,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -15677,16 +15683,16 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
@@ -15700,13 +15706,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -15715,16 +15721,16 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>12.0</v>
@@ -15735,31 +15741,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" t="n">
         <v>13.0</v>
@@ -15770,31 +15776,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
         <v>14.0</v>
@@ -15805,31 +15811,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K16" t="n">
         <v>15.0</v>
@@ -15840,10 +15846,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -15852,16 +15858,16 @@
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
         <v>78</v>
@@ -15875,13 +15881,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -15890,16 +15896,16 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
         <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" t="s">
-        <v>46</v>
       </c>
       <c r="K18" t="n">
         <v>17.0</v>
@@ -15910,7 +15916,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -15945,7 +15951,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -15966,7 +15972,7 @@
         <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -15980,7 +15986,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -16015,10 +16021,10 @@
         <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
@@ -16027,16 +16033,16 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
@@ -16050,10 +16056,10 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -16062,16 +16068,16 @@
         <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
         <v>20</v>
@@ -16085,10 +16091,10 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
@@ -16097,16 +16103,16 @@
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -16152,13 +16158,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -16166,7 +16172,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -16181,7 +16187,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -16190,7 +16196,7 @@
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K2" t="n">
         <v>1.0</v>
@@ -16201,7 +16207,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -16236,7 +16242,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -16271,7 +16277,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -16306,7 +16312,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -16341,7 +16347,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -16376,7 +16382,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -16411,7 +16417,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -16446,7 +16452,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -16481,7 +16487,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -16516,7 +16522,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -16551,7 +16557,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -16586,7 +16592,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -16621,7 +16627,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -16656,7 +16662,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -16691,7 +16697,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -16726,7 +16732,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -16761,7 +16767,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -16796,7 +16802,7 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
@@ -16814,7 +16820,7 @@
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s">
         <v>134</v>
@@ -16831,7 +16837,7 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
